--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="468">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,15 +25,51 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>First XOR</t>
+  </si>
+  <si>
+    <t>Shared Project</t>
+  </si>
+  <si>
+    <t>The Fragmented Truth</t>
+  </si>
+  <si>
+    <t>Find My Pin</t>
+  </si>
+  <si>
+    <t>Phantom Pings</t>
+  </si>
+  <si>
+    <t>Keyboark Junks</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Suna Saili</t>
+  </si>
+  <si>
+    <t>Eric Zimmerman</t>
+  </si>
+  <si>
+    <t>Obfuscation Station</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Steg</t>
+  </si>
+  <si>
+    <t>Packet Whisper</t>
+  </si>
+  <si>
     <t>XOR</t>
   </si>
   <si>
     <t>Basecally a flag</t>
   </si>
   <si>
-    <t>First XOR</t>
-  </si>
-  <si>
     <t>Duty Calls</t>
   </si>
   <si>
@@ -67,15 +103,9 @@
     <t>Substitute</t>
   </si>
   <si>
-    <t>Steg</t>
-  </si>
-  <si>
     <t>Commitment Issue</t>
   </si>
   <si>
-    <t>Obfuscation Station</t>
-  </si>
-  <si>
     <t>Final Destination</t>
   </si>
   <si>
@@ -103,18 +133,9 @@
     <t>Wordplay</t>
   </si>
   <si>
-    <t>Shared Project</t>
-  </si>
-  <si>
-    <t>Suna Saili</t>
-  </si>
-  <si>
     <t>Plain Sight</t>
   </si>
   <si>
-    <t>The Fragmented Truth</t>
-  </si>
-  <si>
     <t>JWT Admin Elevation</t>
   </si>
   <si>
@@ -136,15 +157,6 @@
     <t>Hidden In Channel</t>
   </si>
   <si>
-    <t>Eric Zimmerman</t>
-  </si>
-  <si>
-    <t>Keyboark Junks</t>
-  </si>
-  <si>
-    <t>Find My Pin</t>
-  </si>
-  <si>
     <t>Mysterious</t>
   </si>
   <si>
@@ -157,10 +169,13 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
-    <t>CCTV</t>
-  </si>
-  <si>
-    <t>Dispatch</t>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>YoursTruly</t>
   </si>
   <si>
     <t>Clay69</t>
@@ -175,9 +190,6 @@
     <t>Nargiza Maharjan</t>
   </si>
   <si>
-    <t>0xN1kU_H4X_!</t>
-  </si>
-  <si>
     <t>luffy</t>
   </si>
   <si>
@@ -238,9 +250,6 @@
     <t>aayush</t>
   </si>
   <si>
-    <t>GNU</t>
-  </si>
-  <si>
     <t>Yodha</t>
   </si>
   <si>
@@ -271,9 +280,6 @@
     <t>प्रणय</t>
   </si>
   <si>
-    <t>YoursTruly</t>
-  </si>
-  <si>
     <t>MoonLight</t>
   </si>
   <si>
@@ -299,6 +305,51 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 10:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 8:08 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 3:58 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 2:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 2:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 1:44 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 10:53 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 10:32 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 7:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 5:45 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 5:08 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 3:07 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 2:11 a.m.</t>
+  </si>
+  <si>
+    <t>June 17, 2025, 5:10 a.m.</t>
   </si>
   <si>
     <t>June 13, 2025, 10:55 a.m.</t>
@@ -1724,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C376"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1746,10 +1797,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1757,10 +1808,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1768,10 +1819,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1779,10 +1830,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1790,406 +1841,406 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2200,601 +2251,601 @@
         <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2802,329 +2853,329 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C121" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3132,32 +3183,32 @@
         <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3165,384 +3216,384 @@
         <v>37</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B132" t="s">
         <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C140" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C152" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B155" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C156" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C157" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C158" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C159" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C162" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B163" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C165" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3550,131 +3601,131 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C167" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C168" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C169" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B170" t="s">
         <v>76</v>
       </c>
       <c r="C170" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C171" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C173" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C174" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B175" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C175" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B176" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C176" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3682,54 +3733,54 @@
         <v>36</v>
       </c>
       <c r="B178" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C179" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C180" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C181" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C182" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3737,21 +3788,21 @@
         <v>28</v>
       </c>
       <c r="B183" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C183" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C184" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3759,153 +3810,153 @@
         <v>28</v>
       </c>
       <c r="B185" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B186" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C186" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B187" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C187" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B188" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B189" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C189" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B190" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C190" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B192" t="s">
         <v>89</v>
       </c>
       <c r="C192" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B193" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C194" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B195" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C195" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B196" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C196" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B197" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C197" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B198" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3913,274 +3964,274 @@
         <v>23</v>
       </c>
       <c r="B199" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C199" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B200" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C200" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B201" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C201" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B202" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C202" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B203" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C203" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C204" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C205" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B206" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C206" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B207" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C207" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C208" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B209" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C209" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B210" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C210" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B211" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C211" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B212" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C212" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B213" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C213" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C214" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B215" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C215" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B217" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C217" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C218" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B219" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C219" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B220" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C220" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B221" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C221" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B222" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C222" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B223" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C223" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4188,1297 +4239,1297 @@
         <v>40</v>
       </c>
       <c r="B224" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C224" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B225" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C225" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B226" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C226" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B227" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C227" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B228" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B229" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C229" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B230" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C230" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B231" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C231" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C232" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C233" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B234" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C234" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B235" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C235" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C236" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B237" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C237" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B238" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C238" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C239" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C240" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B241" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C241" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B242" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C242" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C243" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C244" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C245" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C246" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B247" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C247" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C248" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C249" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C250" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C251" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C252" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C253" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B254" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C254" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C255" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B256" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C256" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B257" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C257" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B258" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C258" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B259" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C259" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B260" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C260" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B261" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C261" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C262" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B263" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C263" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B264" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C264" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B265" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C265" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B266" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C266" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B267" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C267" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C268" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B269" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C269" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B270" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C270" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B271" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C271" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B272" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C272" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C273" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B274" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C274" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B275" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C275" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B276" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C276" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B277" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C277" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B278" t="s">
         <v>93</v>
       </c>
       <c r="C278" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B279" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C279" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B280" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C280" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B281" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C281" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B282" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C282" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B283" t="s">
         <v>53</v>
       </c>
       <c r="C283" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B284" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C284" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B285" t="s">
         <v>93</v>
       </c>
       <c r="C285" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B286" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C286" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C287" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B290" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C290" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B291" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C291" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C292" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B293" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C293" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B294" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C294" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B295" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C296" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C297" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B298" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C298" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B299" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C299" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B300" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C300" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C301" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B302" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C302" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B303" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C303" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B304" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C304" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B305" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C305" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C306" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B307" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C307" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B308" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C308" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B309" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C309" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B310" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C310" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B311" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C311" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B312" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C312" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B313" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C313" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B314" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C314" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B315" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C315" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B316" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C316" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B317" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C317" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B318" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C318" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B319" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C319" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B320" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C320" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B321" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C321" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B322" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C322" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B323" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C323" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B324" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C324" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B325" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C325" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B326" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C326" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B327" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C327" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B328" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C328" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B329" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C329" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C330" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B331" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C331" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B332" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C332" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B333" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C333" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B334" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C334" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B335" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C335" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B336" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C336" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B337" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C337" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B338" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C338" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B339" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C339" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B340" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C340" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B341" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C341" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5486,98 +5537,98 @@
         <v>44</v>
       </c>
       <c r="B342" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C342" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C343" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B344" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C344" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B345" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C345" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B346" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C346" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B347" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C347" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B348" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C348" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C349" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B350" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C350" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5585,208 +5636,208 @@
         <v>9</v>
       </c>
       <c r="B351" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C351" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B352" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C352" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C353" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B354" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C354" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B355" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C355" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B356" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C356" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B357" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C357" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B358" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C358" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B359" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C359" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B360" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C360" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B361" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C361" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B362" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C362" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B363" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C363" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B364" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C364" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B365" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C365" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B366" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C366" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B367" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C367" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B368" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C368" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B369" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C369" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5794,76 +5845,241 @@
         <v>25</v>
       </c>
       <c r="B370" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C370" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B371" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C371" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B372" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C372" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B373" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C373" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B374" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C374" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B375" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C375" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B376" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C376" t="s">
-        <v>450</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>26</v>
+      </c>
+      <c r="B377" t="s">
+        <v>93</v>
+      </c>
+      <c r="C377" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>17</v>
+      </c>
+      <c r="B378" t="s">
+        <v>80</v>
+      </c>
+      <c r="C378" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>17</v>
+      </c>
+      <c r="B379" t="s">
+        <v>93</v>
+      </c>
+      <c r="C379" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>34</v>
+      </c>
+      <c r="B380" t="s">
+        <v>79</v>
+      </c>
+      <c r="C380" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>34</v>
+      </c>
+      <c r="B381" t="s">
+        <v>80</v>
+      </c>
+      <c r="C381" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" t="s">
+        <v>93</v>
+      </c>
+      <c r="C382" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>34</v>
+      </c>
+      <c r="B383" t="s">
+        <v>93</v>
+      </c>
+      <c r="C383" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" t="s">
+        <v>93</v>
+      </c>
+      <c r="C384" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" t="s">
+        <v>79</v>
+      </c>
+      <c r="C385" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>14</v>
+      </c>
+      <c r="B386" t="s">
+        <v>93</v>
+      </c>
+      <c r="C386" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>12</v>
+      </c>
+      <c r="B387" t="s">
+        <v>93</v>
+      </c>
+      <c r="C387" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388" t="s">
+        <v>80</v>
+      </c>
+      <c r="C388" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" t="s">
+        <v>93</v>
+      </c>
+      <c r="C389" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>31</v>
+      </c>
+      <c r="B390" t="s">
+        <v>93</v>
+      </c>
+      <c r="C390" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>31</v>
+      </c>
+      <c r="B391" t="s">
+        <v>79</v>
+      </c>
+      <c r="C391" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="469">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Unknown Cipher</t>
+  </si>
+  <si>
     <t>First XOR</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>Mysterious</t>
   </si>
   <si>
-    <t>Unknown Cipher</t>
-  </si>
-  <si>
     <t>Corrupted Chunks</t>
   </si>
   <si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 11:17 a.m.</t>
   </si>
   <si>
     <t>June 21, 2025, 10:26 a.m.</t>
@@ -1775,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C391"/>
+  <dimension ref="A1:C392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1849,10 +1852,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>102</v>
@@ -1860,10 +1863,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -1874,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1962,7 +1965,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -2006,7 +2009,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>116</v>
@@ -2017,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2028,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
@@ -2039,7 +2042,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
@@ -2072,7 +2075,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>122</v>
@@ -2080,10 +2083,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>123</v>
@@ -2091,10 +2094,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -2102,7 +2105,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -2113,10 +2116,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>126</v>
@@ -2124,10 +2127,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -2135,7 +2138,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -2201,10 +2204,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
@@ -2212,10 +2215,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>135</v>
@@ -2223,7 +2226,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -2234,21 +2237,21 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>137</v>
@@ -2256,10 +2259,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
         <v>138</v>
@@ -2270,7 +2273,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>139</v>
@@ -2281,7 +2284,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>140</v>
@@ -2289,10 +2292,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>141</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -2311,10 +2314,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
         <v>143</v>
@@ -2336,7 +2339,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>145</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -2355,7 +2358,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -2377,21 +2380,21 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>149</v>
@@ -2399,10 +2402,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>150</v>
@@ -2410,7 +2413,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -2421,10 +2424,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>152</v>
@@ -2432,10 +2435,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
         <v>153</v>
@@ -2454,10 +2457,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>155</v>
@@ -2465,10 +2468,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>156</v>
@@ -2476,32 +2479,32 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>157</v>
@@ -2509,10 +2512,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>158</v>
@@ -2520,10 +2523,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
         <v>159</v>
@@ -2531,10 +2534,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
@@ -2542,10 +2545,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>161</v>
@@ -2553,10 +2556,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>162</v>
@@ -2564,10 +2567,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
         <v>163</v>
@@ -2575,32 +2578,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
         <v>164</v>
@@ -2608,10 +2611,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
         <v>165</v>
@@ -2619,10 +2622,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
         <v>166</v>
@@ -2630,10 +2633,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
         <v>167</v>
@@ -2641,10 +2644,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
         <v>168</v>
@@ -2652,10 +2655,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
         <v>169</v>
@@ -2663,10 +2666,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>170</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
         <v>55</v>
@@ -2685,10 +2688,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
         <v>172</v>
@@ -2699,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
         <v>173</v>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
         <v>76</v>
@@ -2718,10 +2721,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -2729,10 +2732,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2740,10 +2743,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2751,7 +2754,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2773,10 +2776,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2784,7 +2787,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
         <v>77</v>
@@ -2795,10 +2798,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
         <v>52</v>
@@ -2820,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
         <v>184</v>
@@ -2828,7 +2831,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
         <v>76</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
         <v>76</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
         <v>76</v>
@@ -2861,7 +2864,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
         <v>76</v>
@@ -2872,10 +2875,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2883,7 +2886,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
         <v>78</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
         <v>78</v>
@@ -2916,10 +2919,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C104" t="s">
         <v>193</v>
@@ -2927,10 +2930,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
         <v>194</v>
@@ -2938,10 +2941,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
         <v>195</v>
@@ -2949,10 +2952,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
         <v>196</v>
@@ -2960,10 +2963,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
         <v>197</v>
@@ -2971,7 +2974,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
         <v>80</v>
@@ -2982,10 +2985,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
         <v>199</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
         <v>74</v>
@@ -3004,10 +3007,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C112" t="s">
         <v>201</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B113" t="s">
         <v>58</v>
@@ -3026,10 +3029,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -3037,7 +3040,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
         <v>74</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
         <v>74</v>
@@ -3059,10 +3062,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3070,7 +3073,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -3092,10 +3095,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
         <v>209</v>
@@ -3106,18 +3109,18 @@
         <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
         <v>210</v>
@@ -3125,7 +3128,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
         <v>74</v>
@@ -3136,7 +3139,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B124" t="s">
         <v>74</v>
@@ -3147,7 +3150,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B125" t="s">
         <v>74</v>
@@ -3158,10 +3161,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C126" t="s">
         <v>214</v>
@@ -3169,10 +3172,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C127" t="s">
         <v>215</v>
@@ -3180,21 +3183,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
         <v>216</v>
@@ -3202,21 +3205,21 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
         <v>217</v>
@@ -3224,10 +3227,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C132" t="s">
         <v>218</v>
@@ -3235,10 +3238,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
         <v>219</v>
@@ -3246,10 +3249,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
         <v>220</v>
@@ -3257,10 +3260,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
         <v>221</v>
@@ -3268,21 +3271,21 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C137" t="s">
         <v>222</v>
@@ -3290,10 +3293,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C138" t="s">
         <v>223</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C139" t="s">
         <v>224</v>
@@ -3312,21 +3315,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C141" t="s">
         <v>225</v>
@@ -3334,10 +3337,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C142" t="s">
         <v>226</v>
@@ -3345,10 +3348,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C143" t="s">
         <v>227</v>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B144" t="s">
         <v>82</v>
@@ -3367,10 +3370,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
         <v>229</v>
@@ -3378,10 +3381,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
         <v>230</v>
@@ -3389,10 +3392,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
         <v>231</v>
@@ -3400,21 +3403,21 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C148" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C149" t="s">
         <v>232</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
         <v>63</v>
@@ -3433,10 +3436,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C151" t="s">
         <v>234</v>
@@ -3444,10 +3447,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
         <v>235</v>
@@ -3455,10 +3458,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C153" t="s">
         <v>236</v>
@@ -3466,10 +3469,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C154" t="s">
         <v>237</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
         <v>85</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C156" t="s">
         <v>239</v>
@@ -3499,7 +3502,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B157" t="s">
         <v>82</v>
@@ -3510,10 +3513,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B158" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
         <v>241</v>
@@ -3521,7 +3524,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B159" t="s">
         <v>86</v>
@@ -3532,10 +3535,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C160" t="s">
         <v>243</v>
@@ -3543,10 +3546,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3554,7 +3557,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
         <v>59</v>
@@ -3565,29 +3568,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B163" t="s">
         <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B164" t="s">
         <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B165" t="s">
         <v>59</v>
@@ -3598,10 +3601,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C166" t="s">
         <v>247</v>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
         <v>76</v>
@@ -3620,10 +3623,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C168" t="s">
         <v>249</v>
@@ -3631,10 +3634,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B169" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C169" t="s">
         <v>250</v>
@@ -3642,7 +3645,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B170" t="s">
         <v>76</v>
@@ -3653,10 +3656,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B171" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C171" t="s">
         <v>252</v>
@@ -3664,10 +3667,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C172" t="s">
         <v>253</v>
@@ -3675,10 +3678,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C173" t="s">
         <v>254</v>
@@ -3686,10 +3689,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B174" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C174" t="s">
         <v>255</v>
@@ -3697,7 +3700,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B175" t="s">
         <v>87</v>
@@ -3708,10 +3711,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C176" t="s">
         <v>257</v>
@@ -3719,7 +3722,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B177" t="s">
         <v>59</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B178" t="s">
         <v>59</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B179" t="s">
         <v>59</v>
@@ -3752,21 +3755,21 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B180" t="s">
         <v>59</v>
       </c>
       <c r="C180" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
         <v>261</v>
@@ -3774,10 +3777,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C182" t="s">
         <v>262</v>
@@ -3785,10 +3788,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C183" t="s">
         <v>263</v>
@@ -3796,10 +3799,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B184" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C184" t="s">
         <v>264</v>
@@ -3807,10 +3810,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C185" t="s">
         <v>265</v>
@@ -3818,10 +3821,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B186" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C186" t="s">
         <v>266</v>
@@ -3829,10 +3832,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B187" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C187" t="s">
         <v>267</v>
@@ -3840,10 +3843,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B188" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C188" t="s">
         <v>268</v>
@@ -3851,10 +3854,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B189" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C189" t="s">
         <v>269</v>
@@ -3862,10 +3865,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C190" t="s">
         <v>270</v>
@@ -3873,10 +3876,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C191" t="s">
         <v>271</v>
@@ -3884,10 +3887,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
@@ -3895,10 +3898,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3906,10 +3909,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C194" t="s">
         <v>274</v>
@@ -3917,10 +3920,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3928,10 +3931,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3939,10 +3942,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C197" t="s">
         <v>277</v>
@@ -3950,10 +3953,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B198" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3961,10 +3964,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -3972,10 +3975,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C200" t="s">
         <v>280</v>
@@ -3983,10 +3986,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -3994,10 +3997,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C202" t="s">
         <v>282</v>
@@ -4005,10 +4008,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4016,10 +4019,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4027,10 +4030,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B205" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4038,10 +4041,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C206" t="s">
         <v>286</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
@@ -4060,7 +4063,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B208" t="s">
         <v>91</v>
@@ -4071,7 +4074,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B209" t="s">
         <v>91</v>
@@ -4082,10 +4085,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4093,10 +4096,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B211" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4104,7 +4107,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B212" t="s">
         <v>92</v>
@@ -4115,10 +4118,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4126,7 +4129,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B214" t="s">
         <v>93</v>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -4148,10 +4151,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B216" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C216" t="s">
         <v>296</v>
@@ -4159,10 +4162,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B217" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C217" t="s">
         <v>297</v>
@@ -4170,10 +4173,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B218" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C218" t="s">
         <v>298</v>
@@ -4181,10 +4184,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B219" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C219" t="s">
         <v>299</v>
@@ -4192,7 +4195,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B220" t="s">
         <v>51</v>
@@ -4203,10 +4206,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B221" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C221" t="s">
         <v>301</v>
@@ -4214,10 +4217,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>
@@ -4225,10 +4228,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B223" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4236,10 +4239,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B224" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C224" t="s">
         <v>304</v>
@@ -4247,10 +4250,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B225" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4258,10 +4261,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4269,10 +4272,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B227" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C227" t="s">
         <v>307</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B228" t="s">
         <v>55</v>
@@ -4291,7 +4294,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B229" t="s">
         <v>55</v>
@@ -4302,10 +4305,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B230" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C230" t="s">
         <v>310</v>
@@ -4313,10 +4316,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B231" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4324,10 +4327,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B232" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4335,10 +4338,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C233" t="s">
         <v>313</v>
@@ -4346,10 +4349,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C234" t="s">
         <v>314</v>
@@ -4357,10 +4360,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B235" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C235" t="s">
         <v>315</v>
@@ -4368,10 +4371,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B236" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C236" t="s">
         <v>316</v>
@@ -4379,7 +4382,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
         <v>56</v>
@@ -4390,7 +4393,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B238" t="s">
         <v>56</v>
@@ -4401,10 +4404,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B239" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C239" t="s">
         <v>319</v>
@@ -4423,10 +4426,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B241" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4434,10 +4437,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4445,10 +4448,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B243" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -4456,10 +4459,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B244" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C244" t="s">
         <v>324</v>
@@ -4467,7 +4470,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
         <v>89</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
         <v>89</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C247" t="s">
         <v>327</v>
@@ -4500,7 +4503,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B248" t="s">
         <v>80</v>
@@ -4511,7 +4514,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B249" t="s">
         <v>80</v>
@@ -4533,10 +4536,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C251" t="s">
         <v>331</v>
@@ -4544,10 +4547,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -4558,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C253" t="s">
         <v>333</v>
@@ -4566,10 +4569,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C254" t="s">
         <v>334</v>
@@ -4577,10 +4580,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B255" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C255" t="s">
         <v>335</v>
@@ -4588,10 +4591,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C256" t="s">
         <v>336</v>
@@ -4599,10 +4602,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B257" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C257" t="s">
         <v>337</v>
@@ -4610,10 +4613,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B258" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C258" t="s">
         <v>338</v>
@@ -4621,10 +4624,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B259" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C259" t="s">
         <v>339</v>
@@ -4632,10 +4635,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C260" t="s">
         <v>340</v>
@@ -4643,10 +4646,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B261" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C261" t="s">
         <v>341</v>
@@ -4654,7 +4657,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B262" t="s">
         <v>89</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B263" t="s">
         <v>89</v>
@@ -4676,10 +4679,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B264" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C264" t="s">
         <v>344</v>
@@ -4687,10 +4690,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4698,10 +4701,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B266" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C266" t="s">
         <v>346</v>
@@ -4709,10 +4712,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B267" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4720,10 +4723,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B268" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
@@ -4731,10 +4734,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B269" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C269" t="s">
         <v>349</v>
@@ -4742,10 +4745,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B270" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C270" t="s">
         <v>350</v>
@@ -4753,10 +4756,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B271" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C271" t="s">
         <v>351</v>
@@ -4764,10 +4767,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B272" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C272" t="s">
         <v>352</v>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B273" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C273" t="s">
         <v>353</v>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B274" t="s">
         <v>89</v>
@@ -4797,7 +4800,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B275" t="s">
         <v>89</v>
@@ -4808,10 +4811,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B276" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4819,10 +4822,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B277" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4830,10 +4833,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B278" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -4841,7 +4844,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B279" t="s">
         <v>93</v>
@@ -4852,10 +4855,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B280" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C280" t="s">
         <v>360</v>
@@ -4863,10 +4866,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B281" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -4874,10 +4877,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B282" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -4885,10 +4888,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B283" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C283" t="s">
         <v>363</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B284" t="s">
         <v>53</v>
@@ -4907,10 +4910,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B285" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C285" t="s">
         <v>365</v>
@@ -4918,21 +4921,21 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B286" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C286" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B287" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C287" t="s">
         <v>366</v>
@@ -4940,10 +4943,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B288" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C288" t="s">
         <v>367</v>
@@ -4951,10 +4954,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B289" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C289" t="s">
         <v>368</v>
@@ -4962,10 +4965,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B290" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C290" t="s">
         <v>369</v>
@@ -4973,10 +4976,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B291" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C291" t="s">
         <v>370</v>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
         <v>95</v>
@@ -4995,7 +4998,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B293" t="s">
         <v>95</v>
@@ -5006,10 +5009,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B294" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C294" t="s">
         <v>373</v>
@@ -5017,10 +5020,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B295" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C295" t="s">
         <v>374</v>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B296" t="s">
         <v>93</v>
@@ -5039,10 +5042,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C297" t="s">
         <v>376</v>
@@ -5050,10 +5053,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C298" t="s">
         <v>377</v>
@@ -5061,10 +5064,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B299" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C299" t="s">
         <v>378</v>
@@ -5072,10 +5075,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C300" t="s">
         <v>379</v>
@@ -5083,10 +5086,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B301" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C301" t="s">
         <v>380</v>
@@ -5094,7 +5097,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B302" t="s">
         <v>53</v>
@@ -5105,10 +5108,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B303" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C303" t="s">
         <v>382</v>
@@ -5116,10 +5119,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C304" t="s">
         <v>383</v>
@@ -5127,10 +5130,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B305" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5138,10 +5141,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B306" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C306" t="s">
         <v>385</v>
@@ -5149,7 +5152,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B307" t="s">
         <v>79</v>
@@ -5160,10 +5163,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B308" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5171,10 +5174,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B309" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C309" t="s">
         <v>388</v>
@@ -5182,10 +5185,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C310" t="s">
         <v>389</v>
@@ -5193,7 +5196,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B311" t="s">
         <v>80</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B312" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C312" t="s">
         <v>391</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B313" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B314" t="s">
         <v>96</v>
@@ -5237,10 +5240,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B315" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5248,10 +5251,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B316" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5259,21 +5262,21 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B317" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C317" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B318" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C318" t="s">
         <v>396</v>
@@ -5281,10 +5284,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B319" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C319" t="s">
         <v>397</v>
@@ -5292,10 +5295,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B320" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C320" t="s">
         <v>398</v>
@@ -5303,10 +5306,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B321" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C321" t="s">
         <v>399</v>
@@ -5314,10 +5317,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B322" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C322" t="s">
         <v>400</v>
@@ -5325,7 +5328,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B323" t="s">
         <v>90</v>
@@ -5336,10 +5339,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B324" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C324" t="s">
         <v>402</v>
@@ -5347,10 +5350,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B325" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C325" t="s">
         <v>403</v>
@@ -5358,10 +5361,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B326" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C326" t="s">
         <v>404</v>
@@ -5369,10 +5372,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B327" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C327" t="s">
         <v>405</v>
@@ -5380,7 +5383,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B328" t="s">
         <v>90</v>
@@ -5394,18 +5397,18 @@
         <v>50</v>
       </c>
       <c r="B329" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C329" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B330" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C330" t="s">
         <v>407</v>
@@ -5413,7 +5416,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B331" t="s">
         <v>79</v>
@@ -5424,10 +5427,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B332" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C332" t="s">
         <v>409</v>
@@ -5435,10 +5438,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B333" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C333" t="s">
         <v>410</v>
@@ -5446,10 +5449,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B334" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C334" t="s">
         <v>411</v>
@@ -5457,10 +5460,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B335" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C335" t="s">
         <v>412</v>
@@ -5468,10 +5471,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B336" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C336" t="s">
         <v>413</v>
@@ -5479,10 +5482,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B337" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C337" t="s">
         <v>414</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B338" t="s">
         <v>90</v>
@@ -5501,7 +5504,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B339" t="s">
         <v>90</v>
@@ -5512,10 +5515,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B340" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C340" t="s">
         <v>417</v>
@@ -5523,10 +5526,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B341" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C341" t="s">
         <v>418</v>
@@ -5534,7 +5537,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B342" t="s">
         <v>55</v>
@@ -5545,10 +5548,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B343" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5556,10 +5559,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -5567,10 +5570,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B345" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C345" t="s">
         <v>422</v>
@@ -5578,10 +5581,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B346" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C346" t="s">
         <v>423</v>
@@ -5589,10 +5592,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B347" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C347" t="s">
         <v>424</v>
@@ -5600,10 +5603,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C348" t="s">
         <v>425</v>
@@ -5611,10 +5614,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C349" t="s">
         <v>426</v>
@@ -5622,10 +5625,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B350" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C350" t="s">
         <v>427</v>
@@ -5633,10 +5636,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B351" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5644,10 +5647,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B352" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C352" t="s">
         <v>429</v>
@@ -5655,10 +5658,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B353" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5666,10 +5669,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B354" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5677,10 +5680,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B355" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C355" t="s">
         <v>432</v>
@@ -5688,7 +5691,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B356" t="s">
         <v>93</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B357" t="s">
         <v>93</v>
@@ -5710,7 +5713,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B358" t="s">
         <v>93</v>
@@ -5721,7 +5724,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B359" t="s">
         <v>93</v>
@@ -5732,10 +5735,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B360" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C360" t="s">
         <v>437</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B361" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5754,10 +5757,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B362" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -5765,10 +5768,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B363" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C363" t="s">
         <v>440</v>
@@ -5776,10 +5779,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B364" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C364" t="s">
         <v>441</v>
@@ -5787,10 +5790,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B365" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C365" t="s">
         <v>442</v>
@@ -5798,10 +5801,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B366" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C366" t="s">
         <v>443</v>
@@ -5809,10 +5812,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B367" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C367" t="s">
         <v>444</v>
@@ -5820,10 +5823,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C368" t="s">
         <v>445</v>
@@ -5831,10 +5834,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B369" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C369" t="s">
         <v>446</v>
@@ -5842,10 +5845,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B370" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C370" t="s">
         <v>447</v>
@@ -5853,10 +5856,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5864,10 +5867,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B372" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5875,10 +5878,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B373" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5892,15 +5895,15 @@
         <v>79</v>
       </c>
       <c r="C374" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B375" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C375" t="s">
         <v>451</v>
@@ -5908,10 +5911,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B376" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C376" t="s">
         <v>452</v>
@@ -5919,10 +5922,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B377" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C377" t="s">
         <v>453</v>
@@ -5930,10 +5933,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B378" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C378" t="s">
         <v>454</v>
@@ -5941,10 +5944,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B379" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C379" t="s">
         <v>455</v>
@@ -5952,10 +5955,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B380" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C380" t="s">
         <v>456</v>
@@ -5963,10 +5966,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B381" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C381" t="s">
         <v>457</v>
@@ -5974,10 +5977,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C382" t="s">
         <v>458</v>
@@ -5985,7 +5988,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B383" t="s">
         <v>93</v>
@@ -6007,10 +6010,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B385" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C385" t="s">
         <v>461</v>
@@ -6018,10 +6021,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B386" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C386" t="s">
         <v>462</v>
@@ -6029,7 +6032,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B387" t="s">
         <v>93</v>
@@ -6040,10 +6043,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B388" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C388" t="s">
         <v>464</v>
@@ -6051,10 +6054,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B389" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C389" t="s">
         <v>465</v>
@@ -6062,7 +6065,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B390" t="s">
         <v>93</v>
@@ -6073,13 +6076,24 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B391" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C391" t="s">
         <v>467</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>32</v>
+      </c>
+      <c r="B392" t="s">
+        <v>79</v>
+      </c>
+      <c r="C392" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="473">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,18 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Google Docs</t>
+  </si>
+  <si>
+    <t>Tap Tap</t>
+  </si>
+  <si>
+    <t>Spy Secrets</t>
+  </si>
+  <si>
+    <t>Substitute</t>
+  </si>
+  <si>
     <t>Unknown Cipher</t>
   </si>
   <si>
@@ -85,9 +97,6 @@
     <t>Dude where is my car</t>
   </si>
   <si>
-    <t>Tap Tap</t>
-  </si>
-  <si>
     <t>Javascript Puzzle</t>
   </si>
   <si>
@@ -97,15 +106,9 @@
     <t>Somewhere in Space</t>
   </si>
   <si>
-    <t>Spy Secrets</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
-    <t>Substitute</t>
-  </si>
-  <si>
     <t>Commitment Issue</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
     <t>GuessMe</t>
   </si>
   <si>
-    <t>Google Docs</t>
-  </si>
-  <si>
     <t>Greeting</t>
   </si>
   <si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 2:16 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 1:57 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 12:55 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 12:12 p.m.</t>
   </si>
   <si>
     <t>June 21, 2025, 11:17 a.m.</t>
@@ -1778,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:C396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,10 +1875,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -1874,10 +1886,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -1885,7 +1897,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -1896,7 +1908,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -1907,10 +1919,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>107</v>
@@ -1921,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>108</v>
@@ -1976,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>113</v>
@@ -1987,7 +1999,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>114</v>
@@ -1995,10 +2007,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>115</v>
@@ -2006,10 +2018,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>116</v>
@@ -2017,10 +2029,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2028,10 +2040,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
@@ -2039,7 +2051,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -2053,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>120</v>
@@ -2064,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
@@ -2075,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>122</v>
@@ -2094,10 +2106,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -2105,10 +2117,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
@@ -2116,10 +2128,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>126</v>
@@ -2127,10 +2139,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -2138,10 +2150,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
@@ -2149,7 +2161,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -2160,7 +2172,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -2171,10 +2183,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -2182,7 +2194,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -2193,7 +2205,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
@@ -2204,7 +2216,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
@@ -2215,10 +2227,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>135</v>
@@ -2226,10 +2238,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
@@ -2237,10 +2249,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>137</v>
@@ -2248,54 +2260,54 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
         <v>141</v>
@@ -2303,10 +2315,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>142</v>
@@ -2314,10 +2326,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>143</v>
@@ -2325,10 +2337,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
@@ -2336,10 +2348,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
         <v>145</v>
@@ -2347,7 +2359,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -2358,7 +2370,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -2369,10 +2381,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>148</v>
@@ -2380,10 +2392,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
@@ -2391,54 +2403,54 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>153</v>
@@ -2446,10 +2458,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>154</v>
@@ -2457,10 +2469,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>155</v>
@@ -2468,10 +2480,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>156</v>
@@ -2479,10 +2491,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -2490,65 +2502,65 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
         <v>161</v>
@@ -2556,10 +2568,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
         <v>162</v>
@@ -2567,10 +2579,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
         <v>163</v>
@@ -2578,7 +2590,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -2589,65 +2601,65 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
         <v>168</v>
@@ -2655,10 +2667,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C80" t="s">
         <v>169</v>
@@ -2666,10 +2678,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
         <v>170</v>
@@ -2677,10 +2689,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
         <v>171</v>
@@ -2688,10 +2700,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
         <v>172</v>
@@ -2699,10 +2711,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
         <v>173</v>
@@ -2710,10 +2722,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
         <v>174</v>
@@ -2721,10 +2733,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -2732,10 +2744,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2743,10 +2755,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2754,10 +2766,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -2765,10 +2777,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2776,10 +2788,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2787,10 +2799,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
         <v>181</v>
@@ -2798,7 +2810,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -2809,10 +2821,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -2820,10 +2832,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
         <v>184</v>
@@ -2831,10 +2843,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
         <v>185</v>
@@ -2842,10 +2854,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
         <v>186</v>
@@ -2853,10 +2865,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
         <v>187</v>
@@ -2864,10 +2876,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
         <v>188</v>
@@ -2875,7 +2887,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
         <v>76</v>
@@ -2886,10 +2898,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
@@ -2897,10 +2909,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
         <v>191</v>
@@ -2908,10 +2920,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
         <v>192</v>
@@ -2919,10 +2931,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>193</v>
@@ -2933,7 +2945,7 @@
         <v>42</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
         <v>194</v>
@@ -2941,7 +2953,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B106" t="s">
         <v>78</v>
@@ -2952,10 +2964,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
         <v>196</v>
@@ -2963,10 +2975,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
         <v>197</v>
@@ -2974,10 +2986,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C109" t="s">
         <v>198</v>
@@ -2985,10 +2997,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C110" t="s">
         <v>199</v>
@@ -2996,7 +3008,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
         <v>74</v>
@@ -3007,10 +3019,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s">
         <v>201</v>
@@ -3021,7 +3033,7 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
         <v>202</v>
@@ -3032,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -3040,7 +3052,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
         <v>74</v>
@@ -3051,7 +3063,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
         <v>74</v>
@@ -3065,7 +3077,7 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3073,7 +3085,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>58</v>
@@ -3084,10 +3096,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
         <v>208</v>
@@ -3095,10 +3107,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
         <v>209</v>
@@ -3106,7 +3118,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
         <v>74</v>
@@ -3117,54 +3129,54 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
         <v>58</v>
       </c>
       <c r="C122" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
         <v>74</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C126" t="s">
         <v>214</v>
@@ -3172,10 +3184,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
         <v>215</v>
@@ -3183,10 +3195,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
         <v>216</v>
@@ -3194,13 +3206,13 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3208,62 +3220,62 @@
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C132" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C133" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C135" t="s">
         <v>221</v>
@@ -3271,10 +3283,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s">
         <v>222</v>
@@ -3282,98 +3294,98 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C145" t="s">
         <v>229</v>
@@ -3381,10 +3393,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
         <v>230</v>
@@ -3392,7 +3404,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
         <v>63</v>
@@ -3403,10 +3415,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B148" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
@@ -3414,54 +3426,54 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C149" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
         <v>63</v>
       </c>
       <c r="C151" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C152" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C153" t="s">
         <v>236</v>
@@ -3469,10 +3481,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C154" t="s">
         <v>237</v>
@@ -3480,10 +3492,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C155" t="s">
         <v>238</v>
@@ -3491,10 +3503,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B156" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C156" t="s">
         <v>239</v>
@@ -3502,10 +3514,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C157" t="s">
         <v>240</v>
@@ -3513,10 +3525,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
         <v>241</v>
@@ -3524,10 +3536,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C159" t="s">
         <v>242</v>
@@ -3535,10 +3547,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B160" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s">
         <v>243</v>
@@ -3546,10 +3558,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3557,10 +3569,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C162" t="s">
         <v>245</v>
@@ -3568,10 +3580,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
         <v>246</v>
@@ -3579,65 +3591,65 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B164" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B166" t="s">
         <v>59</v>
       </c>
       <c r="C166" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B167" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C169" t="s">
         <v>250</v>
@@ -3645,10 +3657,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B170" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C170" t="s">
         <v>251</v>
@@ -3656,7 +3668,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B171" t="s">
         <v>76</v>
@@ -3667,10 +3679,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C172" t="s">
         <v>253</v>
@@ -3678,10 +3690,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B173" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C173" t="s">
         <v>254</v>
@@ -3689,10 +3701,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B174" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C174" t="s">
         <v>255</v>
@@ -3700,10 +3712,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B175" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C175" t="s">
         <v>256</v>
@@ -3711,10 +3723,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B176" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C176" t="s">
         <v>257</v>
@@ -3722,7 +3734,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B177" t="s">
         <v>59</v>
@@ -3733,10 +3745,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
         <v>259</v>
@@ -3747,7 +3759,7 @@
         <v>37</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C179" t="s">
         <v>260</v>
@@ -3755,10 +3767,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C180" t="s">
         <v>261</v>
@@ -3766,54 +3778,54 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B181" t="s">
         <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C184" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C185" t="s">
         <v>265</v>
@@ -3821,10 +3833,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C186" t="s">
         <v>266</v>
@@ -3832,10 +3844,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C187" t="s">
         <v>267</v>
@@ -3843,10 +3855,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C188" t="s">
         <v>268</v>
@@ -3854,10 +3866,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C189" t="s">
         <v>269</v>
@@ -3865,10 +3877,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C190" t="s">
         <v>270</v>
@@ -3876,7 +3888,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B191" t="s">
         <v>55</v>
@@ -3887,10 +3899,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B192" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
@@ -3898,10 +3910,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B193" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3909,10 +3921,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B194" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C194" t="s">
         <v>274</v>
@@ -3920,10 +3932,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3934,7 +3946,7 @@
         <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3942,10 +3954,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C197" t="s">
         <v>277</v>
@@ -3953,10 +3965,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B198" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3964,10 +3976,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B199" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -3975,10 +3987,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B200" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C200" t="s">
         <v>280</v>
@@ -3986,10 +3998,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B201" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -3997,7 +4009,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B202" t="s">
         <v>80</v>
@@ -4008,10 +4020,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B203" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4019,10 +4031,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4030,10 +4042,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B205" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4041,7 +4053,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B206" t="s">
         <v>80</v>
@@ -4052,7 +4064,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B207" t="s">
         <v>88</v>
@@ -4063,10 +4075,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C208" t="s">
         <v>288</v>
@@ -4074,10 +4086,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B209" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C209" t="s">
         <v>289</v>
@@ -4085,10 +4097,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4099,7 +4111,7 @@
         <v>44</v>
       </c>
       <c r="B211" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4107,10 +4119,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B212" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -4118,10 +4130,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4129,10 +4141,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C214" t="s">
         <v>294</v>
@@ -4140,10 +4152,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -4151,10 +4163,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C216" t="s">
         <v>296</v>
@@ -4162,10 +4174,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C217" t="s">
         <v>297</v>
@@ -4173,7 +4185,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B218" t="s">
         <v>93</v>
@@ -4184,10 +4196,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C219" t="s">
         <v>299</v>
@@ -4195,10 +4207,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C220" t="s">
         <v>300</v>
@@ -4206,10 +4218,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B221" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C221" t="s">
         <v>301</v>
@@ -4217,10 +4229,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B222" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>
@@ -4228,10 +4240,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B223" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4239,10 +4251,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B224" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C224" t="s">
         <v>304</v>
@@ -4250,10 +4262,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B225" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4261,10 +4273,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B226" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4272,7 +4284,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B227" t="s">
         <v>88</v>
@@ -4283,10 +4295,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B228" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
@@ -4294,10 +4306,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B229" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C229" t="s">
         <v>309</v>
@@ -4305,10 +4317,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B230" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C230" t="s">
         <v>310</v>
@@ -4316,10 +4328,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4327,10 +4339,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B232" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4338,10 +4350,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C233" t="s">
         <v>313</v>
@@ -4349,10 +4361,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C234" t="s">
         <v>314</v>
@@ -4360,7 +4372,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B235" t="s">
         <v>79</v>
@@ -4371,7 +4383,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B236" t="s">
         <v>93</v>
@@ -4382,7 +4394,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B237" t="s">
         <v>56</v>
@@ -4393,10 +4405,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C238" t="s">
         <v>318</v>
@@ -4404,10 +4416,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C239" t="s">
         <v>319</v>
@@ -4415,10 +4427,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C240" t="s">
         <v>320</v>
@@ -4426,10 +4438,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4437,10 +4449,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B242" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4448,10 +4460,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B243" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -4459,10 +4471,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C244" t="s">
         <v>324</v>
@@ -4470,7 +4482,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B245" t="s">
         <v>89</v>
@@ -4481,10 +4493,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B246" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C246" t="s">
         <v>326</v>
@@ -4492,10 +4504,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B247" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C247" t="s">
         <v>327</v>
@@ -4503,7 +4515,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B248" t="s">
         <v>80</v>
@@ -4514,10 +4526,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C249" t="s">
         <v>329</v>
@@ -4525,10 +4537,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C250" t="s">
         <v>330</v>
@@ -4536,10 +4548,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C251" t="s">
         <v>331</v>
@@ -4547,10 +4559,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B252" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -4558,10 +4570,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B253" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C253" t="s">
         <v>333</v>
@@ -4569,10 +4581,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C254" t="s">
         <v>334</v>
@@ -4580,10 +4592,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C255" t="s">
         <v>335</v>
@@ -4591,10 +4603,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C256" t="s">
         <v>336</v>
@@ -4602,10 +4614,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C257" t="s">
         <v>337</v>
@@ -4613,10 +4625,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B258" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C258" t="s">
         <v>338</v>
@@ -4624,10 +4636,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B259" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C259" t="s">
         <v>339</v>
@@ -4635,10 +4647,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C260" t="s">
         <v>340</v>
@@ -4646,10 +4658,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B261" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C261" t="s">
         <v>341</v>
@@ -4657,10 +4669,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B262" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C262" t="s">
         <v>342</v>
@@ -4668,10 +4680,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B263" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C263" t="s">
         <v>343</v>
@@ -4679,7 +4691,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
         <v>89</v>
@@ -4690,10 +4702,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B265" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4701,10 +4713,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C266" t="s">
         <v>346</v>
@@ -4712,10 +4724,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4723,10 +4735,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
@@ -4734,10 +4746,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C269" t="s">
         <v>349</v>
@@ -4745,10 +4757,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C270" t="s">
         <v>350</v>
@@ -4756,10 +4768,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B271" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C271" t="s">
         <v>351</v>
@@ -4770,7 +4782,7 @@
         <v>48</v>
       </c>
       <c r="B272" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C272" t="s">
         <v>352</v>
@@ -4778,10 +4790,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B273" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C273" t="s">
         <v>353</v>
@@ -4789,10 +4801,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B274" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -4800,7 +4812,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B275" t="s">
         <v>89</v>
@@ -4811,10 +4823,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B276" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4822,10 +4834,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B277" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4833,10 +4845,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -4844,10 +4856,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B279" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C279" t="s">
         <v>359</v>
@@ -4855,10 +4867,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B280" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C280" t="s">
         <v>360</v>
@@ -4866,10 +4878,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B281" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -4877,10 +4889,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B282" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -4888,10 +4900,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B283" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C283" t="s">
         <v>363</v>
@@ -4899,10 +4911,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B284" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C284" t="s">
         <v>364</v>
@@ -4910,10 +4922,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B285" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C285" t="s">
         <v>365</v>
@@ -4921,10 +4933,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B286" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C286" t="s">
         <v>366</v>
@@ -4932,54 +4944,54 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B287" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C287" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B288" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C288" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B289" t="s">
         <v>53</v>
       </c>
       <c r="C289" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B290" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C290" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B291" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C291" t="s">
         <v>370</v>
@@ -4987,10 +4999,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B292" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C292" t="s">
         <v>371</v>
@@ -4998,10 +5010,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B293" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C293" t="s">
         <v>372</v>
@@ -5009,10 +5021,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B294" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C294" t="s">
         <v>373</v>
@@ -5020,10 +5032,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C295" t="s">
         <v>374</v>
@@ -5031,10 +5043,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C296" t="s">
         <v>375</v>
@@ -5042,10 +5054,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C297" t="s">
         <v>376</v>
@@ -5053,10 +5065,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B298" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C298" t="s">
         <v>377</v>
@@ -5064,10 +5076,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C299" t="s">
         <v>378</v>
@@ -5075,10 +5087,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B300" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C300" t="s">
         <v>379</v>
@@ -5086,10 +5098,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C301" t="s">
         <v>380</v>
@@ -5097,10 +5109,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C302" t="s">
         <v>381</v>
@@ -5108,10 +5120,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B303" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C303" t="s">
         <v>382</v>
@@ -5119,10 +5131,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B304" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C304" t="s">
         <v>383</v>
@@ -5130,10 +5142,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B305" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5141,10 +5153,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B306" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C306" t="s">
         <v>385</v>
@@ -5152,10 +5164,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B307" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C307" t="s">
         <v>386</v>
@@ -5163,10 +5175,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B308" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5174,10 +5186,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B309" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C309" t="s">
         <v>388</v>
@@ -5185,10 +5197,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B310" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C310" t="s">
         <v>389</v>
@@ -5196,10 +5208,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B311" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C311" t="s">
         <v>390</v>
@@ -5207,10 +5219,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B312" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C312" t="s">
         <v>391</v>
@@ -5218,10 +5230,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B313" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5229,10 +5241,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B314" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C314" t="s">
         <v>393</v>
@@ -5240,10 +5252,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5254,7 +5266,7 @@
         <v>46</v>
       </c>
       <c r="B316" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5265,7 +5277,7 @@
         <v>46</v>
       </c>
       <c r="B317" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C317" t="s">
         <v>396</v>
@@ -5273,54 +5285,54 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C318" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B319" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C319" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B320" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C320" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B321" t="s">
         <v>79</v>
       </c>
       <c r="C321" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B322" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C322" t="s">
         <v>400</v>
@@ -5328,10 +5340,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B323" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C323" t="s">
         <v>401</v>
@@ -5339,10 +5351,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B324" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C324" t="s">
         <v>402</v>
@@ -5350,10 +5362,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B325" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C325" t="s">
         <v>403</v>
@@ -5361,10 +5373,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B326" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C326" t="s">
         <v>404</v>
@@ -5372,10 +5384,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B327" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C327" t="s">
         <v>405</v>
@@ -5383,7 +5395,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B328" t="s">
         <v>90</v>
@@ -5394,10 +5406,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B329" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C329" t="s">
         <v>407</v>
@@ -5405,54 +5417,54 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B330" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C330" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B331" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C331" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B332" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C332" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B333" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C333" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B334" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C334" t="s">
         <v>411</v>
@@ -5460,10 +5472,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C335" t="s">
         <v>412</v>
@@ -5471,10 +5483,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B336" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C336" t="s">
         <v>413</v>
@@ -5482,10 +5494,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B337" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C337" t="s">
         <v>414</v>
@@ -5493,10 +5505,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B338" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C338" t="s">
         <v>415</v>
@@ -5504,10 +5516,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B339" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C339" t="s">
         <v>416</v>
@@ -5515,7 +5527,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B340" t="s">
         <v>90</v>
@@ -5526,10 +5538,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B341" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C341" t="s">
         <v>418</v>
@@ -5537,10 +5549,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B342" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C342" t="s">
         <v>419</v>
@@ -5548,10 +5560,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B343" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5559,10 +5571,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B344" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -5573,7 +5585,7 @@
         <v>45</v>
       </c>
       <c r="B345" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C345" t="s">
         <v>422</v>
@@ -5581,10 +5593,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B346" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C346" t="s">
         <v>423</v>
@@ -5595,7 +5607,7 @@
         <v>45</v>
       </c>
       <c r="B347" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C347" t="s">
         <v>424</v>
@@ -5603,10 +5615,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B348" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C348" t="s">
         <v>425</v>
@@ -5614,7 +5626,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B349" t="s">
         <v>93</v>
@@ -5625,7 +5637,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B350" t="s">
         <v>72</v>
@@ -5636,10 +5648,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B351" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5647,10 +5659,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C352" t="s">
         <v>429</v>
@@ -5658,10 +5670,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B353" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5669,10 +5681,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B354" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5680,7 +5692,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B355" t="s">
         <v>80</v>
@@ -5691,7 +5703,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B356" t="s">
         <v>93</v>
@@ -5702,10 +5714,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C357" t="s">
         <v>434</v>
@@ -5713,10 +5725,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C358" t="s">
         <v>435</v>
@@ -5724,10 +5736,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B359" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C359" t="s">
         <v>436</v>
@@ -5735,7 +5747,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B360" t="s">
         <v>93</v>
@@ -5746,10 +5758,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B361" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5757,10 +5769,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -5768,10 +5780,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B363" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C363" t="s">
         <v>440</v>
@@ -5779,10 +5791,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B364" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C364" t="s">
         <v>441</v>
@@ -5790,10 +5802,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B365" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C365" t="s">
         <v>442</v>
@@ -5801,10 +5813,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B366" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C366" t="s">
         <v>443</v>
@@ -5812,10 +5824,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B367" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C367" t="s">
         <v>444</v>
@@ -5823,10 +5835,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B368" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C368" t="s">
         <v>445</v>
@@ -5845,10 +5857,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B370" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C370" t="s">
         <v>447</v>
@@ -5859,7 +5871,7 @@
         <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5867,10 +5879,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B372" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5878,10 +5890,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B373" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5889,10 +5901,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B374" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C374" t="s">
         <v>451</v>
@@ -5900,54 +5912,54 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B375" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C375" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B376" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C376" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B377" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C377" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B378" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C378" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B379" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C379" t="s">
         <v>455</v>
@@ -5958,7 +5970,7 @@
         <v>18</v>
       </c>
       <c r="B380" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C380" t="s">
         <v>456</v>
@@ -5966,7 +5978,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B381" t="s">
         <v>79</v>
@@ -5977,10 +5989,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B382" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C382" t="s">
         <v>458</v>
@@ -5988,10 +6000,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B383" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C383" t="s">
         <v>459</v>
@@ -5999,7 +6011,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B384" t="s">
         <v>93</v>
@@ -6013,7 +6025,7 @@
         <v>36</v>
       </c>
       <c r="B385" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C385" t="s">
         <v>461</v>
@@ -6024,7 +6036,7 @@
         <v>36</v>
       </c>
       <c r="B386" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C386" t="s">
         <v>462</v>
@@ -6032,7 +6044,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B387" t="s">
         <v>93</v>
@@ -6043,7 +6055,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B388" t="s">
         <v>93</v>
@@ -6054,10 +6066,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B389" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C389" t="s">
         <v>465</v>
@@ -6065,10 +6077,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B390" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C390" t="s">
         <v>466</v>
@@ -6076,7 +6088,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B391" t="s">
         <v>93</v>
@@ -6087,13 +6099,57 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B392" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C392" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>8</v>
+      </c>
+      <c r="B393" t="s">
+        <v>80</v>
+      </c>
+      <c r="C393" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" t="s">
+        <v>93</v>
+      </c>
+      <c r="C394" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" t="s">
+        <v>93</v>
+      </c>
+      <c r="C395" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" t="s">
+        <v>79</v>
+      </c>
+      <c r="C396" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="475">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Crack Me 1</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
     <t>Google Docs</t>
   </si>
   <si>
@@ -127,9 +133,6 @@
     <t>Intro</t>
   </si>
   <si>
-    <t>Zulu</t>
-  </si>
-  <si>
     <t>Keygen</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
     <t>Canvaker</t>
   </si>
   <si>
-    <t>Crack Me 1</t>
-  </si>
-  <si>
     <t>Hidden In Channel</t>
   </si>
   <si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:13 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 2:34 p.m.</t>
   </si>
   <si>
     <t>June 21, 2025, 2:16 p.m.</t>
@@ -1790,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1919,10 +1925,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>107</v>
@@ -1930,10 +1936,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>108</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>109</v>
@@ -1955,7 +1961,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>110</v>
@@ -2032,7 +2038,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>117</v>
@@ -2043,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
@@ -2051,7 +2057,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -2062,7 +2068,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -2073,10 +2079,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
@@ -2087,7 +2093,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>122</v>
@@ -2098,7 +2104,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>123</v>
@@ -2106,10 +2112,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -2117,10 +2123,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
@@ -2128,7 +2134,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
@@ -2142,7 +2148,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -2150,10 +2156,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
@@ -2161,10 +2167,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
@@ -2172,10 +2178,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>130</v>
@@ -2183,10 +2189,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -2205,10 +2211,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -2216,7 +2222,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>56</v>
@@ -2227,7 +2233,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -2249,7 +2255,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
@@ -2271,10 +2277,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
         <v>139</v>
@@ -2282,10 +2288,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>140</v>
@@ -2293,10 +2299,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>141</v>
@@ -2304,32 +2310,32 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
         <v>143</v>
@@ -2337,10 +2343,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
@@ -2351,7 +2357,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>145</v>
@@ -2359,10 +2365,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>146</v>
@@ -2370,10 +2376,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>147</v>
@@ -2381,10 +2387,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>148</v>
@@ -2392,10 +2398,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
@@ -2406,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
@@ -2414,10 +2420,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -2453,26 +2459,26 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>155</v>
@@ -2480,10 +2486,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>156</v>
@@ -2491,10 +2497,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -2502,10 +2508,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
         <v>158</v>
@@ -2513,10 +2519,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
         <v>159</v>
@@ -2524,10 +2530,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
@@ -2535,10 +2541,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
@@ -2546,43 +2552,43 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
         <v>163</v>
@@ -2590,10 +2596,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>164</v>
@@ -2601,10 +2607,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
@@ -2612,10 +2618,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
         <v>166</v>
@@ -2623,10 +2629,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
@@ -2634,10 +2640,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
         <v>168</v>
@@ -2645,43 +2651,43 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
         <v>170</v>
@@ -2689,10 +2695,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
         <v>171</v>
@@ -2700,10 +2706,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
         <v>172</v>
@@ -2711,10 +2717,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
         <v>173</v>
@@ -2722,10 +2728,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
         <v>174</v>
@@ -2733,10 +2739,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -2744,10 +2750,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2755,10 +2761,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2766,10 +2772,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -2777,10 +2783,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2788,10 +2794,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2799,7 +2805,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
         <v>76</v>
@@ -2810,10 +2816,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -2821,10 +2827,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -2832,10 +2838,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
         <v>184</v>
@@ -2843,7 +2849,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -2854,10 +2860,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
         <v>186</v>
@@ -2865,10 +2871,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
         <v>187</v>
@@ -2876,10 +2882,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
         <v>188</v>
@@ -2887,10 +2893,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2898,10 +2904,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
@@ -2909,7 +2915,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
         <v>76</v>
@@ -2920,7 +2926,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
         <v>76</v>
@@ -2931,7 +2937,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B104" t="s">
         <v>76</v>
@@ -2942,10 +2948,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
         <v>194</v>
@@ -2953,10 +2959,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
         <v>195</v>
@@ -2964,7 +2970,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B107" t="s">
         <v>78</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
         <v>78</v>
@@ -2986,10 +2992,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C109" t="s">
         <v>198</v>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>78</v>
@@ -3008,10 +3014,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
         <v>200</v>
@@ -3019,10 +3025,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
         <v>201</v>
@@ -3030,10 +3036,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C113" t="s">
         <v>202</v>
@@ -3041,10 +3047,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -3052,10 +3058,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3063,10 +3069,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>205</v>
@@ -3074,10 +3080,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3085,10 +3091,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
@@ -3096,10 +3102,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
         <v>208</v>
@@ -3107,10 +3113,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
         <v>209</v>
@@ -3118,7 +3124,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
         <v>74</v>
@@ -3129,10 +3135,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
         <v>211</v>
@@ -3140,10 +3146,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>212</v>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
         <v>58</v>
@@ -3162,10 +3168,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
         <v>214</v>
@@ -3173,32 +3179,32 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B126" t="s">
         <v>58</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
         <v>74</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
         <v>216</v>
@@ -3206,7 +3212,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s">
         <v>74</v>
@@ -3217,7 +3223,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
@@ -3228,10 +3234,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
         <v>219</v>
@@ -3239,10 +3245,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B132" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C132" t="s">
         <v>220</v>
@@ -3250,54 +3256,54 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C137" t="s">
         <v>223</v>
@@ -3305,10 +3311,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C138" t="s">
         <v>224</v>
@@ -3316,10 +3322,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C139" t="s">
         <v>225</v>
@@ -3327,10 +3333,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C140" t="s">
         <v>226</v>
@@ -3338,32 +3344,32 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B142" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C143" t="s">
         <v>228</v>
@@ -3371,10 +3377,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C144" t="s">
         <v>229</v>
@@ -3382,32 +3388,32 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C147" t="s">
         <v>231</v>
@@ -3415,10 +3421,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
@@ -3426,10 +3432,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B149" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C149" t="s">
         <v>233</v>
@@ -3437,10 +3443,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C150" t="s">
         <v>234</v>
@@ -3448,10 +3454,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s">
         <v>235</v>
@@ -3459,10 +3465,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
         <v>236</v>
@@ -3470,32 +3476,32 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C153" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C155" t="s">
         <v>238</v>
@@ -3503,10 +3509,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C156" t="s">
         <v>239</v>
@@ -3514,7 +3520,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B157" t="s">
         <v>63</v>
@@ -3525,10 +3531,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
         <v>241</v>
@@ -3536,10 +3542,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B159" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C159" t="s">
         <v>242</v>
@@ -3547,10 +3553,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C160" t="s">
         <v>243</v>
@@ -3558,10 +3564,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3569,10 +3575,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C162" t="s">
         <v>245</v>
@@ -3580,10 +3586,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C163" t="s">
         <v>246</v>
@@ -3591,10 +3597,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C164" t="s">
         <v>247</v>
@@ -3602,10 +3608,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C165" t="s">
         <v>248</v>
@@ -3613,10 +3619,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C166" t="s">
         <v>249</v>
@@ -3624,10 +3630,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C167" t="s">
         <v>250</v>
@@ -3635,43 +3641,43 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B168" t="s">
         <v>59</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
         <v>59</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C171" t="s">
         <v>252</v>
@@ -3679,10 +3685,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C172" t="s">
         <v>253</v>
@@ -3690,10 +3696,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C173" t="s">
         <v>254</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
         <v>76</v>
@@ -3712,10 +3718,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C175" t="s">
         <v>256</v>
@@ -3723,10 +3729,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C176" t="s">
         <v>257</v>
@@ -3734,10 +3740,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C177" t="s">
         <v>258</v>
@@ -3745,7 +3751,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B178" t="s">
         <v>58</v>
@@ -3756,10 +3762,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B179" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C179" t="s">
         <v>260</v>
@@ -3767,10 +3773,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
         <v>261</v>
@@ -3778,10 +3784,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C181" t="s">
         <v>262</v>
@@ -3789,10 +3795,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C182" t="s">
         <v>263</v>
@@ -3800,7 +3806,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B183" t="s">
         <v>59</v>
@@ -3811,7 +3817,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
         <v>59</v>
@@ -3822,32 +3828,32 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B185" t="s">
         <v>59</v>
       </c>
       <c r="C185" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C186" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C187" t="s">
         <v>267</v>
@@ -3855,10 +3861,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C188" t="s">
         <v>268</v>
@@ -3866,10 +3872,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B189" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C189" t="s">
         <v>269</v>
@@ -3877,10 +3883,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C190" t="s">
         <v>270</v>
@@ -3888,10 +3894,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C191" t="s">
         <v>271</v>
@@ -3899,10 +3905,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
@@ -3910,10 +3916,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3921,7 +3927,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B194" t="s">
         <v>57</v>
@@ -3932,10 +3938,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3943,10 +3949,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B196" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3954,10 +3960,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B197" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C197" t="s">
         <v>277</v>
@@ -3965,10 +3971,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3976,10 +3982,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B199" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -3987,10 +3993,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B200" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C200" t="s">
         <v>280</v>
@@ -3998,10 +4004,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -4009,10 +4015,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B202" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C202" t="s">
         <v>282</v>
@@ -4020,10 +4026,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4031,10 +4037,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B204" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4042,10 +4048,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B205" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4053,10 +4059,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C206" t="s">
         <v>286</v>
@@ -4064,10 +4070,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B207" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
@@ -4075,10 +4081,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B208" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C208" t="s">
         <v>288</v>
@@ -4086,10 +4092,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C209" t="s">
         <v>289</v>
@@ -4097,10 +4103,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B210" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4108,10 +4114,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4119,10 +4125,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B212" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -4130,10 +4136,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4141,7 +4147,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B214" t="s">
         <v>91</v>
@@ -4152,10 +4158,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B215" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -4163,10 +4169,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C216" t="s">
         <v>296</v>
@@ -4174,10 +4180,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B217" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C217" t="s">
         <v>297</v>
@@ -4185,10 +4191,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B218" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C218" t="s">
         <v>298</v>
@@ -4196,10 +4202,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C219" t="s">
         <v>299</v>
@@ -4207,10 +4213,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C220" t="s">
         <v>300</v>
@@ -4218,10 +4224,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B221" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C221" t="s">
         <v>301</v>
@@ -4229,10 +4235,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>
@@ -4240,10 +4246,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B223" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4251,10 +4257,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C224" t="s">
         <v>304</v>
@@ -4262,10 +4268,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B225" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4273,10 +4279,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4284,10 +4290,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C227" t="s">
         <v>307</v>
@@ -4295,10 +4301,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
@@ -4306,10 +4312,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C229" t="s">
         <v>309</v>
@@ -4317,7 +4323,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B230" t="s">
         <v>80</v>
@@ -4328,10 +4334,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B231" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4339,10 +4345,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B232" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4350,10 +4356,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C233" t="s">
         <v>313</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B234" t="s">
         <v>55</v>
@@ -4372,10 +4378,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C235" t="s">
         <v>315</v>
@@ -4383,10 +4389,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C236" t="s">
         <v>316</v>
@@ -4394,10 +4400,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B237" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C237" t="s">
         <v>317</v>
@@ -4405,10 +4411,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B238" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C238" t="s">
         <v>318</v>
@@ -4416,10 +4422,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B239" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C239" t="s">
         <v>319</v>
@@ -4427,10 +4433,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B240" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C240" t="s">
         <v>320</v>
@@ -4438,10 +4444,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4449,10 +4455,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4460,7 +4466,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
         <v>56</v>
@@ -4471,10 +4477,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C244" t="s">
         <v>324</v>
@@ -4482,10 +4488,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B245" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C245" t="s">
         <v>325</v>
@@ -4493,10 +4499,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B246" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C246" t="s">
         <v>326</v>
@@ -4504,10 +4510,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B247" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C247" t="s">
         <v>327</v>
@@ -4515,7 +4521,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B248" t="s">
         <v>80</v>
@@ -4526,10 +4532,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B249" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C249" t="s">
         <v>329</v>
@@ -4537,10 +4543,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B250" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C250" t="s">
         <v>330</v>
@@ -4548,7 +4554,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B251" t="s">
         <v>89</v>
@@ -4559,10 +4565,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B252" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -4570,10 +4576,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B253" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C253" t="s">
         <v>333</v>
@@ -4581,7 +4587,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B254" t="s">
         <v>80</v>
@@ -4592,7 +4598,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B255" t="s">
         <v>80</v>
@@ -4603,10 +4609,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C256" t="s">
         <v>336</v>
@@ -4614,10 +4620,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C257" t="s">
         <v>337</v>
@@ -4625,7 +4631,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
         <v>93</v>
@@ -4636,10 +4642,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C259" t="s">
         <v>339</v>
@@ -4647,10 +4653,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C260" t="s">
         <v>340</v>
@@ -4658,10 +4664,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B261" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C261" t="s">
         <v>341</v>
@@ -4669,10 +4675,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B262" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C262" t="s">
         <v>342</v>
@@ -4680,10 +4686,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B263" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C263" t="s">
         <v>343</v>
@@ -4691,10 +4697,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B264" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C264" t="s">
         <v>344</v>
@@ -4702,10 +4708,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B265" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B266" t="s">
         <v>89</v>
@@ -4724,10 +4730,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B267" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B268" t="s">
         <v>89</v>
@@ -4746,10 +4752,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C269" t="s">
         <v>349</v>
@@ -4757,10 +4763,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B270" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C270" t="s">
         <v>350</v>
@@ -4771,7 +4777,7 @@
         <v>33</v>
       </c>
       <c r="B271" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C271" t="s">
         <v>351</v>
@@ -4779,7 +4785,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B272" t="s">
         <v>79</v>
@@ -4790,10 +4796,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B273" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C273" t="s">
         <v>353</v>
@@ -4801,10 +4807,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B274" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -4812,10 +4818,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B275" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -4823,10 +4829,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B276" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4834,10 +4840,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B277" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4845,10 +4851,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B278" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -4856,10 +4862,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B279" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C279" t="s">
         <v>359</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B280" t="s">
         <v>89</v>
@@ -4878,10 +4884,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B281" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -4889,10 +4895,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B282" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -4900,10 +4906,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B283" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C283" t="s">
         <v>363</v>
@@ -4911,10 +4917,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B284" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C284" t="s">
         <v>364</v>
@@ -4922,10 +4928,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B285" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C285" t="s">
         <v>365</v>
@@ -4933,10 +4939,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B286" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C286" t="s">
         <v>366</v>
@@ -4947,7 +4953,7 @@
         <v>25</v>
       </c>
       <c r="B287" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C287" t="s">
         <v>367</v>
@@ -4955,10 +4961,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C288" t="s">
         <v>368</v>
@@ -4966,10 +4972,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C289" t="s">
         <v>369</v>
@@ -4977,10 +4983,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B290" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C290" t="s">
         <v>370</v>
@@ -4988,32 +4994,32 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C291" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C292" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B293" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C293" t="s">
         <v>372</v>
@@ -5021,10 +5027,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B294" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C294" t="s">
         <v>373</v>
@@ -5032,10 +5038,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B295" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C295" t="s">
         <v>374</v>
@@ -5043,10 +5049,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B296" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C296" t="s">
         <v>375</v>
@@ -5054,10 +5060,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B297" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C297" t="s">
         <v>376</v>
@@ -5065,7 +5071,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B298" t="s">
         <v>95</v>
@@ -5076,10 +5082,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B299" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C299" t="s">
         <v>378</v>
@@ -5087,10 +5093,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C300" t="s">
         <v>379</v>
@@ -5098,10 +5104,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B301" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C301" t="s">
         <v>380</v>
@@ -5109,10 +5115,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B302" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C302" t="s">
         <v>381</v>
@@ -5120,10 +5126,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B303" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C303" t="s">
         <v>382</v>
@@ -5142,10 +5148,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B305" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5153,10 +5159,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C306" t="s">
         <v>385</v>
@@ -5164,10 +5170,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B307" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C307" t="s">
         <v>386</v>
@@ -5175,10 +5181,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B308" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5186,10 +5192,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B309" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C309" t="s">
         <v>388</v>
@@ -5197,10 +5203,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B310" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C310" t="s">
         <v>389</v>
@@ -5208,10 +5214,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B311" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C311" t="s">
         <v>390</v>
@@ -5219,10 +5225,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B312" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C312" t="s">
         <v>391</v>
@@ -5230,10 +5236,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5241,10 +5247,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B314" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C314" t="s">
         <v>393</v>
@@ -5252,10 +5258,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B315" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5263,10 +5269,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B316" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5274,10 +5280,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B317" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C317" t="s">
         <v>396</v>
@@ -5285,10 +5291,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B318" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C318" t="s">
         <v>397</v>
@@ -5296,10 +5302,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B319" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C319" t="s">
         <v>398</v>
@@ -5307,10 +5313,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C320" t="s">
         <v>399</v>
@@ -5318,10 +5324,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B321" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C321" t="s">
         <v>400</v>
@@ -5329,32 +5335,32 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B322" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C322" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B323" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C323" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B324" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C324" t="s">
         <v>402</v>
@@ -5365,7 +5371,7 @@
         <v>47</v>
       </c>
       <c r="B325" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C325" t="s">
         <v>403</v>
@@ -5376,7 +5382,7 @@
         <v>47</v>
       </c>
       <c r="B326" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C326" t="s">
         <v>404</v>
@@ -5384,10 +5390,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B327" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C327" t="s">
         <v>405</v>
@@ -5395,10 +5401,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B328" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C328" t="s">
         <v>406</v>
@@ -5406,10 +5412,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B329" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C329" t="s">
         <v>407</v>
@@ -5417,10 +5423,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B330" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C330" t="s">
         <v>408</v>
@@ -5428,7 +5434,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B331" t="s">
         <v>93</v>
@@ -5439,10 +5445,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C332" t="s">
         <v>410</v>
@@ -5450,10 +5456,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B333" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C333" t="s">
         <v>411</v>
@@ -5461,32 +5467,32 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B334" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C334" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B335" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C335" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B336" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C336" t="s">
         <v>413</v>
@@ -5494,10 +5500,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C337" t="s">
         <v>414</v>
@@ -5505,10 +5511,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B338" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C338" t="s">
         <v>415</v>
@@ -5516,10 +5522,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B339" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C339" t="s">
         <v>416</v>
@@ -5527,10 +5533,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B340" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C340" t="s">
         <v>417</v>
@@ -5538,10 +5544,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B341" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C341" t="s">
         <v>418</v>
@@ -5549,7 +5555,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B342" t="s">
         <v>90</v>
@@ -5560,10 +5566,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B343" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5571,7 +5577,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B344" t="s">
         <v>90</v>
@@ -5582,10 +5588,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B345" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C345" t="s">
         <v>422</v>
@@ -5593,10 +5599,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B346" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C346" t="s">
         <v>423</v>
@@ -5604,10 +5610,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B347" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C347" t="s">
         <v>424</v>
@@ -5615,10 +5621,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B348" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C348" t="s">
         <v>425</v>
@@ -5626,10 +5632,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B349" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C349" t="s">
         <v>426</v>
@@ -5637,10 +5643,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B350" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C350" t="s">
         <v>427</v>
@@ -5648,10 +5654,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B351" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5659,10 +5665,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B352" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C352" t="s">
         <v>429</v>
@@ -5670,10 +5676,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B353" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5681,10 +5687,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B354" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5692,10 +5698,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B355" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C355" t="s">
         <v>432</v>
@@ -5703,10 +5709,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B356" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C356" t="s">
         <v>433</v>
@@ -5714,10 +5720,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B357" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C357" t="s">
         <v>434</v>
@@ -5725,10 +5731,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B358" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C358" t="s">
         <v>435</v>
@@ -5736,10 +5742,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B359" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C359" t="s">
         <v>436</v>
@@ -5747,10 +5753,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B360" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C360" t="s">
         <v>437</v>
@@ -5758,10 +5764,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B361" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5769,7 +5775,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B362" t="s">
         <v>93</v>
@@ -5780,7 +5786,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B363" t="s">
         <v>93</v>
@@ -5791,7 +5797,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B364" t="s">
         <v>93</v>
@@ -5802,10 +5808,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B365" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C365" t="s">
         <v>442</v>
@@ -5813,10 +5819,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B366" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C366" t="s">
         <v>443</v>
@@ -5824,10 +5830,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B367" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C367" t="s">
         <v>444</v>
@@ -5835,10 +5841,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B368" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C368" t="s">
         <v>445</v>
@@ -5846,10 +5852,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B369" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C369" t="s">
         <v>446</v>
@@ -5857,10 +5863,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B370" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C370" t="s">
         <v>447</v>
@@ -5868,10 +5874,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B371" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5879,10 +5885,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B372" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5890,10 +5896,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B373" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5901,10 +5907,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B374" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C374" t="s">
         <v>451</v>
@@ -5912,10 +5918,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B375" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C375" t="s">
         <v>452</v>
@@ -5923,10 +5929,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B376" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C376" t="s">
         <v>453</v>
@@ -5934,7 +5940,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B377" t="s">
         <v>93</v>
@@ -5945,10 +5951,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B378" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C378" t="s">
         <v>455</v>
@@ -5956,29 +5962,29 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B379" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C379" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B380" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C380" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B381" t="s">
         <v>79</v>
@@ -5989,10 +5995,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C382" t="s">
         <v>458</v>
@@ -6000,10 +6006,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B383" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C383" t="s">
         <v>459</v>
@@ -6011,7 +6017,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B384" t="s">
         <v>93</v>
@@ -6022,10 +6028,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B385" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C385" t="s">
         <v>461</v>
@@ -6033,10 +6039,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B386" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C386" t="s">
         <v>462</v>
@@ -6044,10 +6050,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B387" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C387" t="s">
         <v>463</v>
@@ -6055,10 +6061,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B388" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C388" t="s">
         <v>464</v>
@@ -6066,7 +6072,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B389" t="s">
         <v>93</v>
@@ -6077,10 +6083,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B390" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C390" t="s">
         <v>466</v>
@@ -6088,7 +6094,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B391" t="s">
         <v>93</v>
@@ -6099,10 +6105,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B392" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C392" t="s">
         <v>468</v>
@@ -6110,10 +6116,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B393" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C393" t="s">
         <v>469</v>
@@ -6121,7 +6127,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B394" t="s">
         <v>93</v>
@@ -6132,10 +6138,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B395" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C395" t="s">
         <v>471</v>
@@ -6143,13 +6149,35 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B396" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C396" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>35</v>
+      </c>
+      <c r="B397" t="s">
+        <v>93</v>
+      </c>
+      <c r="C397" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>35</v>
+      </c>
+      <c r="B398" t="s">
+        <v>79</v>
+      </c>
+      <c r="C398" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="476">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Cattle</t>
+  </si>
+  <si>
     <t>Crack Me 1</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>Keygen</t>
   </si>
   <si>
-    <t>Cattle</t>
-  </si>
-  <si>
     <t>Wordplay</t>
   </si>
   <si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:19 p.m.</t>
   </si>
   <si>
     <t>June 21, 2025, 5:13 p.m.</t>
@@ -1796,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1947,10 +1950,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>109</v>
@@ -1958,10 +1961,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>110</v>
@@ -1972,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -2060,7 +2063,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -2090,7 +2093,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -2104,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>123</v>
@@ -2115,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -2126,7 +2129,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
@@ -2134,10 +2137,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>126</v>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -2170,7 +2173,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
@@ -2178,10 +2181,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>130</v>
@@ -2189,10 +2192,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -2211,10 +2214,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -2222,10 +2225,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -2255,7 +2258,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2266,7 +2269,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
@@ -2277,7 +2280,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -2299,10 +2302,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>141</v>
@@ -2310,10 +2313,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
         <v>142</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
@@ -2332,21 +2335,21 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
@@ -2354,10 +2357,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>145</v>
@@ -2368,7 +2371,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>146</v>
@@ -2379,7 +2382,7 @@
         <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>147</v>
@@ -2387,10 +2390,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>148</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -2409,10 +2412,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
@@ -2431,10 +2434,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>152</v>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -2475,21 +2478,21 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>156</v>
@@ -2497,10 +2500,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -2508,7 +2511,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
@@ -2519,10 +2522,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>159</v>
@@ -2530,10 +2533,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
@@ -2552,10 +2555,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>162</v>
@@ -2563,10 +2566,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>163</v>
@@ -2574,32 +2577,32 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
         <v>164</v>
@@ -2607,10 +2610,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
@@ -2618,10 +2621,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>166</v>
@@ -2629,10 +2632,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
@@ -2640,10 +2643,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
         <v>168</v>
@@ -2651,10 +2654,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
@@ -2662,10 +2665,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
@@ -2673,32 +2676,32 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
         <v>171</v>
@@ -2706,10 +2709,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
         <v>172</v>
@@ -2717,10 +2720,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
         <v>173</v>
@@ -2728,10 +2731,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
         <v>174</v>
@@ -2739,10 +2742,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -2750,10 +2753,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2761,10 +2764,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2772,7 +2775,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
         <v>55</v>
@@ -2783,10 +2786,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2797,7 +2800,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2805,7 +2808,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
         <v>76</v>
@@ -2816,10 +2819,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -2827,10 +2830,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -2838,10 +2841,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
         <v>184</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
         <v>77</v>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
         <v>186</v>
@@ -2871,10 +2874,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
         <v>187</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -2893,10 +2896,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
@@ -2918,7 +2921,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
         <v>191</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B103" t="s">
         <v>76</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
         <v>76</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
         <v>76</v>
@@ -2970,10 +2973,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
         <v>196</v>
@@ -2981,7 +2984,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
         <v>78</v>
@@ -3003,7 +3006,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
         <v>78</v>
@@ -3014,10 +3017,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
         <v>200</v>
@@ -3025,10 +3028,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
         <v>201</v>
@@ -3036,10 +3039,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
         <v>202</v>
@@ -3047,10 +3050,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -3058,10 +3061,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
         <v>80</v>
@@ -3080,10 +3083,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3091,7 +3094,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
         <v>74</v>
@@ -3102,10 +3105,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
         <v>208</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
         <v>58</v>
@@ -3124,10 +3127,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C121" t="s">
         <v>210</v>
@@ -3135,7 +3138,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
         <v>74</v>
@@ -3146,7 +3149,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
         <v>74</v>
@@ -3157,10 +3160,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
         <v>213</v>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
         <v>58</v>
@@ -3190,10 +3193,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C127" t="s">
         <v>216</v>
@@ -3201,21 +3204,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C129" t="s">
         <v>217</v>
@@ -3223,7 +3226,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
@@ -3234,7 +3237,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
         <v>74</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
         <v>74</v>
@@ -3256,10 +3259,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C133" t="s">
         <v>221</v>
@@ -3267,10 +3270,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C134" t="s">
         <v>222</v>
@@ -3278,21 +3281,21 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C135" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
         <v>223</v>
@@ -3303,18 +3306,18 @@
         <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C137" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
         <v>224</v>
@@ -3322,10 +3325,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s">
         <v>225</v>
@@ -3333,10 +3336,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
         <v>226</v>
@@ -3344,10 +3347,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
         <v>227</v>
@@ -3355,10 +3358,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
         <v>228</v>
@@ -3366,21 +3369,21 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B144" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
         <v>229</v>
@@ -3388,10 +3391,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
         <v>230</v>
@@ -3399,10 +3402,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C146" t="s">
         <v>231</v>
@@ -3410,21 +3413,21 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
         <v>232</v>
@@ -3432,10 +3435,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C149" t="s">
         <v>233</v>
@@ -3443,10 +3446,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
         <v>234</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
         <v>82</v>
@@ -3465,10 +3468,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C152" t="s">
         <v>236</v>
@@ -3476,10 +3479,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
         <v>237</v>
@@ -3490,7 +3493,7 @@
         <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C154" t="s">
         <v>238</v>
@@ -3498,21 +3501,21 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C155" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C156" t="s">
         <v>239</v>
@@ -3520,7 +3523,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
         <v>63</v>
@@ -3531,10 +3534,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C158" t="s">
         <v>241</v>
@@ -3542,10 +3545,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C159" t="s">
         <v>242</v>
@@ -3553,10 +3556,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C160" t="s">
         <v>243</v>
@@ -3564,10 +3567,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3575,7 +3578,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B162" t="s">
         <v>85</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C163" t="s">
         <v>246</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
         <v>82</v>
@@ -3608,10 +3611,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C165" t="s">
         <v>248</v>
@@ -3619,7 +3622,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
         <v>86</v>
@@ -3630,10 +3633,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C167" t="s">
         <v>250</v>
@@ -3641,10 +3644,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C168" t="s">
         <v>251</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
         <v>59</v>
@@ -3663,29 +3666,29 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B170" t="s">
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
         <v>59</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B172" t="s">
         <v>59</v>
@@ -3696,10 +3699,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B173" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C173" t="s">
         <v>254</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
         <v>76</v>
@@ -3718,10 +3721,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C175" t="s">
         <v>256</v>
@@ -3729,10 +3732,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C176" t="s">
         <v>257</v>
@@ -3740,7 +3743,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B177" t="s">
         <v>76</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C178" t="s">
         <v>259</v>
@@ -3762,10 +3765,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
         <v>260</v>
@@ -3773,10 +3776,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" t="s">
         <v>261</v>
@@ -3784,10 +3787,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
         <v>262</v>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
         <v>87</v>
@@ -3806,10 +3809,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C183" t="s">
         <v>264</v>
@@ -3817,7 +3820,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B184" t="s">
         <v>59</v>
@@ -3828,7 +3831,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
         <v>59</v>
@@ -3839,7 +3842,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B186" t="s">
         <v>59</v>
@@ -3850,21 +3853,21 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
         <v>59</v>
       </c>
       <c r="C187" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C188" t="s">
         <v>268</v>
@@ -3872,10 +3875,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C189" t="s">
         <v>269</v>
@@ -3883,10 +3886,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B190" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C190" t="s">
         <v>270</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C191" t="s">
         <v>271</v>
@@ -3905,10 +3908,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
@@ -3916,10 +3919,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3930,7 +3933,7 @@
         <v>43</v>
       </c>
       <c r="B194" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C194" t="s">
         <v>274</v>
@@ -3941,7 +3944,7 @@
         <v>43</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3949,10 +3952,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B196" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3960,10 +3963,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C197" t="s">
         <v>277</v>
@@ -3971,10 +3974,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3982,10 +3985,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -3993,10 +3996,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C200" t="s">
         <v>280</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B202" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C202" t="s">
         <v>282</v>
@@ -4026,10 +4029,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B203" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4037,10 +4040,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B204" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4048,10 +4051,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B205" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4059,10 +4062,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C206" t="s">
         <v>286</v>
@@ -4070,10 +4073,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B207" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
@@ -4081,10 +4084,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B208" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C208" t="s">
         <v>288</v>
@@ -4092,10 +4095,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B209" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C209" t="s">
         <v>289</v>
@@ -4103,10 +4106,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B210" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4117,7 +4120,7 @@
         <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4125,10 +4128,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -4139,7 +4142,7 @@
         <v>45</v>
       </c>
       <c r="B213" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4147,10 +4150,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B214" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C214" t="s">
         <v>294</v>
@@ -4158,7 +4161,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B215" t="s">
         <v>91</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B216" t="s">
         <v>91</v>
@@ -4180,10 +4183,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C217" t="s">
         <v>297</v>
@@ -4191,10 +4194,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B218" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C218" t="s">
         <v>298</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B219" t="s">
         <v>92</v>
@@ -4216,7 +4219,7 @@
         <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C220" t="s">
         <v>300</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B221" t="s">
         <v>93</v>
@@ -4235,10 +4238,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B222" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>
@@ -4249,7 +4252,7 @@
         <v>41</v>
       </c>
       <c r="B223" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4260,7 +4263,7 @@
         <v>41</v>
       </c>
       <c r="B224" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C224" t="s">
         <v>304</v>
@@ -4268,10 +4271,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B225" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B226" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4290,7 +4293,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B227" t="s">
         <v>51</v>
@@ -4304,7 +4307,7 @@
         <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
@@ -4315,7 +4318,7 @@
         <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C229" t="s">
         <v>309</v>
@@ -4326,7 +4329,7 @@
         <v>43</v>
       </c>
       <c r="B230" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C230" t="s">
         <v>310</v>
@@ -4337,7 +4340,7 @@
         <v>43</v>
       </c>
       <c r="B231" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4345,10 +4348,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B232" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4359,7 +4362,7 @@
         <v>42</v>
       </c>
       <c r="B233" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C233" t="s">
         <v>313</v>
@@ -4367,10 +4370,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C234" t="s">
         <v>314</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B235" t="s">
         <v>55</v>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B236" t="s">
         <v>55</v>
@@ -4403,7 +4406,7 @@
         <v>42</v>
       </c>
       <c r="B237" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C237" t="s">
         <v>317</v>
@@ -4414,7 +4417,7 @@
         <v>42</v>
       </c>
       <c r="B238" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C238" t="s">
         <v>318</v>
@@ -4425,7 +4428,7 @@
         <v>42</v>
       </c>
       <c r="B239" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C239" t="s">
         <v>319</v>
@@ -4436,7 +4439,7 @@
         <v>42</v>
       </c>
       <c r="B240" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C240" t="s">
         <v>320</v>
@@ -4444,10 +4447,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4455,10 +4458,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B242" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4466,10 +4469,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -4477,7 +4480,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
         <v>56</v>
@@ -4488,7 +4491,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
         <v>56</v>
@@ -4499,10 +4502,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B246" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s">
         <v>326</v>
@@ -4521,10 +4524,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B248" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C248" t="s">
         <v>328</v>
@@ -4532,10 +4535,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B249" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C249" t="s">
         <v>329</v>
@@ -4543,10 +4546,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B250" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C250" t="s">
         <v>330</v>
@@ -4554,10 +4557,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B251" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C251" t="s">
         <v>331</v>
@@ -4565,7 +4568,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B252" t="s">
         <v>89</v>
@@ -4576,7 +4579,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B253" t="s">
         <v>89</v>
@@ -4587,10 +4590,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B254" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C254" t="s">
         <v>334</v>
@@ -4598,7 +4601,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B255" t="s">
         <v>80</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B256" t="s">
         <v>80</v>
@@ -4631,10 +4634,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B258" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C258" t="s">
         <v>338</v>
@@ -4642,10 +4645,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B259" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C259" t="s">
         <v>339</v>
@@ -4656,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C260" t="s">
         <v>340</v>
@@ -4664,10 +4667,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B261" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C261" t="s">
         <v>341</v>
@@ -4675,10 +4678,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B262" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
         <v>342</v>
@@ -4686,10 +4689,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B263" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C263" t="s">
         <v>343</v>
@@ -4700,7 +4703,7 @@
         <v>48</v>
       </c>
       <c r="B264" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C264" t="s">
         <v>344</v>
@@ -4708,10 +4711,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B265" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4719,10 +4722,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B266" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C266" t="s">
         <v>346</v>
@@ -4730,10 +4733,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4741,10 +4744,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B268" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
@@ -4752,7 +4755,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B269" t="s">
         <v>89</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B270" t="s">
         <v>89</v>
@@ -4774,10 +4777,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C271" t="s">
         <v>351</v>
@@ -4785,10 +4788,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B272" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C272" t="s">
         <v>352</v>
@@ -4796,10 +4799,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B273" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C273" t="s">
         <v>353</v>
@@ -4807,10 +4810,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B274" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -4818,10 +4821,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B275" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -4829,10 +4832,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B276" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4840,10 +4843,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B277" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4851,10 +4854,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B278" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -4862,10 +4865,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B279" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C279" t="s">
         <v>359</v>
@@ -4873,10 +4876,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C280" t="s">
         <v>360</v>
@@ -4884,7 +4887,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B281" t="s">
         <v>89</v>
@@ -4895,7 +4898,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B282" t="s">
         <v>89</v>
@@ -4906,10 +4909,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C283" t="s">
         <v>363</v>
@@ -4917,10 +4920,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B284" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C284" t="s">
         <v>364</v>
@@ -4928,10 +4931,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B285" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C285" t="s">
         <v>365</v>
@@ -4939,7 +4942,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B286" t="s">
         <v>93</v>
@@ -4950,10 +4953,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B287" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C287" t="s">
         <v>367</v>
@@ -4961,10 +4964,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B288" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C288" t="s">
         <v>368</v>
@@ -4972,10 +4975,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B289" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C289" t="s">
         <v>369</v>
@@ -4983,10 +4986,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B290" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C290" t="s">
         <v>370</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B291" t="s">
         <v>53</v>
@@ -5005,10 +5008,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B292" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C292" t="s">
         <v>372</v>
@@ -5016,21 +5019,21 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B293" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C293" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B294" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C294" t="s">
         <v>373</v>
@@ -5038,10 +5041,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B295" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C295" t="s">
         <v>374</v>
@@ -5049,10 +5052,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B296" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C296" t="s">
         <v>375</v>
@@ -5060,10 +5063,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B297" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C297" t="s">
         <v>376</v>
@@ -5071,10 +5074,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B298" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C298" t="s">
         <v>377</v>
@@ -5082,7 +5085,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B299" t="s">
         <v>95</v>
@@ -5093,7 +5096,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
         <v>95</v>
@@ -5104,10 +5107,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B301" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C301" t="s">
         <v>380</v>
@@ -5115,10 +5118,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B302" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C302" t="s">
         <v>381</v>
@@ -5126,7 +5129,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B303" t="s">
         <v>93</v>
@@ -5137,10 +5140,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B304" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C304" t="s">
         <v>383</v>
@@ -5148,10 +5151,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5159,10 +5162,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B306" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C306" t="s">
         <v>385</v>
@@ -5170,10 +5173,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B307" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C307" t="s">
         <v>386</v>
@@ -5181,10 +5184,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B308" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B309" t="s">
         <v>53</v>
@@ -5203,10 +5206,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C310" t="s">
         <v>389</v>
@@ -5214,10 +5217,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B311" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C311" t="s">
         <v>390</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B312" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C312" t="s">
         <v>391</v>
@@ -5236,10 +5239,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B313" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B314" t="s">
         <v>79</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B315" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5269,10 +5272,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B316" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5280,10 +5283,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B317" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C317" t="s">
         <v>396</v>
@@ -5291,7 +5294,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
         <v>80</v>
@@ -5302,10 +5305,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C319" t="s">
         <v>398</v>
@@ -5313,10 +5316,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C320" t="s">
         <v>399</v>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B321" t="s">
         <v>96</v>
@@ -5335,10 +5338,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B322" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C322" t="s">
         <v>401</v>
@@ -5346,10 +5349,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B323" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C323" t="s">
         <v>402</v>
@@ -5357,21 +5360,21 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C324" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B325" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C325" t="s">
         <v>403</v>
@@ -5382,7 +5385,7 @@
         <v>47</v>
       </c>
       <c r="B326" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C326" t="s">
         <v>404</v>
@@ -5393,7 +5396,7 @@
         <v>47</v>
       </c>
       <c r="B327" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C327" t="s">
         <v>405</v>
@@ -5404,7 +5407,7 @@
         <v>47</v>
       </c>
       <c r="B328" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C328" t="s">
         <v>406</v>
@@ -5412,10 +5415,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B329" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C329" t="s">
         <v>407</v>
@@ -5423,7 +5426,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B330" t="s">
         <v>90</v>
@@ -5434,10 +5437,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C331" t="s">
         <v>409</v>
@@ -5445,10 +5448,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C332" t="s">
         <v>410</v>
@@ -5456,10 +5459,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C333" t="s">
         <v>411</v>
@@ -5470,7 +5473,7 @@
         <v>44</v>
       </c>
       <c r="B334" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C334" t="s">
         <v>412</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B335" t="s">
         <v>90</v>
@@ -5492,18 +5495,18 @@
         <v>50</v>
       </c>
       <c r="B336" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C336" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B337" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C337" t="s">
         <v>414</v>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B338" t="s">
         <v>79</v>
@@ -5525,7 +5528,7 @@
         <v>44</v>
       </c>
       <c r="B339" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C339" t="s">
         <v>416</v>
@@ -5533,10 +5536,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B340" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C340" t="s">
         <v>417</v>
@@ -5547,7 +5550,7 @@
         <v>46</v>
       </c>
       <c r="B341" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C341" t="s">
         <v>418</v>
@@ -5555,10 +5558,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B342" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C342" t="s">
         <v>419</v>
@@ -5566,10 +5569,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5577,10 +5580,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B344" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -5588,7 +5591,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B345" t="s">
         <v>90</v>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B346" t="s">
         <v>90</v>
@@ -5613,7 +5616,7 @@
         <v>46</v>
       </c>
       <c r="B347" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C347" t="s">
         <v>424</v>
@@ -5621,10 +5624,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B348" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C348" t="s">
         <v>425</v>
@@ -5632,7 +5635,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B349" t="s">
         <v>55</v>
@@ -5643,10 +5646,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B350" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C350" t="s">
         <v>427</v>
@@ -5654,10 +5657,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B351" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5668,7 +5671,7 @@
         <v>46</v>
       </c>
       <c r="B352" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C352" t="s">
         <v>429</v>
@@ -5679,7 +5682,7 @@
         <v>46</v>
       </c>
       <c r="B353" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5687,10 +5690,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B354" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5698,10 +5701,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B355" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C355" t="s">
         <v>432</v>
@@ -5709,10 +5712,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B356" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C356" t="s">
         <v>433</v>
@@ -5720,10 +5723,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B357" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C357" t="s">
         <v>434</v>
@@ -5731,10 +5734,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B358" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C358" t="s">
         <v>435</v>
@@ -5742,10 +5745,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B359" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C359" t="s">
         <v>436</v>
@@ -5753,10 +5756,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B360" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C360" t="s">
         <v>437</v>
@@ -5764,10 +5767,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B361" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5775,10 +5778,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B362" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -5786,7 +5789,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B363" t="s">
         <v>93</v>
@@ -5797,7 +5800,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B364" t="s">
         <v>93</v>
@@ -5808,7 +5811,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B365" t="s">
         <v>93</v>
@@ -5819,7 +5822,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B366" t="s">
         <v>93</v>
@@ -5830,10 +5833,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B367" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C367" t="s">
         <v>444</v>
@@ -5841,10 +5844,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B368" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C368" t="s">
         <v>445</v>
@@ -5852,10 +5855,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B369" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C369" t="s">
         <v>446</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B370" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C370" t="s">
         <v>447</v>
@@ -5874,10 +5877,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B371" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5885,10 +5888,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B372" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5896,10 +5899,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B373" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5907,10 +5910,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B374" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C374" t="s">
         <v>451</v>
@@ -5918,10 +5921,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B375" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C375" t="s">
         <v>452</v>
@@ -5929,10 +5932,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B376" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C376" t="s">
         <v>453</v>
@@ -5940,10 +5943,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B377" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C377" t="s">
         <v>454</v>
@@ -5951,10 +5954,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B378" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C378" t="s">
         <v>455</v>
@@ -5962,10 +5965,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B379" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C379" t="s">
         <v>456</v>
@@ -5973,10 +5976,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B380" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C380" t="s">
         <v>457</v>
@@ -5990,15 +5993,15 @@
         <v>79</v>
       </c>
       <c r="C381" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B382" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C382" t="s">
         <v>458</v>
@@ -6006,10 +6009,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B383" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C383" t="s">
         <v>459</v>
@@ -6017,10 +6020,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B384" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C384" t="s">
         <v>460</v>
@@ -6028,10 +6031,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C385" t="s">
         <v>461</v>
@@ -6039,10 +6042,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B386" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C386" t="s">
         <v>462</v>
@@ -6050,10 +6053,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B387" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C387" t="s">
         <v>463</v>
@@ -6061,10 +6064,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B388" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C388" t="s">
         <v>464</v>
@@ -6072,10 +6075,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B389" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C389" t="s">
         <v>465</v>
@@ -6083,7 +6086,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B390" t="s">
         <v>93</v>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B391" t="s">
         <v>93</v>
@@ -6105,10 +6108,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B392" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C392" t="s">
         <v>468</v>
@@ -6116,10 +6119,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B393" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C393" t="s">
         <v>469</v>
@@ -6127,7 +6130,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B394" t="s">
         <v>93</v>
@@ -6138,10 +6141,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B395" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C395" t="s">
         <v>471</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B396" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C396" t="s">
         <v>472</v>
@@ -6160,7 +6163,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B397" t="s">
         <v>93</v>
@@ -6171,13 +6174,24 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B398" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C398" t="s">
         <v>474</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>36</v>
+      </c>
+      <c r="B399" t="s">
+        <v>79</v>
+      </c>
+      <c r="C399" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="478">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Keygen</t>
+  </si>
+  <si>
+    <t>GuessMe</t>
+  </si>
+  <si>
     <t>Cattle</t>
   </si>
   <si>
@@ -136,9 +142,6 @@
     <t>Intro</t>
   </si>
   <si>
-    <t>Keygen</t>
-  </si>
-  <si>
     <t>Wordplay</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>JWT Admin Elevation</t>
   </si>
   <si>
-    <t>GuessMe</t>
-  </si>
-  <si>
     <t>Greeting</t>
   </si>
   <si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 6:11 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:44 p.m.</t>
   </si>
   <si>
     <t>June 21, 2025, 5:19 p.m.</t>
@@ -1799,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C399"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1961,10 +1967,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>110</v>
@@ -1972,10 +1978,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>111</v>
@@ -1983,10 +1989,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -1997,7 +2003,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>113</v>
@@ -2074,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>120</v>
@@ -2085,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>121</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -2115,10 +2121,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -2129,7 +2135,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>125</v>
@@ -2140,7 +2146,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>126</v>
@@ -2148,10 +2154,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -2159,10 +2165,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -2184,7 +2190,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
         <v>130</v>
@@ -2192,10 +2198,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -2203,10 +2209,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>132</v>
@@ -2214,10 +2220,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -2225,10 +2231,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
@@ -2258,7 +2264,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2269,7 +2275,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -2313,10 +2319,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>142</v>
@@ -2324,10 +2330,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>143</v>
@@ -2335,10 +2341,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -2346,32 +2352,32 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>146</v>
@@ -2379,10 +2385,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>147</v>
@@ -2393,7 +2399,7 @@
         <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>148</v>
@@ -2401,10 +2407,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
@@ -2412,10 +2418,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
@@ -2423,10 +2429,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2434,10 +2440,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>152</v>
@@ -2445,10 +2451,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
@@ -2456,10 +2462,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
@@ -2467,7 +2473,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -2495,26 +2501,26 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>158</v>
@@ -2522,10 +2528,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>159</v>
@@ -2533,10 +2539,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
@@ -2555,10 +2561,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
         <v>162</v>
@@ -2566,10 +2572,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
         <v>163</v>
@@ -2577,10 +2583,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
         <v>164</v>
@@ -2588,13 +2594,13 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2602,29 +2608,29 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>166</v>
@@ -2632,10 +2638,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
@@ -2643,10 +2649,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>168</v>
@@ -2654,10 +2660,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
@@ -2665,10 +2671,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
@@ -2676,10 +2682,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
         <v>171</v>
@@ -2687,43 +2693,43 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
         <v>173</v>
@@ -2731,10 +2737,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
         <v>174</v>
@@ -2742,10 +2748,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -2753,10 +2759,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2764,10 +2770,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2775,10 +2781,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -2786,10 +2792,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2797,10 +2803,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
         <v>181</v>
@@ -2819,10 +2825,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -2830,10 +2836,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -2841,7 +2847,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
         <v>76</v>
@@ -2852,10 +2858,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
         <v>185</v>
@@ -2863,10 +2869,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
         <v>186</v>
@@ -2874,10 +2880,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
         <v>187</v>
@@ -2885,7 +2891,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -2896,10 +2902,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2907,10 +2913,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
@@ -2918,10 +2924,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
         <v>191</v>
@@ -2929,10 +2935,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
         <v>192</v>
@@ -2940,10 +2946,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
         <v>193</v>
@@ -2951,7 +2957,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
         <v>76</v>
@@ -2973,7 +2979,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
         <v>76</v>
@@ -2984,10 +2990,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
         <v>197</v>
@@ -2995,10 +3001,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
         <v>198</v>
@@ -3006,7 +3012,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
         <v>78</v>
@@ -3017,7 +3023,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
         <v>78</v>
@@ -3028,10 +3034,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
         <v>201</v>
@@ -3039,7 +3045,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
         <v>78</v>
@@ -3050,10 +3056,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -3061,10 +3067,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3072,10 +3078,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
         <v>205</v>
@@ -3083,10 +3089,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3094,10 +3100,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
@@ -3105,10 +3111,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
         <v>208</v>
@@ -3116,10 +3122,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
         <v>209</v>
@@ -3127,10 +3133,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
         <v>210</v>
@@ -3138,10 +3144,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
         <v>211</v>
@@ -3149,10 +3155,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
         <v>212</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
         <v>74</v>
@@ -3171,10 +3177,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>214</v>
@@ -3182,10 +3188,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C126" t="s">
         <v>215</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
         <v>58</v>
@@ -3204,10 +3210,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
         <v>217</v>
@@ -3215,32 +3221,32 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
         <v>58</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C131" t="s">
         <v>219</v>
@@ -3248,7 +3254,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B132" t="s">
         <v>74</v>
@@ -3259,7 +3265,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
         <v>74</v>
@@ -3270,10 +3276,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
         <v>222</v>
@@ -3281,10 +3287,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C135" t="s">
         <v>223</v>
@@ -3292,24 +3298,24 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3317,29 +3323,29 @@
         <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C138" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
         <v>226</v>
@@ -3347,10 +3353,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C141" t="s">
         <v>227</v>
@@ -3358,10 +3364,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
         <v>228</v>
@@ -3369,10 +3375,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C143" t="s">
         <v>229</v>
@@ -3380,32 +3386,32 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C146" t="s">
         <v>231</v>
@@ -3413,10 +3419,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
         <v>232</v>
@@ -3424,32 +3430,32 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C148" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C149" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C150" t="s">
         <v>234</v>
@@ -3457,10 +3463,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C151" t="s">
         <v>235</v>
@@ -3468,10 +3474,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C152" t="s">
         <v>236</v>
@@ -3479,10 +3485,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C153" t="s">
         <v>237</v>
@@ -3490,10 +3496,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B154" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C154" t="s">
         <v>238</v>
@@ -3501,10 +3507,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C155" t="s">
         <v>239</v>
@@ -3512,32 +3518,32 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C156" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C158" t="s">
         <v>241</v>
@@ -3545,10 +3551,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C159" t="s">
         <v>242</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
         <v>63</v>
@@ -3567,10 +3573,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3578,10 +3584,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C162" t="s">
         <v>245</v>
@@ -3589,10 +3595,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C163" t="s">
         <v>246</v>
@@ -3600,10 +3606,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C164" t="s">
         <v>247</v>
@@ -3611,10 +3617,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C165" t="s">
         <v>248</v>
@@ -3622,10 +3628,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C166" t="s">
         <v>249</v>
@@ -3633,10 +3639,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B167" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C167" t="s">
         <v>250</v>
@@ -3644,10 +3650,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C168" t="s">
         <v>251</v>
@@ -3655,10 +3661,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C169" t="s">
         <v>252</v>
@@ -3666,10 +3672,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C170" t="s">
         <v>253</v>
@@ -3677,43 +3683,43 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B171" t="s">
         <v>59</v>
       </c>
       <c r="C171" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
         <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
         <v>59</v>
       </c>
       <c r="C173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C174" t="s">
         <v>255</v>
@@ -3721,10 +3727,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C175" t="s">
         <v>256</v>
@@ -3732,10 +3738,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C176" t="s">
         <v>257</v>
@@ -3743,7 +3749,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
         <v>76</v>
@@ -3754,10 +3760,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C178" t="s">
         <v>259</v>
@@ -3765,10 +3771,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C179" t="s">
         <v>260</v>
@@ -3776,10 +3782,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C180" t="s">
         <v>261</v>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B181" t="s">
         <v>58</v>
@@ -3798,10 +3804,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B182" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
         <v>263</v>
@@ -3809,10 +3815,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B183" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C183" t="s">
         <v>264</v>
@@ -3820,10 +3826,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C184" t="s">
         <v>265</v>
@@ -3831,10 +3837,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C185" t="s">
         <v>266</v>
@@ -3842,7 +3848,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>59</v>
@@ -3853,7 +3859,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
         <v>59</v>
@@ -3864,32 +3870,32 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
         <v>59</v>
       </c>
       <c r="C188" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C190" t="s">
         <v>270</v>
@@ -3897,10 +3903,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C191" t="s">
         <v>271</v>
@@ -3908,10 +3914,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
@@ -3919,10 +3925,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3930,10 +3936,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C194" t="s">
         <v>274</v>
@@ -3941,10 +3947,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3952,10 +3958,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3963,7 +3969,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B197" t="s">
         <v>57</v>
@@ -3974,10 +3980,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3985,10 +3991,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -3996,10 +4002,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B200" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C200" t="s">
         <v>280</v>
@@ -4007,10 +4013,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -4018,10 +4024,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C202" t="s">
         <v>282</v>
@@ -4029,10 +4035,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4040,10 +4046,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B204" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4051,10 +4057,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4062,10 +4068,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B206" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
         <v>286</v>
@@ -4073,10 +4079,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B207" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
@@ -4084,10 +4090,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C208" t="s">
         <v>288</v>
@@ -4095,10 +4101,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C209" t="s">
         <v>289</v>
@@ -4106,10 +4112,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B210" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4117,10 +4123,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B211" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4128,10 +4134,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -4139,10 +4145,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4150,10 +4156,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B214" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C214" t="s">
         <v>294</v>
@@ -4161,10 +4167,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -4172,10 +4178,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C216" t="s">
         <v>296</v>
@@ -4183,7 +4189,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B217" t="s">
         <v>91</v>
@@ -4194,10 +4200,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B218" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C218" t="s">
         <v>298</v>
@@ -4205,10 +4211,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B219" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C219" t="s">
         <v>299</v>
@@ -4216,10 +4222,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B220" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C220" t="s">
         <v>300</v>
@@ -4227,10 +4233,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B221" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C221" t="s">
         <v>301</v>
@@ -4238,10 +4244,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>
@@ -4249,10 +4255,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B223" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4260,10 +4266,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B224" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C224" t="s">
         <v>304</v>
@@ -4271,10 +4277,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B225" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4282,10 +4288,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4293,10 +4299,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B227" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C227" t="s">
         <v>307</v>
@@ -4304,10 +4310,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
@@ -4315,10 +4321,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B229" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C229" t="s">
         <v>309</v>
@@ -4326,10 +4332,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C230" t="s">
         <v>310</v>
@@ -4337,10 +4343,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B231" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4348,10 +4354,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4359,7 +4365,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B233" t="s">
         <v>80</v>
@@ -4370,10 +4376,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B234" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C234" t="s">
         <v>314</v>
@@ -4381,10 +4387,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C235" t="s">
         <v>315</v>
@@ -4392,10 +4398,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B236" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C236" t="s">
         <v>316</v>
@@ -4403,7 +4409,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B237" t="s">
         <v>55</v>
@@ -4414,10 +4420,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C238" t="s">
         <v>318</v>
@@ -4425,10 +4431,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B239" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C239" t="s">
         <v>319</v>
@@ -4436,10 +4442,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B240" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C240" t="s">
         <v>320</v>
@@ -4447,10 +4453,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4458,10 +4464,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B242" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4469,10 +4475,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B243" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -4480,10 +4486,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C244" t="s">
         <v>324</v>
@@ -4491,10 +4497,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C245" t="s">
         <v>325</v>
@@ -4502,7 +4508,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B246" t="s">
         <v>56</v>
@@ -4513,10 +4519,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B247" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C247" t="s">
         <v>327</v>
@@ -4524,10 +4530,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B248" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C248" t="s">
         <v>328</v>
@@ -4535,10 +4541,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B249" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C249" t="s">
         <v>329</v>
@@ -4546,10 +4552,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C250" t="s">
         <v>330</v>
@@ -4557,7 +4563,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B251" t="s">
         <v>80</v>
@@ -4568,10 +4574,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -4579,10 +4585,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B253" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C253" t="s">
         <v>333</v>
@@ -4590,7 +4596,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B254" t="s">
         <v>89</v>
@@ -4601,10 +4607,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C255" t="s">
         <v>335</v>
@@ -4612,10 +4618,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C256" t="s">
         <v>336</v>
@@ -4623,7 +4629,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B257" t="s">
         <v>80</v>
@@ -4634,7 +4640,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B258" t="s">
         <v>80</v>
@@ -4645,10 +4651,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B259" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C259" t="s">
         <v>339</v>
@@ -4656,10 +4662,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C260" t="s">
         <v>340</v>
@@ -4667,7 +4673,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B261" t="s">
         <v>93</v>
@@ -4678,10 +4684,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C262" t="s">
         <v>342</v>
@@ -4689,10 +4695,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C263" t="s">
         <v>343</v>
@@ -4700,10 +4706,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B264" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C264" t="s">
         <v>344</v>
@@ -4711,10 +4717,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4722,10 +4728,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B266" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C266" t="s">
         <v>346</v>
@@ -4733,10 +4739,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B267" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4744,10 +4750,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B268" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
@@ -4755,7 +4761,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B269" t="s">
         <v>89</v>
@@ -4766,10 +4772,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B270" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C270" t="s">
         <v>350</v>
@@ -4777,7 +4783,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B271" t="s">
         <v>89</v>
@@ -4788,10 +4794,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B272" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C272" t="s">
         <v>352</v>
@@ -4799,10 +4805,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B273" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C273" t="s">
         <v>353</v>
@@ -4813,7 +4819,7 @@
         <v>36</v>
       </c>
       <c r="B274" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -4821,7 +4827,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B275" t="s">
         <v>79</v>
@@ -4832,10 +4838,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B276" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4843,10 +4849,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B277" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4854,10 +4860,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B278" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -4865,10 +4871,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B279" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C279" t="s">
         <v>359</v>
@@ -4876,10 +4882,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B280" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C280" t="s">
         <v>360</v>
@@ -4887,10 +4893,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B281" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -4898,10 +4904,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B282" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -4909,7 +4915,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B283" t="s">
         <v>89</v>
@@ -4920,10 +4926,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B284" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C284" t="s">
         <v>364</v>
@@ -4931,10 +4937,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C285" t="s">
         <v>365</v>
@@ -4942,10 +4948,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B286" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C286" t="s">
         <v>366</v>
@@ -4953,10 +4959,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B287" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C287" t="s">
         <v>367</v>
@@ -4964,10 +4970,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B288" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C288" t="s">
         <v>368</v>
@@ -4975,10 +4981,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B289" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C289" t="s">
         <v>369</v>
@@ -4989,7 +4995,7 @@
         <v>28</v>
       </c>
       <c r="B290" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C290" t="s">
         <v>370</v>
@@ -4997,10 +5003,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B291" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C291" t="s">
         <v>371</v>
@@ -5008,10 +5014,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B292" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C292" t="s">
         <v>372</v>
@@ -5019,10 +5025,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B293" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C293" t="s">
         <v>373</v>
@@ -5030,32 +5036,32 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B294" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C294" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B295" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B296" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C296" t="s">
         <v>375</v>
@@ -5063,10 +5069,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B297" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C297" t="s">
         <v>376</v>
@@ -5074,10 +5080,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B298" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C298" t="s">
         <v>377</v>
@@ -5085,10 +5091,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B299" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C299" t="s">
         <v>378</v>
@@ -5096,10 +5102,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B300" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C300" t="s">
         <v>379</v>
@@ -5107,7 +5113,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B301" t="s">
         <v>95</v>
@@ -5118,10 +5124,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B302" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C302" t="s">
         <v>381</v>
@@ -5129,10 +5135,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B303" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C303" t="s">
         <v>382</v>
@@ -5140,10 +5146,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B304" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C304" t="s">
         <v>383</v>
@@ -5151,10 +5157,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B305" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5162,10 +5168,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C306" t="s">
         <v>385</v>
@@ -5184,10 +5190,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B308" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5195,10 +5201,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B309" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C309" t="s">
         <v>388</v>
@@ -5206,10 +5212,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B310" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C310" t="s">
         <v>389</v>
@@ -5217,10 +5223,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B311" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C311" t="s">
         <v>390</v>
@@ -5228,10 +5234,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C312" t="s">
         <v>391</v>
@@ -5239,10 +5245,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B313" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5250,10 +5256,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B314" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C314" t="s">
         <v>393</v>
@@ -5261,10 +5267,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B315" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5272,10 +5278,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B316" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5283,10 +5289,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B317" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C317" t="s">
         <v>396</v>
@@ -5294,10 +5300,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C318" t="s">
         <v>397</v>
@@ -5305,10 +5311,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B319" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C319" t="s">
         <v>398</v>
@@ -5316,10 +5322,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C320" t="s">
         <v>399</v>
@@ -5327,10 +5333,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C321" t="s">
         <v>400</v>
@@ -5338,10 +5344,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C322" t="s">
         <v>401</v>
@@ -5349,10 +5355,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B323" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C323" t="s">
         <v>402</v>
@@ -5360,10 +5366,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B324" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C324" t="s">
         <v>403</v>
@@ -5371,32 +5377,32 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C325" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C326" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C327" t="s">
         <v>405</v>
@@ -5407,7 +5413,7 @@
         <v>47</v>
       </c>
       <c r="B328" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C328" t="s">
         <v>406</v>
@@ -5418,7 +5424,7 @@
         <v>47</v>
       </c>
       <c r="B329" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C329" t="s">
         <v>407</v>
@@ -5426,10 +5432,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B330" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C330" t="s">
         <v>408</v>
@@ -5437,10 +5443,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B331" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C331" t="s">
         <v>409</v>
@@ -5448,10 +5454,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C332" t="s">
         <v>410</v>
@@ -5459,10 +5465,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C333" t="s">
         <v>411</v>
@@ -5470,7 +5476,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B334" t="s">
         <v>93</v>
@@ -5481,10 +5487,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C335" t="s">
         <v>413</v>
@@ -5492,10 +5498,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C336" t="s">
         <v>414</v>
@@ -5503,32 +5509,32 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B337" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C337" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B338" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C338" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B339" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C339" t="s">
         <v>416</v>
@@ -5536,10 +5542,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C340" t="s">
         <v>417</v>
@@ -5547,10 +5553,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B341" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C341" t="s">
         <v>418</v>
@@ -5558,10 +5564,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B342" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C342" t="s">
         <v>419</v>
@@ -5569,10 +5575,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B343" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5580,10 +5586,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B344" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -5591,7 +5597,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B345" t="s">
         <v>90</v>
@@ -5602,10 +5608,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B346" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C346" t="s">
         <v>423</v>
@@ -5613,7 +5619,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B347" t="s">
         <v>90</v>
@@ -5624,10 +5630,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B348" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C348" t="s">
         <v>425</v>
@@ -5635,10 +5641,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B349" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C349" t="s">
         <v>426</v>
@@ -5649,7 +5655,7 @@
         <v>46</v>
       </c>
       <c r="B350" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C350" t="s">
         <v>427</v>
@@ -5657,10 +5663,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B351" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5671,7 +5677,7 @@
         <v>46</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C352" t="s">
         <v>429</v>
@@ -5679,10 +5685,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B353" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5693,7 +5699,7 @@
         <v>46</v>
       </c>
       <c r="B354" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5701,10 +5707,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B355" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C355" t="s">
         <v>432</v>
@@ -5712,10 +5718,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B356" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C356" t="s">
         <v>433</v>
@@ -5723,10 +5729,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B357" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C357" t="s">
         <v>434</v>
@@ -5734,10 +5740,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B358" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C358" t="s">
         <v>435</v>
@@ -5745,10 +5751,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B359" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C359" t="s">
         <v>436</v>
@@ -5756,10 +5762,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B360" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C360" t="s">
         <v>437</v>
@@ -5767,10 +5773,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B361" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5778,10 +5784,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B362" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -5789,10 +5795,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C363" t="s">
         <v>440</v>
@@ -5800,10 +5806,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B364" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C364" t="s">
         <v>441</v>
@@ -5811,7 +5817,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B365" t="s">
         <v>93</v>
@@ -5822,7 +5828,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B366" t="s">
         <v>93</v>
@@ -5833,7 +5839,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B367" t="s">
         <v>93</v>
@@ -5844,10 +5850,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B368" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C368" t="s">
         <v>445</v>
@@ -5855,10 +5861,10 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B369" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C369" t="s">
         <v>446</v>
@@ -5866,10 +5872,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B370" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C370" t="s">
         <v>447</v>
@@ -5877,10 +5883,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B371" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5888,10 +5894,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B372" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5899,10 +5905,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B373" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5910,10 +5916,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B374" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C374" t="s">
         <v>451</v>
@@ -5921,10 +5927,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B375" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C375" t="s">
         <v>452</v>
@@ -5932,10 +5938,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B376" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C376" t="s">
         <v>453</v>
@@ -5943,10 +5949,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B377" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C377" t="s">
         <v>454</v>
@@ -5954,10 +5960,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B378" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C378" t="s">
         <v>455</v>
@@ -5965,10 +5971,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B379" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C379" t="s">
         <v>456</v>
@@ -5976,7 +5982,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B380" t="s">
         <v>93</v>
@@ -5987,10 +5993,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B381" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C381" t="s">
         <v>458</v>
@@ -5998,29 +6004,29 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B382" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C382" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B383" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C383" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B384" t="s">
         <v>79</v>
@@ -6031,10 +6037,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B385" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C385" t="s">
         <v>461</v>
@@ -6042,10 +6048,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B386" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C386" t="s">
         <v>462</v>
@@ -6053,7 +6059,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B387" t="s">
         <v>93</v>
@@ -6064,10 +6070,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B388" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C388" t="s">
         <v>464</v>
@@ -6075,10 +6081,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B389" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C389" t="s">
         <v>465</v>
@@ -6086,10 +6092,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B390" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C390" t="s">
         <v>466</v>
@@ -6097,10 +6103,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B391" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C391" t="s">
         <v>467</v>
@@ -6108,7 +6114,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B392" t="s">
         <v>93</v>
@@ -6119,10 +6125,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B393" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C393" t="s">
         <v>469</v>
@@ -6130,7 +6136,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B394" t="s">
         <v>93</v>
@@ -6141,10 +6147,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C395" t="s">
         <v>471</v>
@@ -6152,10 +6158,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B396" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C396" t="s">
         <v>472</v>
@@ -6163,7 +6169,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B397" t="s">
         <v>93</v>
@@ -6174,10 +6180,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B398" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C398" t="s">
         <v>474</v>
@@ -6185,13 +6191,35 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B399" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C399" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>38</v>
+      </c>
+      <c r="B400" t="s">
+        <v>93</v>
+      </c>
+      <c r="C400" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>38</v>
+      </c>
+      <c r="B401" t="s">
+        <v>79</v>
+      </c>
+      <c r="C401" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="479">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Mysterious</t>
+  </si>
+  <si>
     <t>Keygen</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>Hidden In Channel</t>
   </si>
   <si>
-    <t>Mysterious</t>
-  </si>
-  <si>
     <t>Corrupted Chunks</t>
   </si>
   <si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 2:41 a.m.</t>
   </si>
   <si>
     <t>June 21, 2025, 6:11 p.m.</t>
@@ -1805,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C401"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1989,10 +1992,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -2000,10 +2003,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>113</v>
@@ -2014,7 +2017,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>114</v>
@@ -2102,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>122</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -2146,7 +2149,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>126</v>
@@ -2157,7 +2160,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -2168,7 +2171,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
@@ -2176,10 +2179,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
@@ -2212,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>132</v>
@@ -2220,10 +2223,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -2231,10 +2234,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -2253,10 +2256,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
@@ -2264,10 +2267,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>137</v>
@@ -2275,7 +2278,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -2308,7 +2311,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -2330,7 +2333,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -2352,10 +2355,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>145</v>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
@@ -2374,21 +2377,21 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>147</v>
@@ -2396,10 +2399,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>148</v>
@@ -2410,7 +2413,7 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
@@ -2421,7 +2424,7 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
@@ -2429,10 +2432,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2440,7 +2443,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -2451,10 +2454,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
@@ -2473,10 +2476,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>155</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -2517,21 +2520,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
         <v>159</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
@@ -2550,7 +2553,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>64</v>
@@ -2561,10 +2564,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
         <v>162</v>
@@ -2572,10 +2575,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
         <v>163</v>
@@ -2594,10 +2597,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
         <v>165</v>
@@ -2605,10 +2608,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>166</v>
@@ -2616,32 +2619,32 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
@@ -2649,10 +2652,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
         <v>168</v>
@@ -2660,10 +2663,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
@@ -2671,10 +2674,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
@@ -2682,10 +2685,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
         <v>171</v>
@@ -2693,10 +2696,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
         <v>172</v>
@@ -2704,10 +2707,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
         <v>173</v>
@@ -2715,32 +2718,32 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
         <v>174</v>
@@ -2748,10 +2751,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
         <v>175</v>
@@ -2759,10 +2762,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2770,10 +2773,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2781,10 +2784,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -2792,10 +2795,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2803,10 +2806,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
         <v>55</v>
@@ -2825,10 +2828,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -2839,7 +2842,7 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
         <v>76</v>
@@ -2858,10 +2861,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
         <v>185</v>
@@ -2869,10 +2872,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
         <v>186</v>
@@ -2880,10 +2883,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
         <v>187</v>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
@@ -2902,10 +2905,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2913,10 +2916,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -2935,10 +2938,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
         <v>192</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>52</v>
@@ -2960,7 +2963,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
         <v>194</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
         <v>76</v>
@@ -2979,7 +2982,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
         <v>76</v>
@@ -2990,7 +2993,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
         <v>76</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
@@ -3012,10 +3015,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
         <v>199</v>
@@ -3023,7 +3026,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s">
         <v>78</v>
@@ -3045,7 +3048,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
         <v>78</v>
@@ -3056,10 +3059,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
         <v>203</v>
@@ -3067,10 +3070,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3078,10 +3081,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
         <v>205</v>
@@ -3089,10 +3092,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3100,10 +3103,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
@@ -3111,7 +3114,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B119" t="s">
         <v>80</v>
@@ -3122,10 +3125,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C120" t="s">
         <v>209</v>
@@ -3133,7 +3136,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
         <v>74</v>
@@ -3144,10 +3147,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
         <v>211</v>
@@ -3155,7 +3158,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
         <v>58</v>
@@ -3166,10 +3169,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C124" t="s">
         <v>213</v>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
         <v>74</v>
@@ -3188,7 +3191,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>74</v>
@@ -3199,10 +3202,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C127" t="s">
         <v>216</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B128" t="s">
         <v>58</v>
@@ -3232,10 +3235,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C130" t="s">
         <v>219</v>
@@ -3243,21 +3246,21 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C132" t="s">
         <v>220</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
         <v>74</v>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
         <v>74</v>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
         <v>74</v>
@@ -3298,10 +3301,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C136" t="s">
         <v>224</v>
@@ -3309,10 +3312,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C137" t="s">
         <v>225</v>
@@ -3320,13 +3323,13 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3334,7 +3337,7 @@
         <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
         <v>226</v>
@@ -3342,21 +3345,21 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B140" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C140" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C141" t="s">
         <v>227</v>
@@ -3364,10 +3367,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C142" t="s">
         <v>228</v>
@@ -3375,10 +3378,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
         <v>229</v>
@@ -3386,10 +3389,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
         <v>230</v>
@@ -3397,10 +3400,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
         <v>231</v>
@@ -3408,21 +3411,21 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
         <v>232</v>
@@ -3430,10 +3433,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
         <v>233</v>
@@ -3441,10 +3444,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B149" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C149" t="s">
         <v>234</v>
@@ -3452,21 +3455,21 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
         <v>235</v>
@@ -3474,10 +3477,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C152" t="s">
         <v>236</v>
@@ -3485,10 +3488,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C153" t="s">
         <v>237</v>
@@ -3496,7 +3499,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
         <v>82</v>
@@ -3507,10 +3510,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B155" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C155" t="s">
         <v>239</v>
@@ -3518,10 +3521,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C156" t="s">
         <v>240</v>
@@ -3529,10 +3532,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B157" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C157" t="s">
         <v>241</v>
@@ -3540,21 +3543,21 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C158" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C159" t="s">
         <v>242</v>
@@ -3562,7 +3565,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
         <v>63</v>
@@ -3573,10 +3576,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3584,10 +3587,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C162" t="s">
         <v>245</v>
@@ -3595,10 +3598,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B163" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C163" t="s">
         <v>246</v>
@@ -3606,10 +3609,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C164" t="s">
         <v>247</v>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B165" t="s">
         <v>85</v>
@@ -3628,10 +3631,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C166" t="s">
         <v>249</v>
@@ -3639,7 +3642,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
         <v>82</v>
@@ -3650,10 +3653,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C168" t="s">
         <v>251</v>
@@ -3661,7 +3664,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
         <v>86</v>
@@ -3672,10 +3675,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
         <v>253</v>
@@ -3683,10 +3686,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C171" t="s">
         <v>254</v>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B172" t="s">
         <v>59</v>
@@ -3705,29 +3708,29 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B173" t="s">
         <v>59</v>
       </c>
       <c r="C173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
         <v>59</v>
       </c>
       <c r="C174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B175" t="s">
         <v>59</v>
@@ -3738,10 +3741,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C176" t="s">
         <v>257</v>
@@ -3749,7 +3752,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B177" t="s">
         <v>76</v>
@@ -3760,10 +3763,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C178" t="s">
         <v>259</v>
@@ -3771,10 +3774,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C179" t="s">
         <v>260</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B180" t="s">
         <v>76</v>
@@ -3793,10 +3796,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C181" t="s">
         <v>262</v>
@@ -3804,10 +3807,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C182" t="s">
         <v>263</v>
@@ -3815,10 +3818,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C183" t="s">
         <v>264</v>
@@ -3826,10 +3829,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C184" t="s">
         <v>265</v>
@@ -3837,7 +3840,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
         <v>87</v>
@@ -3848,10 +3851,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C186" t="s">
         <v>267</v>
@@ -3859,7 +3862,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
         <v>59</v>
@@ -3870,7 +3873,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
         <v>59</v>
@@ -3881,7 +3884,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
@@ -3892,21 +3895,21 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s">
         <v>59</v>
       </c>
       <c r="C190" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C191" t="s">
         <v>271</v>
@@ -3914,10 +3917,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C192" t="s">
         <v>272</v>
@@ -3925,10 +3928,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3936,10 +3939,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C194" t="s">
         <v>274</v>
@@ -3947,10 +3950,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B195" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3958,10 +3961,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3969,10 +3972,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B197" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C197" t="s">
         <v>277</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3991,10 +3994,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -4002,10 +4005,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C200" t="s">
         <v>280</v>
@@ -4013,10 +4016,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -4024,10 +4027,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B202" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C202" t="s">
         <v>282</v>
@@ -4035,10 +4038,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4046,10 +4049,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4057,10 +4060,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B205" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4068,10 +4071,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B206" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C206" t="s">
         <v>286</v>
@@ -4079,10 +4082,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
@@ -4090,10 +4093,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C208" t="s">
         <v>288</v>
@@ -4101,10 +4104,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C209" t="s">
         <v>289</v>
@@ -4112,10 +4115,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B210" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4123,10 +4126,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4134,10 +4137,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B213" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C214" t="s">
         <v>294</v>
@@ -4170,7 +4173,7 @@
         <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C216" t="s">
         <v>296</v>
@@ -4189,10 +4192,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B217" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C217" t="s">
         <v>297</v>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B218" t="s">
         <v>91</v>
@@ -4211,7 +4214,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
         <v>91</v>
@@ -4222,10 +4225,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C220" t="s">
         <v>300</v>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C221" t="s">
         <v>301</v>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B222" t="s">
         <v>92</v>
@@ -4255,10 +4258,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4266,7 +4269,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B224" t="s">
         <v>93</v>
@@ -4277,10 +4280,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B225" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4299,10 +4302,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C227" t="s">
         <v>307</v>
@@ -4310,10 +4313,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
@@ -4321,10 +4324,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B229" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C229" t="s">
         <v>309</v>
@@ -4332,7 +4335,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B230" t="s">
         <v>51</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4354,10 +4357,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B232" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4365,10 +4368,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B233" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C233" t="s">
         <v>313</v>
@@ -4376,10 +4379,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B234" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C234" t="s">
         <v>314</v>
@@ -4387,10 +4390,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B235" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C235" t="s">
         <v>315</v>
@@ -4398,10 +4401,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B236" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C236" t="s">
         <v>316</v>
@@ -4409,10 +4412,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B237" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C237" t="s">
         <v>317</v>
@@ -4420,7 +4423,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
         <v>55</v>
@@ -4431,7 +4434,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
         <v>55</v>
@@ -4442,10 +4445,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B240" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C240" t="s">
         <v>320</v>
@@ -4453,10 +4456,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B241" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4464,10 +4467,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4475,10 +4478,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B243" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -4486,10 +4489,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B244" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C244" t="s">
         <v>324</v>
@@ -4497,10 +4500,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B245" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C245" t="s">
         <v>325</v>
@@ -4508,10 +4511,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B246" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C246" t="s">
         <v>326</v>
@@ -4519,7 +4522,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
         <v>56</v>
@@ -4530,7 +4533,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
         <v>56</v>
@@ -4541,10 +4544,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B249" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C249" t="s">
         <v>329</v>
@@ -4563,10 +4566,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B251" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C251" t="s">
         <v>331</v>
@@ -4574,10 +4577,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -4585,10 +4588,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B253" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
         <v>333</v>
@@ -4596,10 +4599,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B254" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C254" t="s">
         <v>334</v>
@@ -4607,7 +4610,7 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B255" t="s">
         <v>89</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B256" t="s">
         <v>89</v>
@@ -4629,10 +4632,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C257" t="s">
         <v>337</v>
@@ -4640,7 +4643,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B258" t="s">
         <v>80</v>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B259" t="s">
         <v>80</v>
@@ -4673,10 +4676,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C261" t="s">
         <v>341</v>
@@ -4684,10 +4687,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C262" t="s">
         <v>342</v>
@@ -4698,7 +4701,7 @@
         <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C263" t="s">
         <v>343</v>
@@ -4706,10 +4709,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C264" t="s">
         <v>344</v>
@@ -4717,10 +4720,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4728,10 +4731,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B266" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C266" t="s">
         <v>346</v>
@@ -4739,10 +4742,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4750,10 +4753,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B268" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
@@ -4761,10 +4764,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B269" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C269" t="s">
         <v>349</v>
@@ -4772,10 +4775,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B270" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C270" t="s">
         <v>350</v>
@@ -4783,10 +4786,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B271" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C271" t="s">
         <v>351</v>
@@ -4794,7 +4797,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B272" t="s">
         <v>89</v>
@@ -4805,7 +4808,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B273" t="s">
         <v>89</v>
@@ -4816,10 +4819,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -4827,10 +4830,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B275" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -4838,10 +4841,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B276" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4849,10 +4852,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B277" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4860,10 +4863,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B278" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -4871,10 +4874,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B279" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C279" t="s">
         <v>359</v>
@@ -4882,10 +4885,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B280" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C280" t="s">
         <v>360</v>
@@ -4893,10 +4896,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B281" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -4904,10 +4907,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B282" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -4915,10 +4918,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C283" t="s">
         <v>363</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B284" t="s">
         <v>89</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B285" t="s">
         <v>89</v>
@@ -4948,10 +4951,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C286" t="s">
         <v>366</v>
@@ -4959,10 +4962,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B287" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C287" t="s">
         <v>367</v>
@@ -4970,10 +4973,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C288" t="s">
         <v>368</v>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B289" t="s">
         <v>93</v>
@@ -4992,10 +4995,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B290" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C290" t="s">
         <v>370</v>
@@ -5003,10 +5006,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C291" t="s">
         <v>371</v>
@@ -5014,10 +5017,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B292" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C292" t="s">
         <v>372</v>
@@ -5025,10 +5028,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B293" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C293" t="s">
         <v>373</v>
@@ -5036,7 +5039,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B294" t="s">
         <v>53</v>
@@ -5047,10 +5050,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B295" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C295" t="s">
         <v>375</v>
@@ -5058,21 +5061,21 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B296" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C296" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B297" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C297" t="s">
         <v>376</v>
@@ -5080,10 +5083,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B298" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C298" t="s">
         <v>377</v>
@@ -5091,10 +5094,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C299" t="s">
         <v>378</v>
@@ -5102,10 +5105,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B300" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C300" t="s">
         <v>379</v>
@@ -5113,10 +5116,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B301" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C301" t="s">
         <v>380</v>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B302" t="s">
         <v>95</v>
@@ -5135,7 +5138,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B303" t="s">
         <v>95</v>
@@ -5146,10 +5149,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B304" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C304" t="s">
         <v>383</v>
@@ -5157,10 +5160,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B305" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B306" t="s">
         <v>93</v>
@@ -5179,10 +5182,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B307" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C307" t="s">
         <v>386</v>
@@ -5190,10 +5193,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B308" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5201,10 +5204,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B309" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C309" t="s">
         <v>388</v>
@@ -5212,10 +5215,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B310" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C310" t="s">
         <v>389</v>
@@ -5223,10 +5226,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B311" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C311" t="s">
         <v>390</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B312" t="s">
         <v>53</v>
@@ -5245,10 +5248,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5256,10 +5259,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C314" t="s">
         <v>393</v>
@@ -5267,10 +5270,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5278,10 +5281,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5289,7 +5292,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B317" t="s">
         <v>79</v>
@@ -5303,7 +5306,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C318" t="s">
         <v>397</v>
@@ -5311,10 +5314,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B319" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C319" t="s">
         <v>398</v>
@@ -5322,10 +5325,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C320" t="s">
         <v>399</v>
@@ -5333,7 +5336,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
         <v>80</v>
@@ -5344,10 +5347,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C322" t="s">
         <v>401</v>
@@ -5355,10 +5358,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C323" t="s">
         <v>402</v>
@@ -5366,7 +5369,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B324" t="s">
         <v>96</v>
@@ -5377,10 +5380,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B325" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C325" t="s">
         <v>404</v>
@@ -5388,10 +5391,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C326" t="s">
         <v>405</v>
@@ -5399,21 +5402,21 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C327" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B328" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C328" t="s">
         <v>406</v>
@@ -5421,10 +5424,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B329" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C329" t="s">
         <v>407</v>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B330" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C330" t="s">
         <v>408</v>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B331" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C331" t="s">
         <v>409</v>
@@ -5454,10 +5457,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B332" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C332" t="s">
         <v>410</v>
@@ -5465,7 +5468,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
         <v>90</v>
@@ -5476,10 +5479,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C334" t="s">
         <v>412</v>
@@ -5487,10 +5490,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C335" t="s">
         <v>413</v>
@@ -5498,10 +5501,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C336" t="s">
         <v>414</v>
@@ -5509,10 +5512,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B337" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C337" t="s">
         <v>415</v>
@@ -5520,7 +5523,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B338" t="s">
         <v>90</v>
@@ -5534,18 +5537,18 @@
         <v>50</v>
       </c>
       <c r="B339" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C339" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B340" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C340" t="s">
         <v>417</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B341" t="s">
         <v>79</v>
@@ -5564,10 +5567,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B342" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C342" t="s">
         <v>419</v>
@@ -5575,10 +5578,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B343" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5586,10 +5589,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B344" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -5597,10 +5600,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B345" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C345" t="s">
         <v>422</v>
@@ -5608,10 +5611,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B346" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C346" t="s">
         <v>423</v>
@@ -5619,10 +5622,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B347" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C347" t="s">
         <v>424</v>
@@ -5630,7 +5633,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B348" t="s">
         <v>90</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B349" t="s">
         <v>90</v>
@@ -5652,10 +5655,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B350" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C350" t="s">
         <v>427</v>
@@ -5663,10 +5666,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B351" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B352" t="s">
         <v>55</v>
@@ -5685,10 +5688,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B353" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5696,10 +5699,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B354" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5707,10 +5710,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B355" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C355" t="s">
         <v>432</v>
@@ -5718,10 +5721,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B356" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C356" t="s">
         <v>433</v>
@@ -5729,10 +5732,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B357" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C357" t="s">
         <v>434</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B358" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C358" t="s">
         <v>435</v>
@@ -5751,10 +5754,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B359" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C359" t="s">
         <v>436</v>
@@ -5762,10 +5765,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B360" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C360" t="s">
         <v>437</v>
@@ -5773,10 +5776,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B361" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5784,10 +5787,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B362" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -5795,10 +5798,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B363" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C363" t="s">
         <v>440</v>
@@ -5806,10 +5809,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B364" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C364" t="s">
         <v>441</v>
@@ -5817,10 +5820,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B365" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C365" t="s">
         <v>442</v>
@@ -5828,7 +5831,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B366" t="s">
         <v>93</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B367" t="s">
         <v>93</v>
@@ -5850,7 +5853,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B368" t="s">
         <v>93</v>
@@ -5861,7 +5864,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B369" t="s">
         <v>93</v>
@@ -5872,10 +5875,10 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B370" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C370" t="s">
         <v>447</v>
@@ -5883,10 +5886,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B371" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5894,10 +5897,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B372" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5905,10 +5908,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B373" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5916,10 +5919,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B374" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C374" t="s">
         <v>451</v>
@@ -5927,10 +5930,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B375" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C375" t="s">
         <v>452</v>
@@ -5938,10 +5941,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B376" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C376" t="s">
         <v>453</v>
@@ -5949,10 +5952,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B377" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C377" t="s">
         <v>454</v>
@@ -5960,10 +5963,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B378" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C378" t="s">
         <v>455</v>
@@ -5971,10 +5974,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B379" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C379" t="s">
         <v>456</v>
@@ -5982,10 +5985,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B380" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C380" t="s">
         <v>457</v>
@@ -5993,10 +5996,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B381" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C381" t="s">
         <v>458</v>
@@ -6004,10 +6007,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C382" t="s">
         <v>459</v>
@@ -6015,10 +6018,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B383" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C383" t="s">
         <v>460</v>
@@ -6032,15 +6035,15 @@
         <v>79</v>
       </c>
       <c r="C384" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B385" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C385" t="s">
         <v>461</v>
@@ -6048,10 +6051,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B386" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C386" t="s">
         <v>462</v>
@@ -6059,10 +6062,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B387" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C387" t="s">
         <v>463</v>
@@ -6070,10 +6073,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B388" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C388" t="s">
         <v>464</v>
@@ -6081,10 +6084,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B389" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C389" t="s">
         <v>465</v>
@@ -6092,10 +6095,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B390" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C390" t="s">
         <v>466</v>
@@ -6103,10 +6106,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B391" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C391" t="s">
         <v>467</v>
@@ -6114,10 +6117,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B392" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C392" t="s">
         <v>468</v>
@@ -6125,7 +6128,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B393" t="s">
         <v>93</v>
@@ -6136,7 +6139,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B394" t="s">
         <v>93</v>
@@ -6147,10 +6150,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C395" t="s">
         <v>471</v>
@@ -6158,10 +6161,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C396" t="s">
         <v>472</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B397" t="s">
         <v>93</v>
@@ -6180,10 +6183,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B398" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C398" t="s">
         <v>474</v>
@@ -6191,10 +6194,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B399" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C399" t="s">
         <v>475</v>
@@ -6202,7 +6205,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B400" t="s">
         <v>93</v>
@@ -6213,13 +6216,24 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B401" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C401" t="s">
         <v>477</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>39</v>
+      </c>
+      <c r="B402" t="s">
+        <v>79</v>
+      </c>
+      <c r="C402" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="481">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Corrupted Chunks</t>
+  </si>
+  <si>
+    <t>Hidden In Channel</t>
+  </si>
+  <si>
     <t>Mysterious</t>
   </si>
   <si>
@@ -160,12 +166,6 @@
     <t>Canvaker</t>
   </si>
   <si>
-    <t>Hidden In Channel</t>
-  </si>
-  <si>
-    <t>Corrupted Chunks</t>
-  </si>
-  <si>
     <t>Romagnol Prometheus</t>
   </si>
   <si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 5:27 a.m.</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 3:04 a.m.</t>
   </si>
   <si>
     <t>June 22, 2025, 2:41 a.m.</t>
@@ -1808,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2003,10 +2009,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
         <v>113</v>
@@ -2014,10 +2020,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>114</v>
@@ -2025,10 +2031,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>115</v>
@@ -2039,7 +2045,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>116</v>
@@ -2116,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>123</v>
@@ -2127,7 +2133,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>124</v>
@@ -2135,7 +2141,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -2157,10 +2163,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>127</v>
@@ -2171,7 +2177,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>128</v>
@@ -2182,7 +2188,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
@@ -2190,10 +2196,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>130</v>
@@ -2201,10 +2207,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -2226,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -2234,10 +2240,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
@@ -2245,10 +2251,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>135</v>
@@ -2256,10 +2262,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
@@ -2267,10 +2273,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>137</v>
@@ -2289,10 +2295,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>139</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>56</v>
@@ -2311,7 +2317,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
@@ -2333,7 +2339,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -2344,7 +2350,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -2355,10 +2361,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>145</v>
@@ -2366,10 +2372,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>146</v>
@@ -2377,10 +2383,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
         <v>147</v>
@@ -2388,32 +2394,32 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
@@ -2421,10 +2427,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>150</v>
@@ -2435,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>151</v>
@@ -2443,10 +2449,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>152</v>
@@ -2454,10 +2460,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>153</v>
@@ -2465,10 +2471,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>154</v>
@@ -2476,10 +2482,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>155</v>
@@ -2487,10 +2493,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>156</v>
@@ -2498,10 +2504,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>157</v>
@@ -2509,7 +2515,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -2537,26 +2543,26 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
         <v>161</v>
@@ -2564,10 +2570,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
         <v>162</v>
@@ -2575,10 +2581,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
         <v>163</v>
@@ -2586,10 +2592,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>164</v>
@@ -2597,10 +2603,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
         <v>165</v>
@@ -2608,10 +2614,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
         <v>166</v>
@@ -2619,10 +2625,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
         <v>167</v>
@@ -2630,13 +2636,13 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2644,29 +2650,29 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
@@ -2674,10 +2680,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
@@ -2685,10 +2691,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>171</v>
@@ -2696,10 +2702,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
         <v>172</v>
@@ -2707,10 +2713,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
         <v>173</v>
@@ -2718,10 +2724,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
         <v>174</v>
@@ -2729,43 +2735,43 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2773,10 +2779,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
         <v>177</v>
@@ -2784,10 +2790,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
         <v>178</v>
@@ -2795,10 +2801,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C90" t="s">
         <v>179</v>
@@ -2806,10 +2812,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
@@ -2817,10 +2823,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s">
         <v>181</v>
@@ -2828,10 +2834,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
         <v>182</v>
@@ -2839,10 +2845,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
         <v>183</v>
@@ -2850,10 +2856,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
         <v>184</v>
@@ -2861,10 +2867,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
         <v>185</v>
@@ -2872,10 +2878,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
         <v>186</v>
@@ -2883,7 +2889,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
         <v>76</v>
@@ -2894,10 +2900,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
         <v>188</v>
@@ -2905,10 +2911,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2916,10 +2922,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
         <v>190</v>
@@ -2927,7 +2933,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s">
         <v>77</v>
@@ -2938,10 +2944,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
         <v>192</v>
@@ -2949,10 +2955,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
         <v>193</v>
@@ -2960,10 +2966,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
         <v>194</v>
@@ -2971,10 +2977,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
         <v>195</v>
@@ -2982,10 +2988,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
         <v>196</v>
@@ -2993,7 +2999,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
         <v>76</v>
@@ -3004,7 +3010,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
@@ -3015,7 +3021,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
         <v>76</v>
@@ -3026,10 +3032,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
         <v>200</v>
@@ -3037,10 +3043,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
         <v>201</v>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
         <v>78</v>
@@ -3059,7 +3065,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
         <v>78</v>
@@ -3070,10 +3076,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
         <v>204</v>
@@ -3081,7 +3087,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
         <v>78</v>
@@ -3092,10 +3098,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -3103,10 +3109,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" t="s">
         <v>207</v>
@@ -3114,10 +3120,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
         <v>208</v>
@@ -3125,10 +3131,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C120" t="s">
         <v>209</v>
@@ -3136,10 +3142,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
         <v>210</v>
@@ -3147,10 +3153,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C122" t="s">
         <v>211</v>
@@ -3158,10 +3164,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B123" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>212</v>
@@ -3169,10 +3175,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
         <v>213</v>
@@ -3180,10 +3186,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
         <v>214</v>
@@ -3191,10 +3197,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C126" t="s">
         <v>215</v>
@@ -3202,7 +3208,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
         <v>74</v>
@@ -3213,10 +3219,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
         <v>217</v>
@@ -3224,10 +3230,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
         <v>218</v>
@@ -3235,7 +3241,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B130" t="s">
         <v>58</v>
@@ -3246,10 +3252,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C131" t="s">
         <v>220</v>
@@ -3257,32 +3263,32 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B132" t="s">
         <v>58</v>
       </c>
       <c r="C132" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
         <v>74</v>
       </c>
       <c r="C133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C134" t="s">
         <v>222</v>
@@ -3290,7 +3296,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B135" t="s">
         <v>74</v>
@@ -3301,7 +3307,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B136" t="s">
         <v>74</v>
@@ -3312,10 +3318,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C137" t="s">
         <v>225</v>
@@ -3323,10 +3329,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C138" t="s">
         <v>226</v>
@@ -3334,54 +3340,54 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B141" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C143" t="s">
         <v>229</v>
@@ -3389,10 +3395,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C144" t="s">
         <v>230</v>
@@ -3400,10 +3406,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
         <v>231</v>
@@ -3411,10 +3417,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C146" t="s">
         <v>232</v>
@@ -3422,32 +3428,32 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B149" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C149" t="s">
         <v>234</v>
@@ -3455,10 +3461,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C150" t="s">
         <v>235</v>
@@ -3466,32 +3472,32 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B152" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C153" t="s">
         <v>237</v>
@@ -3499,10 +3505,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C154" t="s">
         <v>238</v>
@@ -3510,10 +3516,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B155" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C155" t="s">
         <v>239</v>
@@ -3521,10 +3527,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C156" t="s">
         <v>240</v>
@@ -3532,10 +3538,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C157" t="s">
         <v>241</v>
@@ -3543,10 +3549,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
         <v>242</v>
@@ -3554,32 +3560,32 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C159" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C161" t="s">
         <v>244</v>
@@ -3587,10 +3593,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C162" t="s">
         <v>245</v>
@@ -3598,7 +3604,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B163" t="s">
         <v>63</v>
@@ -3609,10 +3615,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C164" t="s">
         <v>247</v>
@@ -3620,10 +3626,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B165" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C165" t="s">
         <v>248</v>
@@ -3631,10 +3637,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C166" t="s">
         <v>249</v>
@@ -3642,10 +3648,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C167" t="s">
         <v>250</v>
@@ -3653,10 +3659,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C168" t="s">
         <v>251</v>
@@ -3664,10 +3670,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C169" t="s">
         <v>252</v>
@@ -3675,10 +3681,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B170" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C170" t="s">
         <v>253</v>
@@ -3686,10 +3692,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C171" t="s">
         <v>254</v>
@@ -3697,10 +3703,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C172" t="s">
         <v>255</v>
@@ -3708,10 +3714,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C173" t="s">
         <v>256</v>
@@ -3719,43 +3725,43 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B174" t="s">
         <v>59</v>
       </c>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B175" t="s">
         <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>59</v>
       </c>
       <c r="C176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B177" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
         <v>258</v>
@@ -3763,10 +3769,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B178" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C178" t="s">
         <v>259</v>
@@ -3774,10 +3780,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C179" t="s">
         <v>260</v>
@@ -3785,7 +3791,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B180" t="s">
         <v>76</v>
@@ -3796,10 +3802,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B181" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C181" t="s">
         <v>262</v>
@@ -3807,10 +3813,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C182" t="s">
         <v>263</v>
@@ -3818,10 +3824,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C183" t="s">
         <v>264</v>
@@ -3829,7 +3835,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B184" t="s">
         <v>58</v>
@@ -3840,10 +3846,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B185" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C185" t="s">
         <v>266</v>
@@ -3851,10 +3857,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B186" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
         <v>267</v>
@@ -3862,10 +3868,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C187" t="s">
         <v>268</v>
@@ -3873,10 +3879,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C188" t="s">
         <v>269</v>
@@ -3884,7 +3890,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
@@ -3895,7 +3901,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
         <v>59</v>
@@ -3906,32 +3912,32 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>59</v>
       </c>
       <c r="C191" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B192" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C192" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C193" t="s">
         <v>273</v>
@@ -3939,10 +3945,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C194" t="s">
         <v>274</v>
@@ -3950,10 +3956,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C195" t="s">
         <v>275</v>
@@ -3961,10 +3967,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C196" t="s">
         <v>276</v>
@@ -3972,10 +3978,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C197" t="s">
         <v>277</v>
@@ -3983,10 +3989,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -3994,10 +4000,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C199" t="s">
         <v>279</v>
@@ -4005,7 +4011,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B200" t="s">
         <v>57</v>
@@ -4016,10 +4022,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C201" t="s">
         <v>281</v>
@@ -4027,10 +4033,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C202" t="s">
         <v>282</v>
@@ -4038,10 +4044,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C203" t="s">
         <v>283</v>
@@ -4049,10 +4055,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C204" t="s">
         <v>284</v>
@@ -4060,10 +4066,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B205" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C205" t="s">
         <v>285</v>
@@ -4071,10 +4077,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B206" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C206" t="s">
         <v>286</v>
@@ -4082,10 +4088,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B207" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C207" t="s">
         <v>287</v>
@@ -4093,10 +4099,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B208" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C208" t="s">
         <v>288</v>
@@ -4104,10 +4110,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B209" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C209" t="s">
         <v>289</v>
@@ -4115,10 +4121,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B210" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C210" t="s">
         <v>290</v>
@@ -4126,10 +4132,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B211" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C211" t="s">
         <v>291</v>
@@ -4137,10 +4143,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C212" t="s">
         <v>292</v>
@@ -4148,10 +4154,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B213" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C213" t="s">
         <v>293</v>
@@ -4159,10 +4165,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B214" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C214" t="s">
         <v>294</v>
@@ -4170,10 +4176,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B215" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C215" t="s">
         <v>295</v>
@@ -4181,10 +4187,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C216" t="s">
         <v>296</v>
@@ -4192,10 +4198,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B217" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C217" t="s">
         <v>297</v>
@@ -4203,10 +4209,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C218" t="s">
         <v>298</v>
@@ -4214,10 +4220,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C219" t="s">
         <v>299</v>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B220" t="s">
         <v>91</v>
@@ -4236,10 +4242,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B221" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C221" t="s">
         <v>301</v>
@@ -4247,10 +4253,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B222" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C222" t="s">
         <v>302</v>
@@ -4258,10 +4264,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B223" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C223" t="s">
         <v>303</v>
@@ -4272,7 +4278,7 @@
         <v>45</v>
       </c>
       <c r="B224" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C224" t="s">
         <v>304</v>
@@ -4280,10 +4286,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B225" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C225" t="s">
         <v>305</v>
@@ -4291,10 +4297,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B226" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C226" t="s">
         <v>306</v>
@@ -4305,7 +4311,7 @@
         <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C227" t="s">
         <v>307</v>
@@ -4313,10 +4319,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B228" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C228" t="s">
         <v>308</v>
@@ -4324,10 +4330,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B229" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C229" t="s">
         <v>309</v>
@@ -4335,10 +4341,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B230" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C230" t="s">
         <v>310</v>
@@ -4346,10 +4352,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C231" t="s">
         <v>311</v>
@@ -4357,10 +4363,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B232" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C232" t="s">
         <v>312</v>
@@ -4368,10 +4374,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B233" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C233" t="s">
         <v>313</v>
@@ -4379,10 +4385,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C234" t="s">
         <v>314</v>
@@ -4390,10 +4396,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C235" t="s">
         <v>315</v>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B236" t="s">
         <v>80</v>
@@ -4412,10 +4418,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B237" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C237" t="s">
         <v>317</v>
@@ -4423,10 +4429,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B238" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C238" t="s">
         <v>318</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B239" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C239" t="s">
         <v>319</v>
@@ -4445,7 +4451,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B240" t="s">
         <v>55</v>
@@ -4456,10 +4462,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C241" t="s">
         <v>321</v>
@@ -4467,10 +4473,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B242" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C242" t="s">
         <v>322</v>
@@ -4478,10 +4484,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -4489,10 +4495,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B244" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C244" t="s">
         <v>324</v>
@@ -4500,10 +4506,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B245" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C245" t="s">
         <v>325</v>
@@ -4511,10 +4517,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B246" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C246" t="s">
         <v>326</v>
@@ -4522,10 +4528,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C247" t="s">
         <v>327</v>
@@ -4533,10 +4539,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C248" t="s">
         <v>328</v>
@@ -4544,7 +4550,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B249" t="s">
         <v>56</v>
@@ -4555,10 +4561,10 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B250" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C250" t="s">
         <v>330</v>
@@ -4566,10 +4572,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B251" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C251" t="s">
         <v>331</v>
@@ -4577,10 +4583,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B252" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C252" t="s">
         <v>332</v>
@@ -4588,10 +4594,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C253" t="s">
         <v>333</v>
@@ -4599,7 +4605,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254" t="s">
         <v>80</v>
@@ -4610,10 +4616,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B255" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C255" t="s">
         <v>335</v>
@@ -4621,10 +4627,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B256" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C256" t="s">
         <v>336</v>
@@ -4632,7 +4638,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B257" t="s">
         <v>89</v>
@@ -4643,10 +4649,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B258" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C258" t="s">
         <v>338</v>
@@ -4654,10 +4660,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B259" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C259" t="s">
         <v>339</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B260" t="s">
         <v>80</v>
@@ -4676,7 +4682,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B261" t="s">
         <v>80</v>
@@ -4687,10 +4693,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B262" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C262" t="s">
         <v>342</v>
@@ -4698,10 +4704,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B263" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C263" t="s">
         <v>343</v>
@@ -4709,7 +4715,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B264" t="s">
         <v>93</v>
@@ -4720,10 +4726,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B265" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C265" t="s">
         <v>345</v>
@@ -4731,10 +4737,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C266" t="s">
         <v>346</v>
@@ -4742,10 +4748,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B267" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C267" t="s">
         <v>347</v>
@@ -4753,10 +4759,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B268" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C268" t="s">
         <v>348</v>
@@ -4764,10 +4770,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C269" t="s">
         <v>349</v>
@@ -4775,10 +4781,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B270" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C270" t="s">
         <v>350</v>
@@ -4786,10 +4792,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C271" t="s">
         <v>351</v>
@@ -4797,7 +4803,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B272" t="s">
         <v>89</v>
@@ -4808,10 +4814,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B273" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C273" t="s">
         <v>353</v>
@@ -4819,7 +4825,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B274" t="s">
         <v>89</v>
@@ -4830,10 +4836,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -4841,10 +4847,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -4855,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="B277" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C277" t="s">
         <v>357</v>
@@ -4863,7 +4869,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B278" t="s">
         <v>79</v>
@@ -4874,10 +4880,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B279" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C279" t="s">
         <v>359</v>
@@ -4885,10 +4891,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B280" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C280" t="s">
         <v>360</v>
@@ -4896,10 +4902,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B281" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -4907,10 +4913,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B282" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -4918,10 +4924,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B283" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C283" t="s">
         <v>363</v>
@@ -4929,10 +4935,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C284" t="s">
         <v>364</v>
@@ -4940,10 +4946,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B285" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C285" t="s">
         <v>365</v>
@@ -4951,7 +4957,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B286" t="s">
         <v>89</v>
@@ -4962,10 +4968,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C287" t="s">
         <v>367</v>
@@ -4973,10 +4979,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B288" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C288" t="s">
         <v>368</v>
@@ -4984,10 +4990,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B289" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C289" t="s">
         <v>369</v>
@@ -4995,10 +5001,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B290" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C290" t="s">
         <v>370</v>
@@ -5006,10 +5012,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B291" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C291" t="s">
         <v>371</v>
@@ -5017,10 +5023,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B292" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C292" t="s">
         <v>372</v>
@@ -5031,7 +5037,7 @@
         <v>31</v>
       </c>
       <c r="B293" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C293" t="s">
         <v>373</v>
@@ -5039,10 +5045,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B294" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C294" t="s">
         <v>374</v>
@@ -5050,10 +5056,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B295" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C295" t="s">
         <v>375</v>
@@ -5061,10 +5067,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B296" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C296" t="s">
         <v>376</v>
@@ -5072,32 +5078,32 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B297" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C297" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B298" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C298" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B299" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C299" t="s">
         <v>378</v>
@@ -5105,10 +5111,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B300" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C300" t="s">
         <v>379</v>
@@ -5116,10 +5122,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B301" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C301" t="s">
         <v>380</v>
@@ -5127,10 +5133,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B302" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C302" t="s">
         <v>381</v>
@@ -5138,10 +5144,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B303" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C303" t="s">
         <v>382</v>
@@ -5149,7 +5155,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B304" t="s">
         <v>95</v>
@@ -5160,10 +5166,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C305" t="s">
         <v>384</v>
@@ -5171,10 +5177,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B306" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C306" t="s">
         <v>385</v>
@@ -5182,10 +5188,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C307" t="s">
         <v>386</v>
@@ -5193,10 +5199,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C308" t="s">
         <v>387</v>
@@ -5204,10 +5210,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B309" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C309" t="s">
         <v>388</v>
@@ -5226,10 +5232,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B311" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C311" t="s">
         <v>390</v>
@@ -5237,10 +5243,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B312" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C312" t="s">
         <v>391</v>
@@ -5248,10 +5254,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B313" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C313" t="s">
         <v>392</v>
@@ -5259,10 +5265,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B314" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C314" t="s">
         <v>393</v>
@@ -5270,10 +5276,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C315" t="s">
         <v>394</v>
@@ -5281,10 +5287,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C316" t="s">
         <v>395</v>
@@ -5292,10 +5298,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C317" t="s">
         <v>396</v>
@@ -5303,10 +5309,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C318" t="s">
         <v>397</v>
@@ -5314,10 +5320,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B319" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C319" t="s">
         <v>398</v>
@@ -5325,10 +5331,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C320" t="s">
         <v>399</v>
@@ -5336,10 +5342,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C321" t="s">
         <v>400</v>
@@ -5347,10 +5353,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C322" t="s">
         <v>401</v>
@@ -5358,10 +5364,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C323" t="s">
         <v>402</v>
@@ -5369,10 +5375,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C324" t="s">
         <v>403</v>
@@ -5380,10 +5386,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C325" t="s">
         <v>404</v>
@@ -5391,10 +5397,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B326" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C326" t="s">
         <v>405</v>
@@ -5402,10 +5408,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B327" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C327" t="s">
         <v>406</v>
@@ -5413,32 +5419,32 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C328" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C329" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C330" t="s">
         <v>408</v>
@@ -5446,10 +5452,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B331" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C331" t="s">
         <v>409</v>
@@ -5457,10 +5463,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B332" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C332" t="s">
         <v>410</v>
@@ -5468,10 +5474,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C333" t="s">
         <v>411</v>
@@ -5479,10 +5485,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B334" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C334" t="s">
         <v>412</v>
@@ -5490,10 +5496,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C335" t="s">
         <v>413</v>
@@ -5501,10 +5507,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C336" t="s">
         <v>414</v>
@@ -5512,7 +5518,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
         <v>93</v>
@@ -5523,10 +5529,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C338" t="s">
         <v>416</v>
@@ -5534,10 +5540,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C339" t="s">
         <v>417</v>
@@ -5545,32 +5551,32 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C340" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B341" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C341" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B342" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C342" t="s">
         <v>419</v>
@@ -5578,10 +5584,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B343" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C343" t="s">
         <v>420</v>
@@ -5589,10 +5595,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C344" t="s">
         <v>421</v>
@@ -5600,10 +5606,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C345" t="s">
         <v>422</v>
@@ -5611,10 +5617,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B346" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C346" t="s">
         <v>423</v>
@@ -5622,10 +5628,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B347" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C347" t="s">
         <v>424</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B348" t="s">
         <v>90</v>
@@ -5644,10 +5650,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B349" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C349" t="s">
         <v>426</v>
@@ -5655,7 +5661,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B350" t="s">
         <v>90</v>
@@ -5666,10 +5672,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B351" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C351" t="s">
         <v>428</v>
@@ -5677,10 +5683,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B352" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C352" t="s">
         <v>429</v>
@@ -5688,10 +5694,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B353" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C353" t="s">
         <v>430</v>
@@ -5699,10 +5705,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B354" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C354" t="s">
         <v>431</v>
@@ -5710,10 +5716,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B355" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C355" t="s">
         <v>432</v>
@@ -5721,10 +5727,10 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B356" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C356" t="s">
         <v>433</v>
@@ -5732,10 +5738,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B357" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C357" t="s">
         <v>434</v>
@@ -5743,10 +5749,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B358" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C358" t="s">
         <v>435</v>
@@ -5754,10 +5760,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B359" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C359" t="s">
         <v>436</v>
@@ -5765,10 +5771,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B360" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C360" t="s">
         <v>437</v>
@@ -5776,10 +5782,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B361" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C361" t="s">
         <v>438</v>
@@ -5787,10 +5793,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B362" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C362" t="s">
         <v>439</v>
@@ -5798,10 +5804,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B363" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C363" t="s">
         <v>440</v>
@@ -5809,10 +5815,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B364" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C364" t="s">
         <v>441</v>
@@ -5820,10 +5826,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B365" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C365" t="s">
         <v>442</v>
@@ -5831,10 +5837,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B366" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C366" t="s">
         <v>443</v>
@@ -5842,10 +5848,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B367" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C367" t="s">
         <v>444</v>
@@ -5853,7 +5859,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B368" t="s">
         <v>93</v>
@@ -5864,7 +5870,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B369" t="s">
         <v>93</v>
@@ -5875,7 +5881,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B370" t="s">
         <v>93</v>
@@ -5886,10 +5892,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B371" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C371" t="s">
         <v>448</v>
@@ -5897,10 +5903,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C372" t="s">
         <v>449</v>
@@ -5908,10 +5914,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B373" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C373" t="s">
         <v>450</v>
@@ -5919,10 +5925,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B374" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C374" t="s">
         <v>451</v>
@@ -5930,10 +5936,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B375" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C375" t="s">
         <v>452</v>
@@ -5941,10 +5947,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B376" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C376" t="s">
         <v>453</v>
@@ -5952,10 +5958,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B377" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C377" t="s">
         <v>454</v>
@@ -5963,10 +5969,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C378" t="s">
         <v>455</v>
@@ -5974,10 +5980,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B379" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C379" t="s">
         <v>456</v>
@@ -5985,10 +5991,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B380" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C380" t="s">
         <v>457</v>
@@ -5996,10 +6002,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B381" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C381" t="s">
         <v>458</v>
@@ -6007,10 +6013,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B382" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C382" t="s">
         <v>459</v>
@@ -6018,7 +6024,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B383" t="s">
         <v>93</v>
@@ -6029,10 +6035,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B384" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C384" t="s">
         <v>461</v>
@@ -6040,29 +6046,29 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B385" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C385" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B386" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C386" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B387" t="s">
         <v>79</v>
@@ -6073,10 +6079,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B388" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C388" t="s">
         <v>464</v>
@@ -6084,10 +6090,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B389" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C389" t="s">
         <v>465</v>
@@ -6095,7 +6101,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B390" t="s">
         <v>93</v>
@@ -6106,10 +6112,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B391" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C391" t="s">
         <v>467</v>
@@ -6117,10 +6123,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B392" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C392" t="s">
         <v>468</v>
@@ -6128,10 +6134,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B393" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C393" t="s">
         <v>469</v>
@@ -6139,10 +6145,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B394" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C394" t="s">
         <v>470</v>
@@ -6150,7 +6156,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B395" t="s">
         <v>93</v>
@@ -6161,10 +6167,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B396" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C396" t="s">
         <v>472</v>
@@ -6172,7 +6178,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B397" t="s">
         <v>93</v>
@@ -6183,10 +6189,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B398" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C398" t="s">
         <v>474</v>
@@ -6194,10 +6200,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B399" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C399" t="s">
         <v>475</v>
@@ -6205,7 +6211,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B400" t="s">
         <v>93</v>
@@ -6216,10 +6222,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B401" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C401" t="s">
         <v>477</v>
@@ -6227,13 +6233,35 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B402" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C402" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>41</v>
+      </c>
+      <c r="B403" t="s">
+        <v>93</v>
+      </c>
+      <c r="C403" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>41</v>
+      </c>
+      <c r="B404" t="s">
+        <v>79</v>
+      </c>
+      <c r="C404" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="481">
   <si>
     <t>Challenge</t>
   </si>
@@ -23,6 +23,1440 @@
   </si>
   <si>
     <t>Solved time</t>
+  </si>
+  <si>
+    <t>Corrupted Chunks</t>
+  </si>
+  <si>
+    <t>Hidden In Channel</t>
+  </si>
+  <si>
+    <t>Mysterious</t>
+  </si>
+  <si>
+    <t>Keygen</t>
+  </si>
+  <si>
+    <t>GuessMe</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Crack Me 1</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>Google Docs</t>
+  </si>
+  <si>
+    <t>Tap Tap</t>
+  </si>
+  <si>
+    <t>Spy Secrets</t>
+  </si>
+  <si>
+    <t>Substitute</t>
+  </si>
+  <si>
+    <t>Unknown Cipher</t>
+  </si>
+  <si>
+    <t>First XOR</t>
+  </si>
+  <si>
+    <t>Shared Project</t>
+  </si>
+  <si>
+    <t>The Fragmented Truth</t>
+  </si>
+  <si>
+    <t>Find My Pin</t>
+  </si>
+  <si>
+    <t>Phantom Pings</t>
+  </si>
+  <si>
+    <t>Keyboark Junks</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Suna Saili</t>
+  </si>
+  <si>
+    <t>Eric Zimmerman</t>
+  </si>
+  <si>
+    <t>Obfuscation Station</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Steg</t>
+  </si>
+  <si>
+    <t>Packet Whisper</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>Basecally a flag</t>
+  </si>
+  <si>
+    <t>Duty Calls</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Stylish</t>
+  </si>
+  <si>
+    <t>Dude where is my car</t>
+  </si>
+  <si>
+    <t>Javascript Puzzle</t>
+  </si>
+  <si>
+    <t>Guestbook</t>
+  </si>
+  <si>
+    <t>Somewhere in Space</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Commitment Issue</t>
+  </si>
+  <si>
+    <t>Final Destination</t>
+  </si>
+  <si>
+    <t>CPU Binding</t>
+  </si>
+  <si>
+    <t>Rotate your point of view</t>
+  </si>
+  <si>
+    <t>Privilege Escalation 1</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Wordplay</t>
+  </si>
+  <si>
+    <t>Plain Sight</t>
+  </si>
+  <si>
+    <t>JWT Admin Elevation</t>
+  </si>
+  <si>
+    <t>Greeting</t>
+  </si>
+  <si>
+    <t>Canvaker</t>
+  </si>
+  <si>
+    <t>Romagnol Prometheus</t>
+  </si>
+  <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
+    <t>Clay69</t>
+  </si>
+  <si>
+    <t>Oju D. Amatya</t>
+  </si>
+  <si>
+    <t>kinachaiyo</t>
+  </si>
+  <si>
+    <t>Nargiza Maharjan</t>
+  </si>
+  <si>
+    <t>luffy</t>
+  </si>
+  <si>
+    <t>$sudo</t>
+  </si>
+  <si>
+    <t>thatguysbroke</t>
+  </si>
+  <si>
+    <t>GUTS</t>
+  </si>
+  <si>
+    <t>Mandip</t>
+  </si>
+  <si>
+    <t>Anmuu</t>
+  </si>
+  <si>
+    <t>ahlai:3</t>
+  </si>
+  <si>
+    <t>Yugal</t>
+  </si>
+  <si>
+    <t>SAKUNA</t>
+  </si>
+  <si>
+    <t>Ansees</t>
+  </si>
+  <si>
+    <t>Adhyan Tamang</t>
+  </si>
+  <si>
+    <t>Only Aayush</t>
+  </si>
+  <si>
+    <t>Hexaxe</t>
+  </si>
+  <si>
+    <t>Shrawan1234</t>
+  </si>
+  <si>
+    <t>༒𝙰sʜᴡɪɴ༒</t>
+  </si>
+  <si>
+    <t>celebbbb</t>
+  </si>
+  <si>
+    <t>Dhiru Piru</t>
+  </si>
+  <si>
+    <t>golbeda</t>
+  </si>
+  <si>
+    <t>Iconic_Whisper</t>
+  </si>
+  <si>
+    <t>aayush</t>
+  </si>
+  <si>
+    <t>Yodha</t>
+  </si>
+  <si>
+    <t>kharayo1x</t>
+  </si>
+  <si>
+    <t>p0tato</t>
+  </si>
+  <si>
+    <t>hello_you0</t>
+  </si>
+  <si>
+    <t>Cosmic</t>
+  </si>
+  <si>
+    <t>Tyrant</t>
+  </si>
+  <si>
+    <t>X-night</t>
+  </si>
+  <si>
+    <t>LUCKY_MJ_36457</t>
+  </si>
+  <si>
+    <t>wigglewiggle</t>
+  </si>
+  <si>
+    <t>प्रणय</t>
+  </si>
+  <si>
+    <t>MoonLight</t>
+  </si>
+  <si>
+    <t>MrBender</t>
+  </si>
+  <si>
+    <t>Shrenav</t>
+  </si>
+  <si>
+    <t>MauLana Rhoades</t>
+  </si>
+  <si>
+    <t>Abyss_Walker</t>
+  </si>
+  <si>
+    <t>DargoTamber</t>
+  </si>
+  <si>
+    <t>404Ninjaaa</t>
+  </si>
+  <si>
+    <t>10y</t>
+  </si>
+  <si>
+    <t>krazy</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 5:27 a.m.</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 3:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 2:41 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 6:11 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:44 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:19 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:13 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 2:34 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 2:16 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 1:57 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 12:55 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 12:12 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 11:17 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 10:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 8:08 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 3:58 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 2:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 2:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 1:44 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 10:53 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 10:32 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 7:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 5:45 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 5:08 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 3:07 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 2:11 a.m.</t>
+  </si>
+  <si>
+    <t>June 17, 2025, 5:10 a.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2025, 10:55 a.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2025, 10:37 a.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>June 11, 2025, 4:42 a.m.</t>
+  </si>
+  <si>
+    <t>June 10, 2025, 2:40 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 3:27 p.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 12:42 p.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 11:17 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 11:09 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 10:20 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 9:59 a.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 6:57 p.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 1:20 p.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 1:19 p.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>June 7, 2025, 6:01 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 2:31 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 2:13 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 1:02 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 12:29 p.m.</t>
+  </si>
+  <si>
+    <t>June 5, 2025, 3:45 p.m.</t>
+  </si>
+  <si>
+    <t>June 5, 2025, 2:53 p.m.</t>
+  </si>
+  <si>
+    <t>June 5, 2025, 9:29 a.m.</t>
+  </si>
+  <si>
+    <t>June 4, 2025, 6:42 p.m.</t>
+  </si>
+  <si>
+    <t>June 4, 2025, 6:41 p.m.</t>
+  </si>
+  <si>
+    <t>June 3, 2025, 4:34 a.m.</t>
+  </si>
+  <si>
+    <t>June 1, 2025, 2:20 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 7:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 11:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 7:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 3:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 2:52 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:09 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:08 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:07 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 3:27 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 2:17 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 2:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 9:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 8:22 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 8:11 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 8:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:55 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:48 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:47 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:40 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:39 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:08 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 6:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 5:52 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 5:37 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 5:16 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 3:59 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 3:46 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:15 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:01 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 9:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 8:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 8:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 7:39 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 7:25 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:11 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 9:45 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 8:56 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 7:43 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 6:44 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 6:21 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:15 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:08 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:21 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:05 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 3:41 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 2:25 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 2:09 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:53 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:33 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:21 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 12:05 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, noon</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11:28 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:48 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:36 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:29 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 9:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 8:51 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 7:09 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:47 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:44 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:35 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:22 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:16 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:10 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:04 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:44 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:40 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:34 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:31 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:29 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:28 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 3:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 3:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 2:55 a.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:49 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:47 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:26 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:07 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:02 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:52 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:49 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:38 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:19 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:06 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 4:23 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 4:16 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:34 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:33 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:32 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:31 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 4:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 2:29 a.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 1:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 3:34 p.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 4:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 4:21 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 3:11 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 3:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 25, 2025, 3:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 24, 2025, 1:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 10:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 4:35 a.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 2:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 1:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 2:37 p.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 2:32 p.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 6:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 5:36 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 5:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:47 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:08 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 1:21 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 2:27 p.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 2:03 p.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 10:19 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 10:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 9:58 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 5:13 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 5:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 5 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 3:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 2:06 a.m.</t>
+  </si>
+  <si>
+    <t>May 19, 2025, 6:38 p.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 5:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 4:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 4:37 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 2:34 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 2:33 a.m.</t>
+  </si>
+  <si>
+    <t>May 16, 2025, 3:17 a.m.</t>
+  </si>
+  <si>
+    <t>May 16, 2025, 2:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 12:40 p.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 12:15 p.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 4:56 a.m.</t>
+  </si>
+  <si>
+    <t>May 14, 2025, 2:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 14, 2025, 2:31 a.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 4:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 4:12 p.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 3:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 3:09 a.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 2:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 11, 2025, 5:32 p.m.</t>
+  </si>
+  <si>
+    <t>May 11, 2025, 5:20 p.m.</t>
+  </si>
+  <si>
+    <t>May 11, 2025, 8:13 a.m.</t>
+  </si>
+  <si>
+    <t>May 10, 2025, 7:34 p.m.</t>
+  </si>
+  <si>
+    <t>May 10, 2025, 4:50 p.m.</t>
+  </si>
+  <si>
+    <t>May 10, 2025, 2:12 p.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 5:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 5:03 p.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 9:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 8:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 8:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 8:51 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 6:33 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:36 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:32 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:31 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:17 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:06 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 3:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 2:58 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 2:49 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:45 p.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:35 p.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:28 p.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 9 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 5:56 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 5:05 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:23 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 3:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 3:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 3:26 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 2:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 2:28 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 2:25 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 1:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 1:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 9:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 8:09 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 6:04 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 6:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 5:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:45 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:25 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 6, 2025, 7:52 a.m.</t>
+  </si>
+  <si>
+    <t>May 6, 2025, 7:20 a.m.</t>
+  </si>
+  <si>
+    <t>May 6, 2025, 4:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 2:41 p.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 6:55 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 6:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 6:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 5:49 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 5:07 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 4:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 3:05 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 2:45 a.m.</t>
+  </si>
+  <si>
+    <t>May 4, 2025, 7:45 a.m.</t>
+  </si>
+  <si>
+    <t>May 4, 2025, 1:33 a.m.</t>
+  </si>
+  <si>
+    <t>May 3, 2025, 9:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 3:38 p.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 2:06 p.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:48 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:26 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:20 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:19 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 4:32 p.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 4:23 p.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 3:41 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 3:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 2:04 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 1:37 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 1:31 a.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 2:03 p.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:55 p.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:53 p.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 2:22 a.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:21 a.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:18 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 5:55 p.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:57 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:33 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:06 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 3:48 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 3:40 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:32 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:28 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:17 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:05 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:47 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:26 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:22 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:20 a.m.</t>
+  </si>
+  <si>
+    <t>April 26, 2025, 1:49 p.m.</t>
+  </si>
+  <si>
+    <t>April 26, 2025, 1:42 p.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:40 p.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 6:49 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 6:15 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:58 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:36 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:27 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 3:56 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 3:14 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 3:12 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 2:54 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 2:44 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 5:05 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 3:57 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 2:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 2:21 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 1:52 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 1:23 a.m.</t>
+  </si>
+  <si>
+    <t>April 23, 2025, 4:48 a.m.</t>
+  </si>
+  <si>
+    <t>April 23, 2025, 4:39 a.m.</t>
+  </si>
+  <si>
+    <t>April 23, 2025, 3:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 21, 2025, 1:48 p.m.</t>
+  </si>
+  <si>
+    <t>April 19, 2025, 2:56 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:50 p.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:24 p.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:29 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:19 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:18 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:06 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:37 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:33 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 5:17 p.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 4:41 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 2:54 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 2:47 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 2:10 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 1:46 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 1:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 15, 2025, 5:18 a.m.</t>
+  </si>
+  <si>
+    <t>April 15, 2025, 2:45 a.m.</t>
+  </si>
+  <si>
+    <t>April 15, 2025, 2:40 a.m.</t>
+  </si>
+  <si>
+    <t>April 14, 2025, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>April 13, 2025, 9:14 a.m.</t>
+  </si>
+  <si>
+    <t>April 12, 2025, 4:59 p.m.</t>
+  </si>
+  <si>
+    <t>April 11, 2025, 3:52 p.m.</t>
+  </si>
+  <si>
+    <t>April 11, 2025, 12:43 p.m.</t>
+  </si>
+  <si>
+    <t>April 11, 2025, 2:13 a.m.</t>
+  </si>
+  <si>
+    <t>April 10, 2025, 7:23 p.m.</t>
   </si>
 </sst>
 </file>
@@ -380,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +1831,4439 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" t="s">
+        <v>74</v>
+      </c>
+      <c r="C127" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>42</v>
+      </c>
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>42</v>
+      </c>
+      <c r="B152" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>42</v>
+      </c>
+      <c r="B155" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
+        <v>63</v>
+      </c>
+      <c r="C159" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163" t="s">
+        <v>63</v>
+      </c>
+      <c r="C163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>85</v>
+      </c>
+      <c r="C168" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>82</v>
+      </c>
+      <c r="C169" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" t="s">
+        <v>82</v>
+      </c>
+      <c r="C170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" t="s">
+        <v>86</v>
+      </c>
+      <c r="C172" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>42</v>
+      </c>
+      <c r="B177" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>29</v>
+      </c>
+      <c r="B179" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>41</v>
+      </c>
+      <c r="B182" t="s">
+        <v>76</v>
+      </c>
+      <c r="C182" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>36</v>
+      </c>
+      <c r="B185" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" t="s">
+        <v>58</v>
+      </c>
+      <c r="C186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>87</v>
+      </c>
+      <c r="C187" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188" t="s">
+        <v>87</v>
+      </c>
+      <c r="C188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>59</v>
+      </c>
+      <c r="C191" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>36</v>
+      </c>
+      <c r="B195" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" t="s">
+        <v>51</v>
+      </c>
+      <c r="C197" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>47</v>
+      </c>
+      <c r="B199" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>47</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>31</v>
+      </c>
+      <c r="B202" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" t="s">
+        <v>88</v>
+      </c>
+      <c r="C204" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" t="s">
+        <v>90</v>
+      </c>
+      <c r="C207" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" t="s">
+        <v>80</v>
+      </c>
+      <c r="C210" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211" t="s">
+        <v>55</v>
+      </c>
+      <c r="C211" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s">
+        <v>51</v>
+      </c>
+      <c r="C212" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>45</v>
+      </c>
+      <c r="B213" t="s">
+        <v>89</v>
+      </c>
+      <c r="C213" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" t="s">
+        <v>80</v>
+      </c>
+      <c r="C214" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>35</v>
+      </c>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
+      <c r="C215" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>47</v>
+      </c>
+      <c r="B216" t="s">
+        <v>89</v>
+      </c>
+      <c r="C216" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217" t="s">
+        <v>90</v>
+      </c>
+      <c r="C217" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>48</v>
+      </c>
+      <c r="B218" t="s">
+        <v>80</v>
+      </c>
+      <c r="C218" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>48</v>
+      </c>
+      <c r="B219" t="s">
+        <v>88</v>
+      </c>
+      <c r="C219" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220" t="s">
+        <v>91</v>
+      </c>
+      <c r="C220" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" t="s">
+        <v>91</v>
+      </c>
+      <c r="C221" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B222" t="s">
+        <v>91</v>
+      </c>
+      <c r="C222" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>48</v>
+      </c>
+      <c r="B223" t="s">
+        <v>72</v>
+      </c>
+      <c r="C223" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" t="s">
+        <v>92</v>
+      </c>
+      <c r="C224" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" t="s">
+        <v>92</v>
+      </c>
+      <c r="C225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>47</v>
+      </c>
+      <c r="B226" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>43</v>
+      </c>
+      <c r="B227" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>45</v>
+      </c>
+      <c r="B228" t="s">
+        <v>80</v>
+      </c>
+      <c r="C228" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>45</v>
+      </c>
+      <c r="B229" t="s">
+        <v>72</v>
+      </c>
+      <c r="C229" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
+        <v>93</v>
+      </c>
+      <c r="C230" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>43</v>
+      </c>
+      <c r="B231" t="s">
+        <v>79</v>
+      </c>
+      <c r="C231" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>43</v>
+      </c>
+      <c r="B232" t="s">
+        <v>51</v>
+      </c>
+      <c r="C232" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>47</v>
+      </c>
+      <c r="B233" t="s">
+        <v>51</v>
+      </c>
+      <c r="C233" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>47</v>
+      </c>
+      <c r="B234" t="s">
+        <v>79</v>
+      </c>
+      <c r="C234" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>47</v>
+      </c>
+      <c r="B235" t="s">
+        <v>88</v>
+      </c>
+      <c r="C235" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>47</v>
+      </c>
+      <c r="B236" t="s">
+        <v>80</v>
+      </c>
+      <c r="C236" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>47</v>
+      </c>
+      <c r="B237" t="s">
+        <v>72</v>
+      </c>
+      <c r="C237" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>46</v>
+      </c>
+      <c r="B238" t="s">
+        <v>80</v>
+      </c>
+      <c r="C238" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>46</v>
+      </c>
+      <c r="B239" t="s">
+        <v>88</v>
+      </c>
+      <c r="C239" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>55</v>
+      </c>
+      <c r="C240" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" t="s">
+        <v>55</v>
+      </c>
+      <c r="C241" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" t="s">
+        <v>55</v>
+      </c>
+      <c r="C242" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243" t="s">
+        <v>79</v>
+      </c>
+      <c r="C243" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" t="s">
+        <v>93</v>
+      </c>
+      <c r="C244" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" t="s">
+        <v>56</v>
+      </c>
+      <c r="C245" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" t="s">
+        <v>51</v>
+      </c>
+      <c r="C246" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>12</v>
+      </c>
+      <c r="B247" t="s">
+        <v>79</v>
+      </c>
+      <c r="C247" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" t="s">
+        <v>93</v>
+      </c>
+      <c r="C248" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249" t="s">
+        <v>56</v>
+      </c>
+      <c r="C249" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>41</v>
+      </c>
+      <c r="B251" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>89</v>
+      </c>
+      <c r="C252" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" t="s">
+        <v>89</v>
+      </c>
+      <c r="C253" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>38</v>
+      </c>
+      <c r="B254" t="s">
+        <v>80</v>
+      </c>
+      <c r="C254" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>31</v>
+      </c>
+      <c r="B255" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>41</v>
+      </c>
+      <c r="B256" t="s">
+        <v>80</v>
+      </c>
+      <c r="C256" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" t="s">
+        <v>89</v>
+      </c>
+      <c r="C257" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>89</v>
+      </c>
+      <c r="C259" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>33</v>
+      </c>
+      <c r="B260" t="s">
+        <v>80</v>
+      </c>
+      <c r="C260" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>31</v>
+      </c>
+      <c r="B261" t="s">
+        <v>80</v>
+      </c>
+      <c r="C261" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" t="s">
+        <v>80</v>
+      </c>
+      <c r="C262" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>80</v>
+      </c>
+      <c r="C263" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" t="s">
+        <v>93</v>
+      </c>
+      <c r="C264" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>79</v>
+      </c>
+      <c r="C265" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>93</v>
+      </c>
+      <c r="C266" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267" t="s">
+        <v>51</v>
+      </c>
+      <c r="C267" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>79</v>
+      </c>
+      <c r="C268" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>89</v>
+      </c>
+      <c r="C269" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>80</v>
+      </c>
+      <c r="C270" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" t="s">
+        <v>90</v>
+      </c>
+      <c r="C271" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B272" t="s">
+        <v>89</v>
+      </c>
+      <c r="C272" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>39</v>
+      </c>
+      <c r="B273" t="s">
+        <v>80</v>
+      </c>
+      <c r="C273" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>41</v>
+      </c>
+      <c r="B274" t="s">
+        <v>89</v>
+      </c>
+      <c r="C274" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" t="s">
+        <v>89</v>
+      </c>
+      <c r="C275" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" t="s">
+        <v>89</v>
+      </c>
+      <c r="C276" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>39</v>
+      </c>
+      <c r="B277" t="s">
+        <v>93</v>
+      </c>
+      <c r="C277" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>39</v>
+      </c>
+      <c r="B278" t="s">
+        <v>79</v>
+      </c>
+      <c r="C278" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>41</v>
+      </c>
+      <c r="B279" t="s">
+        <v>94</v>
+      </c>
+      <c r="C279" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>79</v>
+      </c>
+      <c r="C280" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>33</v>
+      </c>
+      <c r="B281" t="s">
+        <v>55</v>
+      </c>
+      <c r="C281" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>38</v>
+      </c>
+      <c r="B282" t="s">
+        <v>90</v>
+      </c>
+      <c r="C282" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>38</v>
+      </c>
+      <c r="B283" t="s">
+        <v>89</v>
+      </c>
+      <c r="C283" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>93</v>
+      </c>
+      <c r="C284" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>31</v>
+      </c>
+      <c r="B285" t="s">
+        <v>90</v>
+      </c>
+      <c r="C285" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>33</v>
+      </c>
+      <c r="B286" t="s">
+        <v>89</v>
+      </c>
+      <c r="C286" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>89</v>
+      </c>
+      <c r="C287" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>31</v>
+      </c>
+      <c r="B288" t="s">
+        <v>89</v>
+      </c>
+      <c r="C288" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>33</v>
+      </c>
+      <c r="B289" t="s">
+        <v>88</v>
+      </c>
+      <c r="C289" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>31</v>
+      </c>
+      <c r="B290" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>31</v>
+      </c>
+      <c r="B291" t="s">
+        <v>93</v>
+      </c>
+      <c r="C291" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>38</v>
+      </c>
+      <c r="B292" t="s">
+        <v>93</v>
+      </c>
+      <c r="C292" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>31</v>
+      </c>
+      <c r="B293" t="s">
+        <v>72</v>
+      </c>
+      <c r="C293" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>33</v>
+      </c>
+      <c r="B294" t="s">
+        <v>90</v>
+      </c>
+      <c r="C294" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>33</v>
+      </c>
+      <c r="B295" t="s">
+        <v>79</v>
+      </c>
+      <c r="C295" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>42</v>
+      </c>
+      <c r="B296" t="s">
+        <v>53</v>
+      </c>
+      <c r="C296" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>33</v>
+      </c>
+      <c r="B297" t="s">
+        <v>53</v>
+      </c>
+      <c r="C297" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>33</v>
+      </c>
+      <c r="B298" t="s">
+        <v>93</v>
+      </c>
+      <c r="C298" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>33</v>
+      </c>
+      <c r="B299" t="s">
+        <v>51</v>
+      </c>
+      <c r="C299" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>38</v>
+      </c>
+      <c r="B300" t="s">
+        <v>79</v>
+      </c>
+      <c r="C300" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>38</v>
+      </c>
+      <c r="B301" t="s">
+        <v>53</v>
+      </c>
+      <c r="C301" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>38</v>
+      </c>
+      <c r="B302" t="s">
+        <v>51</v>
+      </c>
+      <c r="C302" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>42</v>
+      </c>
+      <c r="B303" t="s">
+        <v>89</v>
+      </c>
+      <c r="C303" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" t="s">
+        <v>95</v>
+      </c>
+      <c r="C304" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>95</v>
+      </c>
+      <c r="C305" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>42</v>
+      </c>
+      <c r="B306" t="s">
+        <v>95</v>
+      </c>
+      <c r="C306" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" t="s">
+        <v>55</v>
+      </c>
+      <c r="C307" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308" t="s">
+        <v>93</v>
+      </c>
+      <c r="C308" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>19</v>
+      </c>
+      <c r="B309" t="s">
+        <v>93</v>
+      </c>
+      <c r="C309" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" t="s">
+        <v>55</v>
+      </c>
+      <c r="C310" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>30</v>
+      </c>
+      <c r="B311" t="s">
+        <v>51</v>
+      </c>
+      <c r="C311" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>21</v>
+      </c>
+      <c r="B312" t="s">
+        <v>55</v>
+      </c>
+      <c r="C312" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>41</v>
+      </c>
+      <c r="B313" t="s">
+        <v>95</v>
+      </c>
+      <c r="C313" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>19</v>
+      </c>
+      <c r="B314" t="s">
+        <v>53</v>
+      </c>
+      <c r="C314" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>11</v>
+      </c>
+      <c r="B315" t="s">
+        <v>53</v>
+      </c>
+      <c r="C315" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" t="s">
+        <v>72</v>
+      </c>
+      <c r="C316" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" t="s">
+        <v>93</v>
+      </c>
+      <c r="C317" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>88</v>
+      </c>
+      <c r="C318" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>21</v>
+      </c>
+      <c r="B319" t="s">
+        <v>79</v>
+      </c>
+      <c r="C319" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>79</v>
+      </c>
+      <c r="C320" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" t="s">
+        <v>55</v>
+      </c>
+      <c r="C321" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>53</v>
+      </c>
+      <c r="C322" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" t="s">
+        <v>80</v>
+      </c>
+      <c r="C323" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>80</v>
+      </c>
+      <c r="C324" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>93</v>
+      </c>
+      <c r="C325" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>16</v>
+      </c>
+      <c r="B326" t="s">
+        <v>96</v>
+      </c>
+      <c r="C326" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>41</v>
+      </c>
+      <c r="B327" t="s">
+        <v>96</v>
+      </c>
+      <c r="C327" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>53</v>
+      </c>
+      <c r="C328" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>79</v>
+      </c>
+      <c r="C329" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" t="s">
+        <v>89</v>
+      </c>
+      <c r="C330" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>80</v>
+      </c>
+      <c r="C331" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>88</v>
+      </c>
+      <c r="C332" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>79</v>
+      </c>
+      <c r="C333" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>93</v>
+      </c>
+      <c r="C334" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335" t="s">
+        <v>90</v>
+      </c>
+      <c r="C335" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" t="s">
+        <v>90</v>
+      </c>
+      <c r="C336" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" t="s">
+        <v>93</v>
+      </c>
+      <c r="C337" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338" t="s">
+        <v>79</v>
+      </c>
+      <c r="C338" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" t="s">
+        <v>93</v>
+      </c>
+      <c r="C339" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" t="s">
+        <v>90</v>
+      </c>
+      <c r="C340" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>50</v>
+      </c>
+      <c r="B341" t="s">
+        <v>90</v>
+      </c>
+      <c r="C341" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>50</v>
+      </c>
+      <c r="B342" t="s">
+        <v>72</v>
+      </c>
+      <c r="C342" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>15</v>
+      </c>
+      <c r="B343" t="s">
+        <v>79</v>
+      </c>
+      <c r="C343" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" t="s">
+        <v>79</v>
+      </c>
+      <c r="C344" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" t="s">
+        <v>88</v>
+      </c>
+      <c r="C345" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>49</v>
+      </c>
+      <c r="B346" t="s">
+        <v>78</v>
+      </c>
+      <c r="C346" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>49</v>
+      </c>
+      <c r="B347" t="s">
+        <v>51</v>
+      </c>
+      <c r="C347" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>15</v>
+      </c>
+      <c r="B348" t="s">
+        <v>90</v>
+      </c>
+      <c r="C348" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>37</v>
+      </c>
+      <c r="B349" t="s">
+        <v>94</v>
+      </c>
+      <c r="C349" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>23</v>
+      </c>
+      <c r="B350" t="s">
+        <v>90</v>
+      </c>
+      <c r="C350" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>42</v>
+      </c>
+      <c r="B351" t="s">
+        <v>90</v>
+      </c>
+      <c r="C351" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>49</v>
+      </c>
+      <c r="B352" t="s">
+        <v>90</v>
+      </c>
+      <c r="C352" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>49</v>
+      </c>
+      <c r="B353" t="s">
+        <v>89</v>
+      </c>
+      <c r="C353" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>23</v>
+      </c>
+      <c r="B354" t="s">
+        <v>55</v>
+      </c>
+      <c r="C354" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>49</v>
+      </c>
+      <c r="B355" t="s">
+        <v>55</v>
+      </c>
+      <c r="C355" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356" t="s">
+        <v>89</v>
+      </c>
+      <c r="C356" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>49</v>
+      </c>
+      <c r="B357" t="s">
+        <v>93</v>
+      </c>
+      <c r="C357" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>49</v>
+      </c>
+      <c r="B358" t="s">
+        <v>72</v>
+      </c>
+      <c r="C358" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>49</v>
+      </c>
+      <c r="B359" t="s">
+        <v>64</v>
+      </c>
+      <c r="C359" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>23</v>
+      </c>
+      <c r="B360" t="s">
+        <v>80</v>
+      </c>
+      <c r="C360" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" t="s">
+        <v>93</v>
+      </c>
+      <c r="C361" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" t="s">
+        <v>72</v>
+      </c>
+      <c r="C362" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="B363" t="s">
+        <v>80</v>
+      </c>
+      <c r="C363" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>22</v>
+      </c>
+      <c r="B364" t="s">
+        <v>93</v>
+      </c>
+      <c r="C364" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>22</v>
+      </c>
+      <c r="B365" t="s">
+        <v>79</v>
+      </c>
+      <c r="C365" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>89</v>
+      </c>
+      <c r="C366" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>42</v>
+      </c>
+      <c r="B367" t="s">
+        <v>80</v>
+      </c>
+      <c r="C367" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>50</v>
+      </c>
+      <c r="B368" t="s">
+        <v>93</v>
+      </c>
+      <c r="C368" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>42</v>
+      </c>
+      <c r="B369" t="s">
+        <v>93</v>
+      </c>
+      <c r="C369" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" t="s">
+        <v>93</v>
+      </c>
+      <c r="C370" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>34</v>
+      </c>
+      <c r="B371" t="s">
+        <v>93</v>
+      </c>
+      <c r="C371" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>8</v>
+      </c>
+      <c r="B372" t="s">
+        <v>93</v>
+      </c>
+      <c r="C372" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>42</v>
+      </c>
+      <c r="B373" t="s">
+        <v>56</v>
+      </c>
+      <c r="C373" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" t="s">
+        <v>51</v>
+      </c>
+      <c r="C374" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>42</v>
+      </c>
+      <c r="B375" t="s">
+        <v>79</v>
+      </c>
+      <c r="C375" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>34</v>
+      </c>
+      <c r="B376" t="s">
+        <v>89</v>
+      </c>
+      <c r="C376" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>34</v>
+      </c>
+      <c r="B377" t="s">
+        <v>90</v>
+      </c>
+      <c r="C377" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>8</v>
+      </c>
+      <c r="B378" t="s">
+        <v>79</v>
+      </c>
+      <c r="C378" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>34</v>
+      </c>
+      <c r="B379" t="s">
+        <v>72</v>
+      </c>
+      <c r="C379" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>26</v>
+      </c>
+      <c r="B380" t="s">
+        <v>93</v>
+      </c>
+      <c r="C380" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>37</v>
+      </c>
+      <c r="B381" t="s">
+        <v>90</v>
+      </c>
+      <c r="C381" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" t="s">
+        <v>80</v>
+      </c>
+      <c r="C382" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>37</v>
+      </c>
+      <c r="B383" t="s">
+        <v>93</v>
+      </c>
+      <c r="C383" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>37</v>
+      </c>
+      <c r="B384" t="s">
+        <v>72</v>
+      </c>
+      <c r="C384" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" t="s">
+        <v>93</v>
+      </c>
+      <c r="C385" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" t="s">
+        <v>79</v>
+      </c>
+      <c r="C386" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>30</v>
+      </c>
+      <c r="B387" t="s">
+        <v>79</v>
+      </c>
+      <c r="C387" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>26</v>
+      </c>
+      <c r="B388" t="s">
+        <v>80</v>
+      </c>
+      <c r="C388" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" t="s">
+        <v>79</v>
+      </c>
+      <c r="C389" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390" t="s">
+        <v>93</v>
+      </c>
+      <c r="C390" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>30</v>
+      </c>
+      <c r="B391" t="s">
+        <v>80</v>
+      </c>
+      <c r="C391" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>30</v>
+      </c>
+      <c r="B392" t="s">
+        <v>93</v>
+      </c>
+      <c r="C392" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>44</v>
+      </c>
+      <c r="B393" t="s">
+        <v>79</v>
+      </c>
+      <c r="C393" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>44</v>
+      </c>
+      <c r="B394" t="s">
+        <v>80</v>
+      </c>
+      <c r="C394" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>24</v>
+      </c>
+      <c r="B395" t="s">
+        <v>93</v>
+      </c>
+      <c r="C395" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>44</v>
+      </c>
+      <c r="B396" t="s">
+        <v>93</v>
+      </c>
+      <c r="C396" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>93</v>
+      </c>
+      <c r="C397" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" t="s">
+        <v>79</v>
+      </c>
+      <c r="C398" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>27</v>
+      </c>
+      <c r="B399" t="s">
+        <v>93</v>
+      </c>
+      <c r="C399" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>25</v>
+      </c>
+      <c r="B400" t="s">
+        <v>93</v>
+      </c>
+      <c r="C400" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>16</v>
+      </c>
+      <c r="B401" t="s">
+        <v>80</v>
+      </c>
+      <c r="C401" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>16</v>
+      </c>
+      <c r="B402" t="s">
+        <v>93</v>
+      </c>
+      <c r="C402" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>41</v>
+      </c>
+      <c r="B403" t="s">
+        <v>93</v>
+      </c>
+      <c r="C403" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>41</v>
+      </c>
+      <c r="B404" t="s">
+        <v>79</v>
+      </c>
+      <c r="C404" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="483">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Lost but Not Forgotten</t>
+  </si>
+  <si>
     <t>Corrupted Chunks</t>
   </si>
   <si>
@@ -305,6 +308,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>July 7, 2025, 8:01 a.m.</t>
   </si>
   <si>
     <t>June 22, 2025, 5:27 a.m.</t>
@@ -1814,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C404"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1847,10 +1853,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1858,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1869,10 +1875,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1880,10 +1886,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1891,10 +1897,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1902,10 +1908,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1913,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1924,10 +1930,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1935,10 +1941,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1946,10 +1952,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1957,10 +1963,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1968,10 +1974,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1979,10 +1985,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1990,10 +1996,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2001,10 +2007,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2012,10 +2018,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2023,32 +2029,32 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2056,10 +2062,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2067,10 +2073,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2078,10 +2084,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2089,10 +2095,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2100,10 +2106,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2111,10 +2117,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2122,10 +2128,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2133,10 +2139,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2144,10 +2150,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2155,32 +2161,32 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2191,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2202,7 +2208,7 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2210,32 +2216,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2243,10 +2249,10 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2254,76 +2260,76 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2331,120 +2337,120 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2452,10 +2458,10 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2463,43 +2469,43 @@
         <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2507,120 +2513,120 @@
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2628,252 +2634,252 @@
         <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
         <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2884,117 +2890,117 @@
         <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3002,76 +3008,76 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3079,186 +3085,186 @@
         <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B119" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
         <v>80</v>
       </c>
       <c r="C121" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C130" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3266,109 +3272,109 @@
         <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B137" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C137" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C138" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C139" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3376,835 +3382,835 @@
         <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B144" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C147" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B153" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C153" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C156" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C160" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C161" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C162" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C164" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C165" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B166" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C166" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B167" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C167" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B168" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C168" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C170" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B171" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C171" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C172" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B173" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C173" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C174" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C175" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C176" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C177" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B182" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B183" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B185" t="s">
         <v>59</v>
       </c>
       <c r="C185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B187" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C189" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C190" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C191" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C194" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C195" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B196" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C196" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C197" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C198" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C199" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C200" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C201" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C202" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C203" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B204" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B205" t="s">
         <v>89</v>
       </c>
       <c r="C205" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B206" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C206" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B207" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C207" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B208" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C208" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B209" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C209" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B210" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C210" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B211" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C211" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C213" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C214" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B215" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C215" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B216" t="s">
         <v>89</v>
       </c>
       <c r="C216" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B217" t="s">
         <v>90</v>
       </c>
       <c r="C217" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4212,384 +4218,384 @@
         <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C218" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B219" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C219" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B220" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C220" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B221" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C221" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B222" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C222" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C223" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B224" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C224" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C225" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B226" t="s">
         <v>93</v>
       </c>
       <c r="C226" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B227" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C227" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B228" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C228" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C229" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C230" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C231" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C232" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C233" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B234" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B235" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C235" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B236" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C236" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B237" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C237" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C238" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B239" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C239" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B240" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C240" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C241" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C242" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B243" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C243" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B244" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C244" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C245" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B246" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C246" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B248" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C248" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C249" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C250" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C251" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B252" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4597,109 +4603,109 @@
         <v>25</v>
       </c>
       <c r="B253" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C253" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C254" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C255" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B256" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C256" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B257" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C257" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B258" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C258" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C259" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B260" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C260" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B261" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C261" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B262" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C262" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4707,32 +4713,32 @@
         <v>18</v>
       </c>
       <c r="B263" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C263" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B264" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C264" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C265" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4740,604 +4746,604 @@
         <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C266" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B267" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C267" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C268" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B269" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C269" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C270" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C272" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C273" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B274" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C274" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B275" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C275" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B276" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C276" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C277" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B278" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B279" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B280" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C280" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C281" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B282" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C282" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B283" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B284" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C284" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C285" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B286" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C286" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B287" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C287" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B288" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C288" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B289" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C289" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B290" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C290" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B291" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C291" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B292" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B293" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C293" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B294" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C294" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C295" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B296" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C296" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B297" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C297" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C298" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B300" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C300" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B301" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C301" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B302" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C302" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B303" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C303" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B304" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C304" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B305" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C305" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B306" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C306" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B307" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C307" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C308" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C309" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B310" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C310" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B311" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C311" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B312" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C312" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B313" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C313" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B314" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C314" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B315" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C315" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B316" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C316" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C317" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C318" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C319" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B320" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C320" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5345,725 +5351,725 @@
         <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C321" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C322" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C323" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B324" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C324" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C325" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C326" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B327" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C327" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B328" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C328" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B329" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C329" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B330" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C330" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C331" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C332" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B333" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C333" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B334" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C334" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B335" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C335" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C336" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C337" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B338" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C338" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C339" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C340" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C341" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B342" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C342" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B343" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C343" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B344" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C344" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C345" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C346" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B347" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C347" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B348" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C348" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B349" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C349" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B350" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C350" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B351" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C351" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B352" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C352" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B353" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C353" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B354" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C354" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B355" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C355" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B356" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C356" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C357" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B358" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C358" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B359" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C359" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B360" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C360" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B361" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C361" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B362" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C362" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B363" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C363" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B364" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C364" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B365" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C365" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B366" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C366" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B367" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C367" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B368" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C368" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B369" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C369" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B370" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C370" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B371" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C371" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B372" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C372" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B373" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C373" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B374" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C374" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B375" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C375" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B376" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C376" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B377" t="s">
         <v>90</v>
       </c>
       <c r="C377" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B378" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C378" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C379" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B380" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C380" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B381" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C381" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B382" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C382" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B383" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C383" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B384" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C384" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B385" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C385" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B386" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C386" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6071,197 +6077,208 @@
         <v>30</v>
       </c>
       <c r="B387" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C387" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B388" t="s">
         <v>80</v>
       </c>
       <c r="C388" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B389" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C389" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B390" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C390" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B391" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C391" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B392" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C392" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B393" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C393" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B394" t="s">
         <v>80</v>
       </c>
       <c r="C394" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B395" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C395" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B396" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C396" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B397" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C397" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B398" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C398" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B399" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C399" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B400" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C400" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B401" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C401" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B402" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C402" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B403" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C403" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B404" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C404" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>42</v>
+      </c>
+      <c r="B405" t="s">
+        <v>80</v>
+      </c>
+      <c r="C405" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="486">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Based64</t>
+  </si>
+  <si>
     <t>Lost but Not Forgotten</t>
   </si>
   <si>
@@ -172,15 +175,15 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
     <t>0xN1kU_H4X_!</t>
   </si>
   <si>
     <t>GNU</t>
   </si>
   <si>
-    <t>YoursTruly</t>
-  </si>
-  <si>
     <t>Clay69</t>
   </si>
   <si>
@@ -308,6 +311,12 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Aug. 13, 2025, 5:50 a.m.</t>
+  </si>
+  <si>
+    <t>Aug. 13, 2025, 5:43 a.m.</t>
   </si>
   <si>
     <t>July 7, 2025, 8:01 a.m.</t>
@@ -1820,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C405"/>
+  <dimension ref="A1:C407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1842,208 +1851,208 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2051,21 +2060,21 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2073,120 +2082,120 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2194,54 +2203,54 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2249,32 +2258,32 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2282,351 +2291,351 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2637,766 +2646,766 @@
         <v>66</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
         <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
         <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
         <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
         <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C110" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s">
         <v>80</v>
       </c>
       <c r="C121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
         <v>81</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B127" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C128" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C133" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C143" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3404,307 +3413,307 @@
         <v>46</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C144" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C145" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B146" t="s">
         <v>83</v>
       </c>
       <c r="C146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B151" t="s">
         <v>84</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C152" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C153" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B155" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C156" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B160" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B162" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C162" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B163" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C163" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C164" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B165" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C165" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B166" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B168" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B169" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B170" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C170" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C171" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3712,362 +3721,362 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C172" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C173" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C174" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B175" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C175" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C177" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B181" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B184" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B187" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C187" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C188" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C189" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C190" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C192" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C193" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C194" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C195" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B196" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C196" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C197" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C198" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C199" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B200" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C200" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C201" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B202" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C202" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B203" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C203" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B204" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C204" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4075,153 +4084,153 @@
         <v>33</v>
       </c>
       <c r="B205" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B206" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C206" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B207" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
         <v>91</v>
       </c>
       <c r="C208" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C209" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B210" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C210" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B211" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B212" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C212" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C213" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C214" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B215" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B216" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B217" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C217" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B218" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4229,10 +4238,10 @@
         <v>49</v>
       </c>
       <c r="B219" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C219" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4240,516 +4249,516 @@
         <v>49</v>
       </c>
       <c r="B220" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C221" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C222" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B224" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C224" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B225" t="s">
         <v>93</v>
       </c>
       <c r="C225" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B226" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C226" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B227" t="s">
         <v>94</v>
       </c>
       <c r="C227" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B228" t="s">
         <v>94</v>
       </c>
       <c r="C228" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C229" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B230" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B231" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B232" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C233" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C234" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B235" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C235" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B236" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C236" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
         <v>81</v>
       </c>
       <c r="C237" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C238" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B239" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C239" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B240" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C240" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C241" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C242" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C243" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C245" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C246" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B248" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C248" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B249" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="C249" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C250" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C252" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C253" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B254" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C254" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C255" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B256" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C256" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B257" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C257" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B258" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C258" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B259" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C259" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B260" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C260" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B261" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C261" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B262" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C262" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B263" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C263" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B264" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C264" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B265" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C265" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B266" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C266" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4757,1330 +4766,1330 @@
         <v>19</v>
       </c>
       <c r="B267" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C267" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C268" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C269" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B270" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C270" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B271" t="s">
         <v>81</v>
       </c>
       <c r="C271" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B272" t="s">
         <v>91</v>
       </c>
       <c r="C272" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C273" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C274" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B275" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C275" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B276" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C276" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B277" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B278" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C278" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C279" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B280" t="s">
         <v>95</v>
       </c>
       <c r="C280" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B281" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C281" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B282" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C282" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C283" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B284" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C284" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B285" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B286" t="s">
         <v>91</v>
       </c>
       <c r="C286" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C287" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B288" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C288" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B289" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C289" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C290" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B291" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C291" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B292" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C292" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B293" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C293" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B294" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C294" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B295" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C295" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B296" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C296" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B297" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C297" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B298" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C298" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B299" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C299" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B300" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C300" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B301" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B302" t="s">
         <v>54</v>
       </c>
       <c r="C302" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B303" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C303" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B304" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C304" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B305" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C305" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B306" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C306" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B307" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C307" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B308" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C308" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B309" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C309" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C310" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C311" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C312" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B313" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C313" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B314" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C314" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B315" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C315" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B316" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C316" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B317" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C317" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B318" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C318" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C319" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C320" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B321" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C321" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B322" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C322" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C323" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C324" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B325" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C325" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B326" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C326" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C327" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C328" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B329" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C329" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B330" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C330" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C331" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B332" t="s">
         <v>81</v>
       </c>
       <c r="C332" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C333" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C334" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C335" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C336" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C337" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C338" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B339" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C339" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B340" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C340" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B341" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C341" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C342" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C343" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B344" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C344" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B345" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C345" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B346" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C346" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C347" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C348" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B349" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C349" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B350" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C350" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B351" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C351" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B352" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C352" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B353" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C353" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B354" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C354" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B355" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C355" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B356" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C356" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B357" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C357" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B358" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C358" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B359" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C359" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B360" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C360" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B361" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C361" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B362" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C362" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B363" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C363" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B364" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C364" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B365" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C365" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B366" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C366" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B367" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C367" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B368" t="s">
         <v>81</v>
       </c>
       <c r="C368" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B369" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C369" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B370" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C370" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B371" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C371" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B372" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C372" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B373" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C373" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B374" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C374" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B375" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C375" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B376" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C376" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B377" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C377" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B378" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C378" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B379" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C379" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B380" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C380" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B381" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C381" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B382" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C382" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B383" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C383" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B384" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C384" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B385" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C385" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B386" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C386" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B387" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C387" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6088,197 +6097,219 @@
         <v>31</v>
       </c>
       <c r="B388" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C388" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B389" t="s">
         <v>81</v>
       </c>
       <c r="C389" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B390" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C390" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B391" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C391" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B392" t="s">
         <v>81</v>
       </c>
       <c r="C392" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B393" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C393" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B394" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C394" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B395" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C395" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B396" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C396" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B397" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C397" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B398" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C398" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B399" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C399" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B400" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C400" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B401" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C401" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C402" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B403" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C403" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B404" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C404" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B405" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C405" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>43</v>
+      </c>
+      <c r="B406" t="s">
+        <v>95</v>
+      </c>
+      <c r="C406" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>43</v>
+      </c>
+      <c r="B407" t="s">
+        <v>81</v>
+      </c>
+      <c r="C407" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="486">
   <si>
     <t>Challenge</t>
   </si>
@@ -23,6 +23,1455 @@
   </si>
   <si>
     <t>Solved time</t>
+  </si>
+  <si>
+    <t>Based64</t>
+  </si>
+  <si>
+    <t>Lost but Not Forgotten</t>
+  </si>
+  <si>
+    <t>Corrupted Chunks</t>
+  </si>
+  <si>
+    <t>Hidden In Channel</t>
+  </si>
+  <si>
+    <t>Mysterious</t>
+  </si>
+  <si>
+    <t>Keygen</t>
+  </si>
+  <si>
+    <t>GuessMe</t>
+  </si>
+  <si>
+    <t>Cattle</t>
+  </si>
+  <si>
+    <t>Crack Me 1</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>Google Docs</t>
+  </si>
+  <si>
+    <t>Tap Tap</t>
+  </si>
+  <si>
+    <t>Spy Secrets</t>
+  </si>
+  <si>
+    <t>Substitute</t>
+  </si>
+  <si>
+    <t>Unknown Cipher</t>
+  </si>
+  <si>
+    <t>First XOR</t>
+  </si>
+  <si>
+    <t>Shared Project</t>
+  </si>
+  <si>
+    <t>The Fragmented Truth</t>
+  </si>
+  <si>
+    <t>Find My Pin</t>
+  </si>
+  <si>
+    <t>Phantom Pings</t>
+  </si>
+  <si>
+    <t>Keyboark Junks</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>Suna Saili</t>
+  </si>
+  <si>
+    <t>Eric Zimmerman</t>
+  </si>
+  <si>
+    <t>Obfuscation Station</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t>Steg</t>
+  </si>
+  <si>
+    <t>Packet Whisper</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>Basecally a flag</t>
+  </si>
+  <si>
+    <t>Duty Calls</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Stylish</t>
+  </si>
+  <si>
+    <t>Dude where is my car</t>
+  </si>
+  <si>
+    <t>Javascript Puzzle</t>
+  </si>
+  <si>
+    <t>Guestbook</t>
+  </si>
+  <si>
+    <t>Somewhere in Space</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Commitment Issue</t>
+  </si>
+  <si>
+    <t>Final Destination</t>
+  </si>
+  <si>
+    <t>CPU Binding</t>
+  </si>
+  <si>
+    <t>Rotate your point of view</t>
+  </si>
+  <si>
+    <t>Privilege Escalation 1</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Wordplay</t>
+  </si>
+  <si>
+    <t>Plain Sight</t>
+  </si>
+  <si>
+    <t>JWT Admin Elevation</t>
+  </si>
+  <si>
+    <t>Greeting</t>
+  </si>
+  <si>
+    <t>Canvaker</t>
+  </si>
+  <si>
+    <t>Romagnol Prometheus</t>
+  </si>
+  <si>
+    <t>YoursTruly</t>
+  </si>
+  <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
+    <t>GNU</t>
+  </si>
+  <si>
+    <t>Clay69</t>
+  </si>
+  <si>
+    <t>Oju D. Amatya</t>
+  </si>
+  <si>
+    <t>kinachaiyo</t>
+  </si>
+  <si>
+    <t>Nargiza Maharjan</t>
+  </si>
+  <si>
+    <t>luffy</t>
+  </si>
+  <si>
+    <t>$sudo</t>
+  </si>
+  <si>
+    <t>thatguysbroke</t>
+  </si>
+  <si>
+    <t>GUTS</t>
+  </si>
+  <si>
+    <t>Mandip</t>
+  </si>
+  <si>
+    <t>Anmuu</t>
+  </si>
+  <si>
+    <t>ahlai:3</t>
+  </si>
+  <si>
+    <t>Yugal</t>
+  </si>
+  <si>
+    <t>SAKUNA</t>
+  </si>
+  <si>
+    <t>Ansees</t>
+  </si>
+  <si>
+    <t>Adhyan Tamang</t>
+  </si>
+  <si>
+    <t>Only Aayush</t>
+  </si>
+  <si>
+    <t>Hexaxe</t>
+  </si>
+  <si>
+    <t>Shrawan1234</t>
+  </si>
+  <si>
+    <t>༒𝙰sʜᴡɪɴ༒</t>
+  </si>
+  <si>
+    <t>celebbbb</t>
+  </si>
+  <si>
+    <t>Dhiru Piru</t>
+  </si>
+  <si>
+    <t>golbeda</t>
+  </si>
+  <si>
+    <t>Iconic_Whisper</t>
+  </si>
+  <si>
+    <t>aayush</t>
+  </si>
+  <si>
+    <t>Yodha</t>
+  </si>
+  <si>
+    <t>kharayo1x</t>
+  </si>
+  <si>
+    <t>p0tato</t>
+  </si>
+  <si>
+    <t>hello_you0</t>
+  </si>
+  <si>
+    <t>Cosmic</t>
+  </si>
+  <si>
+    <t>Tyrant</t>
+  </si>
+  <si>
+    <t>X-night</t>
+  </si>
+  <si>
+    <t>LUCKY_MJ_36457</t>
+  </si>
+  <si>
+    <t>wigglewiggle</t>
+  </si>
+  <si>
+    <t>प्रणय</t>
+  </si>
+  <si>
+    <t>MoonLight</t>
+  </si>
+  <si>
+    <t>MrBender</t>
+  </si>
+  <si>
+    <t>Shrenav</t>
+  </si>
+  <si>
+    <t>MauLana Rhoades</t>
+  </si>
+  <si>
+    <t>Abyss_Walker</t>
+  </si>
+  <si>
+    <t>DargoTamber</t>
+  </si>
+  <si>
+    <t>404Ninjaaa</t>
+  </si>
+  <si>
+    <t>10y</t>
+  </si>
+  <si>
+    <t>krazy</t>
+  </si>
+  <si>
+    <t>Aug. 13, 2025, 5:50 a.m.</t>
+  </si>
+  <si>
+    <t>Aug. 13, 2025, 5:43 a.m.</t>
+  </si>
+  <si>
+    <t>July 7, 2025, 8:01 a.m.</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 5:27 a.m.</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 3:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 22, 2025, 2:41 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 6:11 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:44 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:19 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 5:13 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 2:34 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 2:16 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 1:57 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 12:55 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 12:12 p.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 11:17 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 10:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 8:08 a.m.</t>
+  </si>
+  <si>
+    <t>June 21, 2025, 3:58 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 2:15 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 2:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 20, 2025, 1:44 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 10:53 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 10:32 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 7:04 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 5:45 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 5:08 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 3:07 a.m.</t>
+  </si>
+  <si>
+    <t>June 19, 2025, 2:11 a.m.</t>
+  </si>
+  <si>
+    <t>June 17, 2025, 5:10 a.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2025, 10:55 a.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2025, 10:37 a.m.</t>
+  </si>
+  <si>
+    <t>June 13, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>June 11, 2025, 4:42 a.m.</t>
+  </si>
+  <si>
+    <t>June 10, 2025, 2:40 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 3:27 p.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 12:42 p.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 11:17 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 11:09 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 10:20 a.m.</t>
+  </si>
+  <si>
+    <t>June 9, 2025, 9:59 a.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 6:57 p.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 1:20 p.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 1:19 p.m.</t>
+  </si>
+  <si>
+    <t>June 8, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>June 7, 2025, 6:01 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 2:31 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 2:13 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 1:02 p.m.</t>
+  </si>
+  <si>
+    <t>June 6, 2025, 12:29 p.m.</t>
+  </si>
+  <si>
+    <t>June 5, 2025, 3:45 p.m.</t>
+  </si>
+  <si>
+    <t>June 5, 2025, 2:53 p.m.</t>
+  </si>
+  <si>
+    <t>June 5, 2025, 9:29 a.m.</t>
+  </si>
+  <si>
+    <t>June 4, 2025, 6:42 p.m.</t>
+  </si>
+  <si>
+    <t>June 4, 2025, 6:41 p.m.</t>
+  </si>
+  <si>
+    <t>June 3, 2025, 4:34 a.m.</t>
+  </si>
+  <si>
+    <t>June 1, 2025, 2:20 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 7:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 11:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 7:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 3:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 31, 2025, 2:52 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:09 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:08 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 4:07 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 3:27 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 2:17 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 2:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 9:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 8:22 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 8:11 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 8:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:55 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:48 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:47 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:40 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:39 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 7:08 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 6:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 5:52 a.m.</t>
+  </si>
+  <si>
+    <t>May 30, 2025, 5:37 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 5:16 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 3:59 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 3:46 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:15 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:01 p.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 9:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 8:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 8:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 7:39 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 7:25 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 29, 2025, 2:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:11 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 9:45 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 8:56 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 7:43 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 6:44 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 6:21 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:15 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:08 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:21 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:05 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 3:41 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 2:25 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 2:09 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:53 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:33 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 1:21 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 12:05 p.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, noon</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11:28 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 11 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:48 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:36 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:29 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:26 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 10:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 9:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 8:51 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 7:09 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:47 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:44 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:35 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:22 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:16 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:10 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:04 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 5 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:44 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:40 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:34 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:31 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:29 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:28 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 4:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 3:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 3:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 28, 2025, 2:55 a.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:49 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:47 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:26 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:07 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 6:02 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:52 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:49 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:38 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:19 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 5:06 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 4:23 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 4:16 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:34 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:33 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:32 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 12:31 p.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 4:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 2:29 a.m.</t>
+  </si>
+  <si>
+    <t>May 27, 2025, 1:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 3:34 p.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 4:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 4:21 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 3:11 a.m.</t>
+  </si>
+  <si>
+    <t>May 26, 2025, 3:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 25, 2025, 3:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 24, 2025, 1:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 10:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 4:35 a.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 2:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 22, 2025, 1:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 2:37 p.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 2:32 p.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 6:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 5:36 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 5:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:47 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 4:08 a.m.</t>
+  </si>
+  <si>
+    <t>May 21, 2025, 1:21 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 2:27 p.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 2:03 p.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 10:19 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 10:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 9:58 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 5:13 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 5:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 5 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 4:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 3:01 a.m.</t>
+  </si>
+  <si>
+    <t>May 20, 2025, 2:06 a.m.</t>
+  </si>
+  <si>
+    <t>May 19, 2025, 6:38 p.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 5:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 4:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 4:37 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 2:34 a.m.</t>
+  </si>
+  <si>
+    <t>May 18, 2025, 2:33 a.m.</t>
+  </si>
+  <si>
+    <t>May 16, 2025, 3:17 a.m.</t>
+  </si>
+  <si>
+    <t>May 16, 2025, 2:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 12:40 p.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 12:15 p.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 15, 2025, 4:56 a.m.</t>
+  </si>
+  <si>
+    <t>May 14, 2025, 2:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 14, 2025, 2:31 a.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 4:13 p.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 4:12 p.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 3:14 a.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 3:09 a.m.</t>
+  </si>
+  <si>
+    <t>May 13, 2025, 2:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 11, 2025, 5:32 p.m.</t>
+  </si>
+  <si>
+    <t>May 11, 2025, 5:20 p.m.</t>
+  </si>
+  <si>
+    <t>May 11, 2025, 8:13 a.m.</t>
+  </si>
+  <si>
+    <t>May 10, 2025, 7:34 p.m.</t>
+  </si>
+  <si>
+    <t>May 10, 2025, 4:50 p.m.</t>
+  </si>
+  <si>
+    <t>May 10, 2025, 2:12 p.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 5:48 p.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 5:03 p.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 9:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 8:57 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 8:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 8:51 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 6:33 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:36 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:32 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:31 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:17 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 4:06 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 3:38 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 2:58 a.m.</t>
+  </si>
+  <si>
+    <t>May 9, 2025, 2:49 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:45 p.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:35 p.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:28 p.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 9 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 5:56 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 5:05 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 4:23 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 3:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 3:27 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 3:26 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 2:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 2:28 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 2:25 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 1:54 a.m.</t>
+  </si>
+  <si>
+    <t>May 8, 2025, 1:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 9:30 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 8:09 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 6:04 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 6:02 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 5:43 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:50 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:45 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:25 a.m.</t>
+  </si>
+  <si>
+    <t>May 7, 2025, 4:18 a.m.</t>
+  </si>
+  <si>
+    <t>May 6, 2025, 7:52 a.m.</t>
+  </si>
+  <si>
+    <t>May 6, 2025, 7:20 a.m.</t>
+  </si>
+  <si>
+    <t>May 6, 2025, 4:15 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 2:41 p.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 7:42 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 6:55 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 6:46 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 6:41 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 5:49 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 5:07 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 4:03 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 3:05 a.m.</t>
+  </si>
+  <si>
+    <t>May 5, 2025, 2:45 a.m.</t>
+  </si>
+  <si>
+    <t>May 4, 2025, 7:45 a.m.</t>
+  </si>
+  <si>
+    <t>May 4, 2025, 1:33 a.m.</t>
+  </si>
+  <si>
+    <t>May 3, 2025, 9:24 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 3:38 p.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 2:06 p.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:48 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:26 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:20 a.m.</t>
+  </si>
+  <si>
+    <t>May 1, 2025, 9:19 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 4:32 p.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 4:23 p.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 4:59 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 3:41 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 3:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 2:04 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 1:37 a.m.</t>
+  </si>
+  <si>
+    <t>April 30, 2025, 1:31 a.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 2:03 p.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:55 p.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:53 p.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 2:22 a.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:21 a.m.</t>
+  </si>
+  <si>
+    <t>April 29, 2025, 1:18 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 5:55 p.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:57 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:33 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 4:06 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 3:48 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 3:40 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:32 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:28 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:17 a.m.</t>
+  </si>
+  <si>
+    <t>April 28, 2025, 2:05 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:47 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:26 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:22 a.m.</t>
+  </si>
+  <si>
+    <t>April 27, 2025, 2:20 a.m.</t>
+  </si>
+  <si>
+    <t>April 26, 2025, 1:49 p.m.</t>
+  </si>
+  <si>
+    <t>April 26, 2025, 1:42 p.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:40 p.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 6:49 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 6:15 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:58 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:36 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 4:27 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 3:56 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 3:14 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 3:12 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 2:54 a.m.</t>
+  </si>
+  <si>
+    <t>April 25, 2025, 2:44 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 5:05 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 3:57 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 2:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 2:21 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 1:52 a.m.</t>
+  </si>
+  <si>
+    <t>April 24, 2025, 1:23 a.m.</t>
+  </si>
+  <si>
+    <t>April 23, 2025, 4:48 a.m.</t>
+  </si>
+  <si>
+    <t>April 23, 2025, 4:39 a.m.</t>
+  </si>
+  <si>
+    <t>April 23, 2025, 3:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 21, 2025, 1:48 p.m.</t>
+  </si>
+  <si>
+    <t>April 19, 2025, 2:56 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:50 p.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:24 p.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:53 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:29 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:19 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:18 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 4:06 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:37 a.m.</t>
+  </si>
+  <si>
+    <t>April 17, 2025, 3:33 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 5:17 p.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 4:41 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 2:54 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 2:47 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 2:10 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 1:46 a.m.</t>
+  </si>
+  <si>
+    <t>April 16, 2025, 1:30 a.m.</t>
+  </si>
+  <si>
+    <t>April 15, 2025, 5:18 a.m.</t>
+  </si>
+  <si>
+    <t>April 15, 2025, 2:45 a.m.</t>
+  </si>
+  <si>
+    <t>April 15, 2025, 2:40 a.m.</t>
+  </si>
+  <si>
+    <t>April 14, 2025, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>April 13, 2025, 9:14 a.m.</t>
+  </si>
+  <si>
+    <t>April 12, 2025, 4:59 p.m.</t>
+  </si>
+  <si>
+    <t>April 11, 2025, 3:52 p.m.</t>
+  </si>
+  <si>
+    <t>April 11, 2025, 12:43 p.m.</t>
+  </si>
+  <si>
+    <t>April 11, 2025, 2:13 a.m.</t>
+  </si>
+  <si>
+    <t>April 10, 2025, 7:23 p.m.</t>
   </si>
 </sst>
 </file>
@@ -380,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +1846,4472 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>35</v>
+      </c>
+      <c r="B132" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B140" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>83</v>
+      </c>
+      <c r="C143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" t="s">
+        <v>84</v>
+      </c>
+      <c r="C151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" t="s">
+        <v>79</v>
+      </c>
+      <c r="C155" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" t="s">
+        <v>77</v>
+      </c>
+      <c r="C157" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>51</v>
+      </c>
+      <c r="B163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>43</v>
+      </c>
+      <c r="B173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" t="s">
+        <v>88</v>
+      </c>
+      <c r="C174" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175" t="s">
+        <v>88</v>
+      </c>
+      <c r="C175" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>57</v>
+      </c>
+      <c r="C176" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B177" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>61</v>
+      </c>
+      <c r="C179" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>43</v>
+      </c>
+      <c r="B181" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>78</v>
+      </c>
+      <c r="C183" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>43</v>
+      </c>
+      <c r="B185" t="s">
+        <v>78</v>
+      </c>
+      <c r="C185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>78</v>
+      </c>
+      <c r="C186" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>43</v>
+      </c>
+      <c r="B187" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>38</v>
+      </c>
+      <c r="B188" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>38</v>
+      </c>
+      <c r="B189" t="s">
+        <v>60</v>
+      </c>
+      <c r="C189" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" t="s">
+        <v>89</v>
+      </c>
+      <c r="C190" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191" t="s">
+        <v>89</v>
+      </c>
+      <c r="C191" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195" t="s">
+        <v>61</v>
+      </c>
+      <c r="C195" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>61</v>
+      </c>
+      <c r="C196" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198" t="s">
+        <v>74</v>
+      </c>
+      <c r="C198" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" t="s">
+        <v>54</v>
+      </c>
+      <c r="C200" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>81</v>
+      </c>
+      <c r="C201" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>33</v>
+      </c>
+      <c r="B205" t="s">
+        <v>59</v>
+      </c>
+      <c r="C205" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>42</v>
+      </c>
+      <c r="B206" t="s">
+        <v>57</v>
+      </c>
+      <c r="C206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>90</v>
+      </c>
+      <c r="C207" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>42</v>
+      </c>
+      <c r="B208" t="s">
+        <v>91</v>
+      </c>
+      <c r="C208" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>50</v>
+      </c>
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>42</v>
+      </c>
+      <c r="B210" t="s">
+        <v>92</v>
+      </c>
+      <c r="C210" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>37</v>
+      </c>
+      <c r="B211" t="s">
+        <v>91</v>
+      </c>
+      <c r="C211" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>42</v>
+      </c>
+      <c r="B212" t="s">
+        <v>74</v>
+      </c>
+      <c r="C212" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>42</v>
+      </c>
+      <c r="B213" t="s">
+        <v>82</v>
+      </c>
+      <c r="C213" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>47</v>
+      </c>
+      <c r="B214" t="s">
+        <v>57</v>
+      </c>
+      <c r="C214" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>37</v>
+      </c>
+      <c r="B215" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>47</v>
+      </c>
+      <c r="B216" t="s">
+        <v>91</v>
+      </c>
+      <c r="C216" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>37</v>
+      </c>
+      <c r="B217" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>37</v>
+      </c>
+      <c r="B218" t="s">
+        <v>90</v>
+      </c>
+      <c r="C218" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B219" t="s">
+        <v>91</v>
+      </c>
+      <c r="C219" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" t="s">
+        <v>92</v>
+      </c>
+      <c r="C220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" t="s">
+        <v>90</v>
+      </c>
+      <c r="C222" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>39</v>
+      </c>
+      <c r="B223" t="s">
+        <v>93</v>
+      </c>
+      <c r="C223" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>33</v>
+      </c>
+      <c r="B224" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" t="s">
+        <v>93</v>
+      </c>
+      <c r="C225" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" t="s">
+        <v>74</v>
+      </c>
+      <c r="C226" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>47</v>
+      </c>
+      <c r="B227" t="s">
+        <v>94</v>
+      </c>
+      <c r="C227" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228" t="s">
+        <v>94</v>
+      </c>
+      <c r="C228" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229" t="s">
+        <v>95</v>
+      </c>
+      <c r="C229" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
+        <v>95</v>
+      </c>
+      <c r="C230" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>47</v>
+      </c>
+      <c r="B231" t="s">
+        <v>82</v>
+      </c>
+      <c r="C231" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>47</v>
+      </c>
+      <c r="B232" t="s">
+        <v>74</v>
+      </c>
+      <c r="C232" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>47</v>
+      </c>
+      <c r="B233" t="s">
+        <v>95</v>
+      </c>
+      <c r="C233" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B234" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C236" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>49</v>
+      </c>
+      <c r="B237" t="s">
+        <v>81</v>
+      </c>
+      <c r="C237" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>49</v>
+      </c>
+      <c r="B238" t="s">
+        <v>90</v>
+      </c>
+      <c r="C238" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" t="s">
+        <v>82</v>
+      </c>
+      <c r="C239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" t="s">
+        <v>74</v>
+      </c>
+      <c r="C240" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" t="s">
+        <v>82</v>
+      </c>
+      <c r="C241" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>48</v>
+      </c>
+      <c r="B242" t="s">
+        <v>90</v>
+      </c>
+      <c r="C242" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>57</v>
+      </c>
+      <c r="C243" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>57</v>
+      </c>
+      <c r="C244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" t="s">
+        <v>57</v>
+      </c>
+      <c r="C245" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246" t="s">
+        <v>81</v>
+      </c>
+      <c r="C246" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>48</v>
+      </c>
+      <c r="B247" t="s">
+        <v>95</v>
+      </c>
+      <c r="C247" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" t="s">
+        <v>58</v>
+      </c>
+      <c r="C248" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>48</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>81</v>
+      </c>
+      <c r="C250" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>95</v>
+      </c>
+      <c r="C251" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>58</v>
+      </c>
+      <c r="C252" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>58</v>
+      </c>
+      <c r="C253" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>43</v>
+      </c>
+      <c r="B254" t="s">
+        <v>58</v>
+      </c>
+      <c r="C254" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" t="s">
+        <v>91</v>
+      </c>
+      <c r="C255" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>91</v>
+      </c>
+      <c r="C256" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" t="s">
+        <v>82</v>
+      </c>
+      <c r="C257" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>33</v>
+      </c>
+      <c r="B258" t="s">
+        <v>57</v>
+      </c>
+      <c r="C258" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>43</v>
+      </c>
+      <c r="B259" t="s">
+        <v>82</v>
+      </c>
+      <c r="C259" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" t="s">
+        <v>91</v>
+      </c>
+      <c r="C260" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" t="s">
+        <v>91</v>
+      </c>
+      <c r="C261" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>19</v>
+      </c>
+      <c r="B262" t="s">
+        <v>91</v>
+      </c>
+      <c r="C262" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>35</v>
+      </c>
+      <c r="B263" t="s">
+        <v>82</v>
+      </c>
+      <c r="C263" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>33</v>
+      </c>
+      <c r="B264" t="s">
+        <v>82</v>
+      </c>
+      <c r="C264" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>19</v>
+      </c>
+      <c r="B265" t="s">
+        <v>82</v>
+      </c>
+      <c r="C265" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>20</v>
+      </c>
+      <c r="B266" t="s">
+        <v>82</v>
+      </c>
+      <c r="C266" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>19</v>
+      </c>
+      <c r="B267" t="s">
+        <v>95</v>
+      </c>
+      <c r="C267" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268" t="s">
+        <v>81</v>
+      </c>
+      <c r="C268" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>20</v>
+      </c>
+      <c r="B269" t="s">
+        <v>95</v>
+      </c>
+      <c r="C269" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>41</v>
+      </c>
+      <c r="B270" t="s">
+        <v>54</v>
+      </c>
+      <c r="C270" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>20</v>
+      </c>
+      <c r="B271" t="s">
+        <v>81</v>
+      </c>
+      <c r="C271" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s">
+        <v>91</v>
+      </c>
+      <c r="C272" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" t="s">
+        <v>82</v>
+      </c>
+      <c r="C273" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>92</v>
+      </c>
+      <c r="C274" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>17</v>
+      </c>
+      <c r="B275" t="s">
+        <v>91</v>
+      </c>
+      <c r="C275" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>41</v>
+      </c>
+      <c r="B276" t="s">
+        <v>82</v>
+      </c>
+      <c r="C276" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>43</v>
+      </c>
+      <c r="B277" t="s">
+        <v>91</v>
+      </c>
+      <c r="C277" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>91</v>
+      </c>
+      <c r="C278" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
+        <v>91</v>
+      </c>
+      <c r="C279" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>41</v>
+      </c>
+      <c r="B280" t="s">
+        <v>95</v>
+      </c>
+      <c r="C280" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>41</v>
+      </c>
+      <c r="B281" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>43</v>
+      </c>
+      <c r="B282" t="s">
+        <v>96</v>
+      </c>
+      <c r="C282" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>81</v>
+      </c>
+      <c r="C283" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>35</v>
+      </c>
+      <c r="B284" t="s">
+        <v>57</v>
+      </c>
+      <c r="C284" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>40</v>
+      </c>
+      <c r="B285" t="s">
+        <v>92</v>
+      </c>
+      <c r="C285" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>40</v>
+      </c>
+      <c r="B286" t="s">
+        <v>91</v>
+      </c>
+      <c r="C286" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>95</v>
+      </c>
+      <c r="C287" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>33</v>
+      </c>
+      <c r="B288" t="s">
+        <v>92</v>
+      </c>
+      <c r="C288" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>35</v>
+      </c>
+      <c r="B289" t="s">
+        <v>91</v>
+      </c>
+      <c r="C289" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>91</v>
+      </c>
+      <c r="C290" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>33</v>
+      </c>
+      <c r="B291" t="s">
+        <v>91</v>
+      </c>
+      <c r="C291" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>35</v>
+      </c>
+      <c r="B292" t="s">
+        <v>90</v>
+      </c>
+      <c r="C292" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293" t="s">
+        <v>53</v>
+      </c>
+      <c r="C293" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>33</v>
+      </c>
+      <c r="B294" t="s">
+        <v>95</v>
+      </c>
+      <c r="C294" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>40</v>
+      </c>
+      <c r="B295" t="s">
+        <v>95</v>
+      </c>
+      <c r="C295" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>33</v>
+      </c>
+      <c r="B296" t="s">
+        <v>74</v>
+      </c>
+      <c r="C296" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>35</v>
+      </c>
+      <c r="B297" t="s">
+        <v>92</v>
+      </c>
+      <c r="C297" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>35</v>
+      </c>
+      <c r="B298" t="s">
+        <v>81</v>
+      </c>
+      <c r="C298" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>44</v>
+      </c>
+      <c r="B299" t="s">
+        <v>53</v>
+      </c>
+      <c r="C299" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>35</v>
+      </c>
+      <c r="B300" t="s">
+        <v>53</v>
+      </c>
+      <c r="C300" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>35</v>
+      </c>
+      <c r="B301" t="s">
+        <v>95</v>
+      </c>
+      <c r="C301" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" t="s">
+        <v>54</v>
+      </c>
+      <c r="C302" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>40</v>
+      </c>
+      <c r="B303" t="s">
+        <v>81</v>
+      </c>
+      <c r="C303" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>40</v>
+      </c>
+      <c r="B304" t="s">
+        <v>53</v>
+      </c>
+      <c r="C304" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>40</v>
+      </c>
+      <c r="B305" t="s">
+        <v>54</v>
+      </c>
+      <c r="C305" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>44</v>
+      </c>
+      <c r="B306" t="s">
+        <v>91</v>
+      </c>
+      <c r="C306" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" t="s">
+        <v>97</v>
+      </c>
+      <c r="C307" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>97</v>
+      </c>
+      <c r="C308" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>44</v>
+      </c>
+      <c r="B309" t="s">
+        <v>97</v>
+      </c>
+      <c r="C309" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" t="s">
+        <v>57</v>
+      </c>
+      <c r="C310" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>95</v>
+      </c>
+      <c r="C311" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>21</v>
+      </c>
+      <c r="B312" t="s">
+        <v>95</v>
+      </c>
+      <c r="C312" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>21</v>
+      </c>
+      <c r="B313" t="s">
+        <v>57</v>
+      </c>
+      <c r="C313" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314" t="s">
+        <v>54</v>
+      </c>
+      <c r="C314" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" t="s">
+        <v>57</v>
+      </c>
+      <c r="C315" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>43</v>
+      </c>
+      <c r="B316" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317" t="s">
+        <v>53</v>
+      </c>
+      <c r="C317" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" t="s">
+        <v>53</v>
+      </c>
+      <c r="C318" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>8</v>
+      </c>
+      <c r="B319" t="s">
+        <v>74</v>
+      </c>
+      <c r="C319" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" t="s">
+        <v>95</v>
+      </c>
+      <c r="C320" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>8</v>
+      </c>
+      <c r="B321" t="s">
+        <v>90</v>
+      </c>
+      <c r="C321" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" t="s">
+        <v>81</v>
+      </c>
+      <c r="C322" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>8</v>
+      </c>
+      <c r="B323" t="s">
+        <v>81</v>
+      </c>
+      <c r="C323" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>57</v>
+      </c>
+      <c r="C324" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>8</v>
+      </c>
+      <c r="B325" t="s">
+        <v>53</v>
+      </c>
+      <c r="C325" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" t="s">
+        <v>82</v>
+      </c>
+      <c r="C326" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" t="s">
+        <v>82</v>
+      </c>
+      <c r="C327" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
+        <v>95</v>
+      </c>
+      <c r="C328" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>18</v>
+      </c>
+      <c r="B329" t="s">
+        <v>98</v>
+      </c>
+      <c r="C329" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>43</v>
+      </c>
+      <c r="B330" t="s">
+        <v>98</v>
+      </c>
+      <c r="C330" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332" t="s">
+        <v>81</v>
+      </c>
+      <c r="C332" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>91</v>
+      </c>
+      <c r="C333" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334" t="s">
+        <v>82</v>
+      </c>
+      <c r="C334" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" t="s">
+        <v>90</v>
+      </c>
+      <c r="C335" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>6</v>
+      </c>
+      <c r="B336" t="s">
+        <v>81</v>
+      </c>
+      <c r="C336" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" t="s">
+        <v>95</v>
+      </c>
+      <c r="C337" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>92</v>
+      </c>
+      <c r="C338" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" t="s">
+        <v>92</v>
+      </c>
+      <c r="C339" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" t="s">
+        <v>95</v>
+      </c>
+      <c r="C340" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+      <c r="B341" t="s">
+        <v>81</v>
+      </c>
+      <c r="C341" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>95</v>
+      </c>
+      <c r="C342" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>92</v>
+      </c>
+      <c r="C343" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>52</v>
+      </c>
+      <c r="B344" t="s">
+        <v>92</v>
+      </c>
+      <c r="C344" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>52</v>
+      </c>
+      <c r="B345" t="s">
+        <v>74</v>
+      </c>
+      <c r="C345" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>17</v>
+      </c>
+      <c r="B346" t="s">
+        <v>81</v>
+      </c>
+      <c r="C346" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>81</v>
+      </c>
+      <c r="C347" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>90</v>
+      </c>
+      <c r="C348" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>51</v>
+      </c>
+      <c r="B349" t="s">
+        <v>80</v>
+      </c>
+      <c r="C349" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>51</v>
+      </c>
+      <c r="B350" t="s">
+        <v>54</v>
+      </c>
+      <c r="C350" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>17</v>
+      </c>
+      <c r="B351" t="s">
+        <v>92</v>
+      </c>
+      <c r="C351" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>39</v>
+      </c>
+      <c r="B352" t="s">
+        <v>96</v>
+      </c>
+      <c r="C352" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>25</v>
+      </c>
+      <c r="B353" t="s">
+        <v>92</v>
+      </c>
+      <c r="C353" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>44</v>
+      </c>
+      <c r="B354" t="s">
+        <v>92</v>
+      </c>
+      <c r="C354" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>51</v>
+      </c>
+      <c r="B355" t="s">
+        <v>92</v>
+      </c>
+      <c r="C355" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>51</v>
+      </c>
+      <c r="B356" t="s">
+        <v>91</v>
+      </c>
+      <c r="C356" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>25</v>
+      </c>
+      <c r="B357" t="s">
+        <v>57</v>
+      </c>
+      <c r="C357" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>51</v>
+      </c>
+      <c r="B358" t="s">
+        <v>57</v>
+      </c>
+      <c r="C358" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>25</v>
+      </c>
+      <c r="B359" t="s">
+        <v>91</v>
+      </c>
+      <c r="C359" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>51</v>
+      </c>
+      <c r="B360" t="s">
+        <v>95</v>
+      </c>
+      <c r="C360" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>51</v>
+      </c>
+      <c r="B361" t="s">
+        <v>74</v>
+      </c>
+      <c r="C361" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>51</v>
+      </c>
+      <c r="B362" t="s">
+        <v>66</v>
+      </c>
+      <c r="C362" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>25</v>
+      </c>
+      <c r="B363" t="s">
+        <v>82</v>
+      </c>
+      <c r="C363" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>25</v>
+      </c>
+      <c r="B364" t="s">
+        <v>95</v>
+      </c>
+      <c r="C364" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+      <c r="B365" t="s">
+        <v>74</v>
+      </c>
+      <c r="C365" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>24</v>
+      </c>
+      <c r="B366" t="s">
+        <v>82</v>
+      </c>
+      <c r="C366" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>24</v>
+      </c>
+      <c r="B367" t="s">
+        <v>95</v>
+      </c>
+      <c r="C367" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368" t="s">
+        <v>81</v>
+      </c>
+      <c r="C368" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>24</v>
+      </c>
+      <c r="B369" t="s">
+        <v>91</v>
+      </c>
+      <c r="C369" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>44</v>
+      </c>
+      <c r="B370" t="s">
+        <v>82</v>
+      </c>
+      <c r="C370" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>52</v>
+      </c>
+      <c r="B371" t="s">
+        <v>95</v>
+      </c>
+      <c r="C371" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>44</v>
+      </c>
+      <c r="B372" t="s">
+        <v>95</v>
+      </c>
+      <c r="C372" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373" t="s">
+        <v>95</v>
+      </c>
+      <c r="C373" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>36</v>
+      </c>
+      <c r="B374" t="s">
+        <v>95</v>
+      </c>
+      <c r="C374" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" t="s">
+        <v>95</v>
+      </c>
+      <c r="C375" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>44</v>
+      </c>
+      <c r="B376" t="s">
+        <v>58</v>
+      </c>
+      <c r="C376" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>44</v>
+      </c>
+      <c r="B377" t="s">
+        <v>54</v>
+      </c>
+      <c r="C377" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>44</v>
+      </c>
+      <c r="B378" t="s">
+        <v>81</v>
+      </c>
+      <c r="C378" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>36</v>
+      </c>
+      <c r="B379" t="s">
+        <v>91</v>
+      </c>
+      <c r="C379" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>36</v>
+      </c>
+      <c r="B380" t="s">
+        <v>92</v>
+      </c>
+      <c r="C380" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" t="s">
+        <v>81</v>
+      </c>
+      <c r="C381" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>36</v>
+      </c>
+      <c r="B382" t="s">
+        <v>74</v>
+      </c>
+      <c r="C382" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>28</v>
+      </c>
+      <c r="B383" t="s">
+        <v>95</v>
+      </c>
+      <c r="C383" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>39</v>
+      </c>
+      <c r="B384" t="s">
+        <v>92</v>
+      </c>
+      <c r="C384" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>31</v>
+      </c>
+      <c r="B385" t="s">
+        <v>82</v>
+      </c>
+      <c r="C385" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>39</v>
+      </c>
+      <c r="B386" t="s">
+        <v>95</v>
+      </c>
+      <c r="C386" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>39</v>
+      </c>
+      <c r="B387" t="s">
+        <v>74</v>
+      </c>
+      <c r="C387" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>31</v>
+      </c>
+      <c r="B388" t="s">
+        <v>95</v>
+      </c>
+      <c r="C388" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>31</v>
+      </c>
+      <c r="B389" t="s">
+        <v>81</v>
+      </c>
+      <c r="C389" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>32</v>
+      </c>
+      <c r="B390" t="s">
+        <v>81</v>
+      </c>
+      <c r="C390" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>28</v>
+      </c>
+      <c r="B391" t="s">
+        <v>82</v>
+      </c>
+      <c r="C391" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" t="s">
+        <v>81</v>
+      </c>
+      <c r="C392" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>15</v>
+      </c>
+      <c r="B393" t="s">
+        <v>95</v>
+      </c>
+      <c r="C393" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>32</v>
+      </c>
+      <c r="B394" t="s">
+        <v>82</v>
+      </c>
+      <c r="C394" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>32</v>
+      </c>
+      <c r="B395" t="s">
+        <v>95</v>
+      </c>
+      <c r="C395" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>46</v>
+      </c>
+      <c r="B396" t="s">
+        <v>81</v>
+      </c>
+      <c r="C396" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>46</v>
+      </c>
+      <c r="B397" t="s">
+        <v>82</v>
+      </c>
+      <c r="C397" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>26</v>
+      </c>
+      <c r="B398" t="s">
+        <v>95</v>
+      </c>
+      <c r="C398" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>46</v>
+      </c>
+      <c r="B399" t="s">
+        <v>95</v>
+      </c>
+      <c r="C399" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" t="s">
+        <v>95</v>
+      </c>
+      <c r="C400" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401" t="s">
+        <v>81</v>
+      </c>
+      <c r="C401" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+      <c r="B402" t="s">
+        <v>95</v>
+      </c>
+      <c r="C402" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>27</v>
+      </c>
+      <c r="B403" t="s">
+        <v>95</v>
+      </c>
+      <c r="C403" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" t="s">
+        <v>82</v>
+      </c>
+      <c r="C404" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" t="s">
+        <v>95</v>
+      </c>
+      <c r="C405" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>43</v>
+      </c>
+      <c r="B406" t="s">
+        <v>95</v>
+      </c>
+      <c r="C406" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>43</v>
+      </c>
+      <c r="B407" t="s">
+        <v>81</v>
+      </c>
+      <c r="C407" t="s">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="488">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Emoji</t>
+  </si>
+  <si>
     <t>Based64</t>
   </si>
   <si>
@@ -175,12 +178,12 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
     <t>YoursTruly</t>
   </si>
   <si>
-    <t>0xN1kU_H4X_!</t>
-  </si>
-  <si>
     <t>GNU</t>
   </si>
   <si>
@@ -311,6 +314,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Aug. 29, 2025, 2:12 a.m.</t>
   </si>
   <si>
     <t>Aug. 13, 2025, 5:50 a.m.</t>
@@ -1829,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C407"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,21 +1857,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1876,7 +1882,7 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1887,7 +1893,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1898,7 +1904,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1909,7 +1915,7 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1920,7 +1926,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1931,7 +1937,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1942,7 +1948,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1953,7 +1959,7 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1964,7 +1970,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1975,7 +1981,7 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1986,7 +1992,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1997,7 +2003,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2008,7 +2014,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2019,7 +2025,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2030,7 +2036,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2041,7 +2047,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2052,7 +2058,7 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2063,7 +2069,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2074,29 +2080,29 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2104,10 +2110,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2118,7 +2124,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2129,7 +2135,7 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2140,7 +2146,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2151,7 +2157,7 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2162,7 +2168,7 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2173,7 +2179,7 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2184,7 +2190,7 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2192,10 +2198,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2203,32 +2209,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2239,7 +2245,7 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2250,7 +2256,7 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2258,32 +2264,32 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2291,10 +2297,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2302,76 +2308,76 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2379,120 +2385,120 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2500,10 +2506,10 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2511,43 +2517,43 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2555,120 +2561,120 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2676,252 +2682,252 @@
         <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2932,117 +2938,117 @@
         <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3050,76 +3056,76 @@
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3127,186 +3133,186 @@
         <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
         <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3314,109 +3320,109 @@
         <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C144" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3424,835 +3430,835 @@
         <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C150" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C151" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C153" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C156" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C162" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B164" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C165" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C168" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C170" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C171" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C172" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C173" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C174" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C175" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C177" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C180" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B182" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C182" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C183" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B185" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C187" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B188" t="s">
         <v>61</v>
       </c>
       <c r="C188" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C189" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C190" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C191" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B192" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C192" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C193" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C194" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C195" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C197" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C198" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B200" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C200" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C201" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C202" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B203" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C203" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B205" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C205" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B206" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C207" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B208" t="s">
         <v>91</v>
       </c>
       <c r="C208" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C209" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B210" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C210" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C211" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B212" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C212" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C213" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C214" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C215" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B217" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C217" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B218" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C218" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B219" t="s">
         <v>91</v>
       </c>
       <c r="C219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B220" t="s">
         <v>92</v>
       </c>
       <c r="C220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4260,384 +4266,384 @@
         <v>50</v>
       </c>
       <c r="B221" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B222" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C223" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B224" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C224" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B225" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B226" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C226" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C227" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C228" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B229" t="s">
         <v>95</v>
       </c>
       <c r="C229" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C230" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C231" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B232" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C232" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B233" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C233" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B234" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C235" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B236" t="s">
         <v>54</v>
       </c>
       <c r="C236" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B237" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C237" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C238" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C239" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C240" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C241" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B242" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C243" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B244" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C244" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C245" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C247" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C248" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C249" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C250" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C251" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C252" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C253" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C254" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B255" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C255" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4645,109 +4651,109 @@
         <v>27</v>
       </c>
       <c r="B256" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C256" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B257" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C257" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B258" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C258" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B259" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C259" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B260" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C260" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B261" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C261" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B262" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C262" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B263" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C263" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B264" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C264" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B265" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C265" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4755,32 +4761,32 @@
         <v>20</v>
       </c>
       <c r="B266" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C266" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B267" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C267" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C268" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4788,604 +4794,604 @@
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C269" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B270" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C270" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B271" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C271" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B272" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C272" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C273" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C274" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C275" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B276" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C276" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B277" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C277" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B278" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C278" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B279" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C279" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B280" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C280" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B281" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C281" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B282" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C282" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B283" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C283" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C284" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B285" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C285" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B286" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C286" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B287" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C287" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C288" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B289" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C289" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B290" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C290" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C291" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B292" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C292" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B293" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C293" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B294" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C294" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C295" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B296" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C296" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B297" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C297" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B298" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C298" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B299" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C299" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B300" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C300" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B301" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C301" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B302" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C302" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B303" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C303" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B304" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C304" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B305" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C305" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B306" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C306" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B307" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C307" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B308" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C308" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B309" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C309" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B310" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C310" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C311" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C312" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B313" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C313" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B314" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C314" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B315" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C315" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B316" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C316" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B317" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C317" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B318" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C318" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B319" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C319" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C320" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C321" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C322" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B323" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C323" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5393,725 +5399,725 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C324" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C325" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C326" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C327" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B328" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C328" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B329" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C329" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B330" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C330" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B331" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C331" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B332" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C332" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C333" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B334" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C334" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C335" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C336" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C337" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C338" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C339" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B340" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C340" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B341" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C341" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C342" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C343" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B344" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C344" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B345" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C345" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B346" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C346" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B347" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C347" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B348" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C348" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C349" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B350" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C350" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B351" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C351" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B352" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C352" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B353" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C353" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B354" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C354" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B355" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C355" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B356" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C356" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B357" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C357" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B358" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C358" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B359" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C359" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B360" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C360" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B361" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C361" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B362" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C362" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B363" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C363" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B364" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C364" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B365" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C365" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B366" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C366" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B367" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C367" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B368" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C368" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B369" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C369" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B370" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C370" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B371" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C371" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B372" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C372" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B373" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C373" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B374" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C374" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B375" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C375" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B376" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C376" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B377" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C377" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B378" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C378" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B379" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C379" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B380" t="s">
         <v>92</v>
       </c>
       <c r="C380" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B381" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C381" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B382" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C382" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B383" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C383" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B384" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C384" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B385" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C385" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B386" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C386" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B387" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C387" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B388" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C388" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B389" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C389" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6119,197 +6125,208 @@
         <v>32</v>
       </c>
       <c r="B390" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C390" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B391" t="s">
         <v>82</v>
       </c>
       <c r="C391" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B392" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C392" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B393" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C393" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B394" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B395" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C395" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B396" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C396" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B397" t="s">
         <v>82</v>
       </c>
       <c r="C397" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B398" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C398" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B399" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C399" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B400" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C400" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B401" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C401" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B402" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C402" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B403" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C403" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B404" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C404" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B405" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C405" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B406" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C406" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B407" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C407" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>44</v>
+      </c>
+      <c r="B408" t="s">
+        <v>82</v>
+      </c>
+      <c r="C408" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="489">
   <si>
     <t>Challenge</t>
   </si>
@@ -178,6 +178,9 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>p0tato</t>
+  </si>
+  <si>
     <t>0xN1kU_H4X_!</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t>kharayo1x</t>
   </si>
   <si>
-    <t>p0tato</t>
-  </si>
-  <si>
     <t>hello_you0</t>
   </si>
   <si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Aug. 29, 2025, 2:22 a.m.</t>
   </si>
   <si>
     <t>Aug. 29, 2025, 2:12 a.m.</t>
@@ -1835,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -1879,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
@@ -1887,10 +1890,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -1898,10 +1901,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -1909,10 +1912,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -1920,10 +1923,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -1931,10 +1934,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -1942,10 +1945,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1953,10 +1956,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -1964,10 +1967,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>110</v>
@@ -1975,10 +1978,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
@@ -1986,10 +1989,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>112</v>
@@ -1997,10 +2000,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>113</v>
@@ -2008,10 +2011,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>114</v>
@@ -2019,10 +2022,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>115</v>
@@ -2030,10 +2033,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>116</v>
@@ -2041,10 +2044,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>117</v>
@@ -2052,10 +2055,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2063,10 +2066,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -2074,10 +2077,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>120</v>
@@ -2085,10 +2088,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>121</v>
@@ -2099,7 +2102,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>122</v>
@@ -2110,7 +2113,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>123</v>
@@ -2118,10 +2121,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>124</v>
@@ -2129,10 +2132,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>125</v>
@@ -2140,10 +2143,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>126</v>
@@ -2151,10 +2154,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -2162,10 +2165,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
@@ -2173,10 +2176,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>129</v>
@@ -2184,10 +2187,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>130</v>
@@ -2195,10 +2198,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>131</v>
@@ -2206,10 +2209,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>132</v>
@@ -2217,10 +2220,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
         <v>133</v>
@@ -2228,10 +2231,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
         <v>134</v>
@@ -2239,10 +2242,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>135</v>
@@ -2250,7 +2253,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
@@ -2261,7 +2264,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -2272,10 +2275,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>138</v>
@@ -2283,10 +2286,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>139</v>
@@ -2294,10 +2297,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>140</v>
@@ -2305,10 +2308,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>141</v>
@@ -2316,10 +2319,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>142</v>
@@ -2330,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>143</v>
@@ -2338,10 +2341,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>144</v>
@@ -2349,10 +2352,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>145</v>
@@ -2363,7 +2366,7 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>146</v>
@@ -2371,10 +2374,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>147</v>
@@ -2382,10 +2385,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
         <v>148</v>
@@ -2393,10 +2396,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>149</v>
@@ -2404,10 +2407,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>150</v>
@@ -2415,10 +2418,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>151</v>
@@ -2426,10 +2429,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>152</v>
@@ -2437,10 +2440,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>153</v>
@@ -2448,10 +2451,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>154</v>
@@ -2470,10 +2473,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>156</v>
@@ -2481,18 +2484,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2503,10 +2506,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>158</v>
@@ -2514,10 +2517,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>159</v>
@@ -2525,10 +2528,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -2547,10 +2550,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>162</v>
@@ -2558,10 +2561,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>163</v>
@@ -2569,10 +2572,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>164</v>
@@ -2580,10 +2583,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>165</v>
@@ -2591,10 +2594,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>166</v>
@@ -2602,10 +2605,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
         <v>167</v>
@@ -2613,10 +2616,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
         <v>168</v>
@@ -2624,13 +2627,13 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2646,7 +2649,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
@@ -2657,10 +2660,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>171</v>
@@ -2668,10 +2671,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
         <v>172</v>
@@ -2679,10 +2682,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>173</v>
@@ -2690,10 +2693,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
         <v>174</v>
@@ -2701,10 +2704,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
         <v>175</v>
@@ -2712,10 +2715,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
         <v>176</v>
@@ -2723,13 +2726,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2740,12 +2743,12 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
@@ -2767,7 +2770,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
@@ -2778,10 +2781,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
         <v>180</v>
@@ -2789,10 +2792,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
         <v>181</v>
@@ -2800,10 +2803,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
         <v>182</v>
@@ -2814,7 +2817,7 @@
         <v>44</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
         <v>183</v>
@@ -2825,29 +2828,29 @@
         <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
         <v>184</v>
@@ -2858,7 +2861,7 @@
         <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
         <v>185</v>
@@ -2869,7 +2872,7 @@
         <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
         <v>186</v>
@@ -2880,7 +2883,7 @@
         <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
         <v>187</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C96" t="s">
         <v>188</v>
@@ -2899,10 +2902,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
         <v>189</v>
@@ -2910,10 +2913,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
         <v>190</v>
@@ -2921,10 +2924,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
@@ -2932,10 +2935,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
         <v>192</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
@@ -2954,10 +2957,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
         <v>194</v>
@@ -2965,10 +2968,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
         <v>195</v>
@@ -2976,10 +2979,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
         <v>196</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
         <v>80</v>
@@ -2998,10 +3001,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
         <v>198</v>
@@ -3009,10 +3012,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
         <v>199</v>
@@ -3020,10 +3023,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
         <v>200</v>
@@ -3031,10 +3034,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
         <v>201</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
         <v>202</v>
@@ -3053,10 +3056,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
         <v>203</v>
@@ -3064,10 +3067,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C112" t="s">
         <v>204</v>
@@ -3075,10 +3078,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
         <v>205</v>
@@ -3086,10 +3089,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
         <v>206</v>
@@ -3097,10 +3100,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C115" t="s">
         <v>207</v>
@@ -3108,10 +3111,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C116" t="s">
         <v>208</v>
@@ -3119,10 +3122,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C117" t="s">
         <v>209</v>
@@ -3130,10 +3133,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
         <v>210</v>
@@ -3141,10 +3144,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C119" t="s">
         <v>211</v>
@@ -3152,10 +3155,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C120" t="s">
         <v>212</v>
@@ -3163,10 +3166,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
         <v>213</v>
@@ -3174,10 +3177,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
         <v>214</v>
@@ -3185,10 +3188,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C123" t="s">
         <v>215</v>
@@ -3196,10 +3199,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C124" t="s">
         <v>216</v>
@@ -3218,10 +3221,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C126" t="s">
         <v>218</v>
@@ -3229,10 +3232,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s">
         <v>219</v>
@@ -3240,10 +3243,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
         <v>220</v>
@@ -3251,10 +3254,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
         <v>221</v>
@@ -3262,10 +3265,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s">
         <v>222</v>
@@ -3273,10 +3276,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C131" t="s">
         <v>223</v>
@@ -3284,10 +3287,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
         <v>224</v>
@@ -3295,10 +3298,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
         <v>225</v>
@@ -3306,10 +3309,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
         <v>226</v>
@@ -3317,10 +3320,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
         <v>227</v>
@@ -3328,10 +3331,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
         <v>228</v>
@@ -3339,10 +3342,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C137" t="s">
         <v>229</v>
@@ -3350,21 +3353,21 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
         <v>230</v>
@@ -3372,10 +3375,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C140" t="s">
         <v>231</v>
@@ -3383,10 +3386,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C141" t="s">
         <v>232</v>
@@ -3394,10 +3397,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -3405,10 +3408,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
         <v>234</v>
@@ -3416,10 +3419,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C144" t="s">
         <v>235</v>
@@ -3427,21 +3430,21 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C145" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C146" t="s">
         <v>236</v>
@@ -3452,18 +3455,18 @@
         <v>48</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
         <v>237</v>
@@ -3471,10 +3474,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C149" t="s">
         <v>238</v>
@@ -3482,10 +3485,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C150" t="s">
         <v>239</v>
@@ -3493,10 +3496,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C151" t="s">
         <v>240</v>
@@ -3504,10 +3507,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C152" t="s">
         <v>241</v>
@@ -3515,13 +3518,13 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C153" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3529,7 +3532,7 @@
         <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C154" t="s">
         <v>242</v>
@@ -3537,10 +3540,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
         <v>243</v>
@@ -3548,10 +3551,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C156" t="s">
         <v>244</v>
@@ -3559,21 +3562,21 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C157" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
         <v>245</v>
@@ -3581,10 +3584,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C159" t="s">
         <v>246</v>
@@ -3592,10 +3595,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C160" t="s">
         <v>247</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
         <v>85</v>
@@ -3614,10 +3617,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C162" t="s">
         <v>249</v>
@@ -3625,10 +3628,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
         <v>250</v>
@@ -3639,7 +3642,7 @@
         <v>52</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C164" t="s">
         <v>251</v>
@@ -3647,21 +3650,21 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C165" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B166" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C166" t="s">
         <v>252</v>
@@ -3669,10 +3672,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C167" t="s">
         <v>253</v>
@@ -3680,10 +3683,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C168" t="s">
         <v>254</v>
@@ -3691,10 +3694,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C169" t="s">
         <v>255</v>
@@ -3702,10 +3705,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C170" t="s">
         <v>256</v>
@@ -3713,10 +3716,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C171" t="s">
         <v>257</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B172" t="s">
         <v>88</v>
@@ -3738,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C173" t="s">
         <v>259</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
         <v>85</v>
@@ -3757,10 +3760,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B175" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C175" t="s">
         <v>261</v>
@@ -3768,7 +3771,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
         <v>89</v>
@@ -3779,10 +3782,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B177" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C177" t="s">
         <v>263</v>
@@ -3790,10 +3793,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C178" t="s">
         <v>264</v>
@@ -3801,10 +3804,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C179" t="s">
         <v>265</v>
@@ -3812,32 +3815,32 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C182" t="s">
         <v>266</v>
@@ -3845,10 +3848,10 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B183" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C183" t="s">
         <v>267</v>
@@ -3856,10 +3859,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C184" t="s">
         <v>268</v>
@@ -3867,10 +3870,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C185" t="s">
         <v>269</v>
@@ -3881,7 +3884,7 @@
         <v>44</v>
       </c>
       <c r="B186" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C186" t="s">
         <v>270</v>
@@ -3889,10 +3892,10 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C187" t="s">
         <v>271</v>
@@ -3900,10 +3903,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C188" t="s">
         <v>272</v>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B189" t="s">
         <v>62</v>
@@ -3925,7 +3928,7 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C190" t="s">
         <v>274</v>
@@ -3933,10 +3936,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C191" t="s">
         <v>275</v>
@@ -3944,7 +3947,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
         <v>90</v>
@@ -3955,10 +3958,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B193" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C193" t="s">
         <v>277</v>
@@ -3966,10 +3969,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C194" t="s">
         <v>278</v>
@@ -3977,10 +3980,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C195" t="s">
         <v>279</v>
@@ -3988,10 +3991,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C196" t="s">
         <v>280</v>
@@ -3999,21 +4002,21 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C197" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
         <v>281</v>
@@ -4021,10 +4024,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C199" t="s">
         <v>282</v>
@@ -4032,10 +4035,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C200" t="s">
         <v>283</v>
@@ -4043,10 +4046,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C201" t="s">
         <v>284</v>
@@ -4054,10 +4057,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B202" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C202" t="s">
         <v>285</v>
@@ -4065,10 +4068,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C203" t="s">
         <v>286</v>
@@ -4079,7 +4082,7 @@
         <v>50</v>
       </c>
       <c r="B204" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C204" t="s">
         <v>287</v>
@@ -4090,7 +4093,7 @@
         <v>50</v>
       </c>
       <c r="B205" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C205" t="s">
         <v>288</v>
@@ -4098,10 +4101,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B206" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C206" t="s">
         <v>289</v>
@@ -4109,10 +4112,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B207" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C207" t="s">
         <v>290</v>
@@ -4120,10 +4123,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B208" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C208" t="s">
         <v>291</v>
@@ -4131,10 +4134,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B209" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C209" t="s">
         <v>292</v>
@@ -4142,10 +4145,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B210" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C210" t="s">
         <v>293</v>
@@ -4153,10 +4156,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B211" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C211" t="s">
         <v>294</v>
@@ -4164,10 +4167,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C212" t="s">
         <v>295</v>
@@ -4175,10 +4178,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B213" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C213" t="s">
         <v>296</v>
@@ -4189,7 +4192,7 @@
         <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C214" t="s">
         <v>297</v>
@@ -4197,10 +4200,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B215" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C215" t="s">
         <v>298</v>
@@ -4208,10 +4211,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B216" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C216" t="s">
         <v>299</v>
@@ -4219,10 +4222,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B217" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C217" t="s">
         <v>300</v>
@@ -4230,10 +4233,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C218" t="s">
         <v>301</v>
@@ -4244,7 +4247,7 @@
         <v>38</v>
       </c>
       <c r="B219" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C219" t="s">
         <v>302</v>
@@ -4252,10 +4255,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B220" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C220" t="s">
         <v>303</v>
@@ -4266,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="B221" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C221" t="s">
         <v>304</v>
@@ -4274,10 +4277,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C222" t="s">
         <v>305</v>
@@ -4288,7 +4291,7 @@
         <v>51</v>
       </c>
       <c r="B223" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C223" t="s">
         <v>306</v>
@@ -4296,10 +4299,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B224" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C224" t="s">
         <v>307</v>
@@ -4307,7 +4310,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B225" t="s">
         <v>94</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B226" t="s">
         <v>94</v>
@@ -4329,10 +4332,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B227" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C227" t="s">
         <v>310</v>
@@ -4340,10 +4343,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B228" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C228" t="s">
         <v>311</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B229" t="s">
         <v>95</v>
@@ -4365,7 +4368,7 @@
         <v>50</v>
       </c>
       <c r="B230" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C230" t="s">
         <v>313</v>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B231" t="s">
         <v>96</v>
@@ -4384,10 +4387,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C232" t="s">
         <v>315</v>
@@ -4398,7 +4401,7 @@
         <v>48</v>
       </c>
       <c r="B233" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C233" t="s">
         <v>316</v>
@@ -4409,7 +4412,7 @@
         <v>48</v>
       </c>
       <c r="B234" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C234" t="s">
         <v>317</v>
@@ -4417,10 +4420,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B235" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C235" t="s">
         <v>318</v>
@@ -4431,7 +4434,7 @@
         <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C236" t="s">
         <v>319</v>
@@ -4439,10 +4442,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C237" t="s">
         <v>320</v>
@@ -4453,7 +4456,7 @@
         <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C238" t="s">
         <v>321</v>
@@ -4464,7 +4467,7 @@
         <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C239" t="s">
         <v>322</v>
@@ -4475,7 +4478,7 @@
         <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C240" t="s">
         <v>323</v>
@@ -4486,7 +4489,7 @@
         <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C241" t="s">
         <v>324</v>
@@ -4494,10 +4497,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B242" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C242" t="s">
         <v>325</v>
@@ -4508,7 +4511,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C243" t="s">
         <v>326</v>
@@ -4516,10 +4519,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C244" t="s">
         <v>327</v>
@@ -4527,10 +4530,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C245" t="s">
         <v>328</v>
@@ -4538,10 +4541,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C246" t="s">
         <v>329</v>
@@ -4552,7 +4555,7 @@
         <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C247" t="s">
         <v>330</v>
@@ -4563,7 +4566,7 @@
         <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C248" t="s">
         <v>331</v>
@@ -4574,7 +4577,7 @@
         <v>49</v>
       </c>
       <c r="B249" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C249" t="s">
         <v>332</v>
@@ -4585,7 +4588,7 @@
         <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C250" t="s">
         <v>333</v>
@@ -4593,10 +4596,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C251" t="s">
         <v>334</v>
@@ -4607,7 +4610,7 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C252" t="s">
         <v>335</v>
@@ -4615,10 +4618,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C253" t="s">
         <v>336</v>
@@ -4626,10 +4629,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B254" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C254" t="s">
         <v>337</v>
@@ -4637,10 +4640,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C255" t="s">
         <v>338</v>
@@ -4648,10 +4651,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B256" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C256" t="s">
         <v>339</v>
@@ -4659,7 +4662,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B257" t="s">
         <v>92</v>
@@ -4670,10 +4673,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B258" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C258" t="s">
         <v>341</v>
@@ -4681,10 +4684,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B259" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C259" t="s">
         <v>342</v>
@@ -4692,10 +4695,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B260" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C260" t="s">
         <v>343</v>
@@ -4703,10 +4706,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B261" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C261" t="s">
         <v>344</v>
@@ -4714,7 +4717,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B262" t="s">
         <v>92</v>
@@ -4725,7 +4728,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B263" t="s">
         <v>92</v>
@@ -4736,10 +4739,10 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B264" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C264" t="s">
         <v>347</v>
@@ -4747,10 +4750,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B265" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C265" t="s">
         <v>348</v>
@@ -4758,10 +4761,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B266" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C266" t="s">
         <v>349</v>
@@ -4769,10 +4772,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B267" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C267" t="s">
         <v>350</v>
@@ -4780,10 +4783,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B268" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C268" t="s">
         <v>351</v>
@@ -4794,7 +4797,7 @@
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C269" t="s">
         <v>352</v>
@@ -4802,10 +4805,10 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B270" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C270" t="s">
         <v>353</v>
@@ -4813,10 +4816,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C271" t="s">
         <v>354</v>
@@ -4824,10 +4827,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B272" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C272" t="s">
         <v>355</v>
@@ -4835,10 +4838,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B273" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C273" t="s">
         <v>356</v>
@@ -4849,7 +4852,7 @@
         <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C274" t="s">
         <v>357</v>
@@ -4857,10 +4860,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C275" t="s">
         <v>358</v>
@@ -4868,10 +4871,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B276" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C276" t="s">
         <v>359</v>
@@ -4879,10 +4882,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B277" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C277" t="s">
         <v>360</v>
@@ -4890,10 +4893,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B278" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C278" t="s">
         <v>361</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B279" t="s">
         <v>92</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B280" t="s">
         <v>92</v>
@@ -4923,10 +4926,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B281" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C281" t="s">
         <v>364</v>
@@ -4937,7 +4940,7 @@
         <v>42</v>
       </c>
       <c r="B282" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C282" t="s">
         <v>365</v>
@@ -4945,10 +4948,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B283" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C283" t="s">
         <v>366</v>
@@ -4956,10 +4959,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B284" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C284" t="s">
         <v>367</v>
@@ -4967,10 +4970,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C285" t="s">
         <v>368</v>
@@ -4978,10 +4981,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B286" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C286" t="s">
         <v>369</v>
@@ -4992,7 +4995,7 @@
         <v>41</v>
       </c>
       <c r="B287" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C287" t="s">
         <v>370</v>
@@ -5000,10 +5003,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B288" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C288" t="s">
         <v>371</v>
@@ -5011,10 +5014,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C289" t="s">
         <v>372</v>
@@ -5022,10 +5025,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B290" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C290" t="s">
         <v>373</v>
@@ -5033,7 +5036,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B291" t="s">
         <v>92</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B292" t="s">
         <v>92</v>
@@ -5055,10 +5058,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B293" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C293" t="s">
         <v>376</v>
@@ -5066,10 +5069,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B294" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C294" t="s">
         <v>377</v>
@@ -5080,7 +5083,7 @@
         <v>34</v>
       </c>
       <c r="B295" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C295" t="s">
         <v>378</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B296" t="s">
         <v>96</v>
@@ -5099,10 +5102,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B297" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C297" t="s">
         <v>380</v>
@@ -5110,10 +5113,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C298" t="s">
         <v>381</v>
@@ -5124,7 +5127,7 @@
         <v>36</v>
       </c>
       <c r="B299" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C299" t="s">
         <v>382</v>
@@ -5132,10 +5135,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B300" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C300" t="s">
         <v>383</v>
@@ -5143,10 +5146,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B301" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C301" t="s">
         <v>384</v>
@@ -5157,7 +5160,7 @@
         <v>36</v>
       </c>
       <c r="B302" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C302" t="s">
         <v>385</v>
@@ -5168,18 +5171,18 @@
         <v>36</v>
       </c>
       <c r="B303" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C303" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B304" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C304" t="s">
         <v>386</v>
@@ -5190,7 +5193,7 @@
         <v>41</v>
       </c>
       <c r="B305" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C305" t="s">
         <v>387</v>
@@ -5201,7 +5204,7 @@
         <v>41</v>
       </c>
       <c r="B306" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C306" t="s">
         <v>388</v>
@@ -5209,10 +5212,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B307" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C307" t="s">
         <v>389</v>
@@ -5220,10 +5223,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B308" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C308" t="s">
         <v>390</v>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B309" t="s">
         <v>98</v>
@@ -5242,7 +5245,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B310" t="s">
         <v>98</v>
@@ -5253,10 +5256,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B311" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C311" t="s">
         <v>393</v>
@@ -5264,10 +5267,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="C312" t="s">
         <v>394</v>
@@ -5275,7 +5278,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B313" t="s">
         <v>96</v>
@@ -5289,7 +5292,7 @@
         <v>22</v>
       </c>
       <c r="B314" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C314" t="s">
         <v>396</v>
@@ -5297,10 +5300,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B315" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C315" t="s">
         <v>397</v>
@@ -5308,10 +5311,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B316" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C316" t="s">
         <v>398</v>
@@ -5319,10 +5322,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B317" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C317" t="s">
         <v>399</v>
@@ -5330,10 +5333,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B318" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C318" t="s">
         <v>400</v>
@@ -5341,10 +5344,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B319" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C319" t="s">
         <v>401</v>
@@ -5352,10 +5355,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B320" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C320" t="s">
         <v>402</v>
@@ -5366,7 +5369,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C321" t="s">
         <v>403</v>
@@ -5377,7 +5380,7 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C322" t="s">
         <v>404</v>
@@ -5385,10 +5388,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C323" t="s">
         <v>405</v>
@@ -5396,10 +5399,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B324" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C324" t="s">
         <v>406</v>
@@ -5407,10 +5410,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C325" t="s">
         <v>407</v>
@@ -5418,10 +5421,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C326" t="s">
         <v>408</v>
@@ -5429,10 +5432,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C327" t="s">
         <v>409</v>
@@ -5440,10 +5443,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B328" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C328" t="s">
         <v>410</v>
@@ -5454,7 +5457,7 @@
         <v>12</v>
       </c>
       <c r="B329" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C329" t="s">
         <v>411</v>
@@ -5462,10 +5465,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B330" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C330" t="s">
         <v>412</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B331" t="s">
         <v>99</v>
@@ -5484,10 +5487,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B332" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C332" t="s">
         <v>414</v>
@@ -5498,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C333" t="s">
         <v>415</v>
@@ -5506,21 +5509,21 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C334" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B335" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C335" t="s">
         <v>416</v>
@@ -5531,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C336" t="s">
         <v>417</v>
@@ -5542,7 +5545,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C337" t="s">
         <v>418</v>
@@ -5553,7 +5556,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C338" t="s">
         <v>419</v>
@@ -5561,10 +5564,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C339" t="s">
         <v>420</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B340" t="s">
         <v>93</v>
@@ -5586,7 +5589,7 @@
         <v>14</v>
       </c>
       <c r="B341" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C341" t="s">
         <v>422</v>
@@ -5597,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C342" t="s">
         <v>423</v>
@@ -5605,10 +5608,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B343" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C343" t="s">
         <v>424</v>
@@ -5619,7 +5622,7 @@
         <v>10</v>
       </c>
       <c r="B344" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C344" t="s">
         <v>425</v>
@@ -5627,7 +5630,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B345" t="s">
         <v>93</v>
@@ -5641,18 +5644,18 @@
         <v>53</v>
       </c>
       <c r="B346" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C346" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B347" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C347" t="s">
         <v>427</v>
@@ -5660,10 +5663,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B348" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C348" t="s">
         <v>428</v>
@@ -5674,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C349" t="s">
         <v>429</v>
@@ -5682,10 +5685,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B350" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C350" t="s">
         <v>430</v>
@@ -5696,7 +5699,7 @@
         <v>52</v>
       </c>
       <c r="B351" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C351" t="s">
         <v>431</v>
@@ -5704,10 +5707,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B352" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C352" t="s">
         <v>432</v>
@@ -5715,10 +5718,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B353" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C353" t="s">
         <v>433</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B354" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C354" t="s">
         <v>434</v>
@@ -5737,7 +5740,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B355" t="s">
         <v>93</v>
@@ -5748,7 +5751,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B356" t="s">
         <v>93</v>
@@ -5762,7 +5765,7 @@
         <v>52</v>
       </c>
       <c r="B357" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C357" t="s">
         <v>437</v>
@@ -5770,10 +5773,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B358" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C358" t="s">
         <v>438</v>
@@ -5781,10 +5784,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B359" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C359" t="s">
         <v>439</v>
@@ -5792,10 +5795,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B360" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C360" t="s">
         <v>440</v>
@@ -5803,10 +5806,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B361" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C361" t="s">
         <v>441</v>
@@ -5817,7 +5820,7 @@
         <v>52</v>
       </c>
       <c r="B362" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C362" t="s">
         <v>442</v>
@@ -5828,7 +5831,7 @@
         <v>52</v>
       </c>
       <c r="B363" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C363" t="s">
         <v>443</v>
@@ -5836,10 +5839,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B364" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C364" t="s">
         <v>444</v>
@@ -5850,7 +5853,7 @@
         <v>26</v>
       </c>
       <c r="B365" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C365" t="s">
         <v>445</v>
@@ -5861,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="B366" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C366" t="s">
         <v>446</v>
@@ -5869,10 +5872,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B367" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C367" t="s">
         <v>447</v>
@@ -5883,7 +5886,7 @@
         <v>25</v>
       </c>
       <c r="B368" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C368" t="s">
         <v>448</v>
@@ -5894,7 +5897,7 @@
         <v>25</v>
       </c>
       <c r="B369" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C369" t="s">
         <v>449</v>
@@ -5905,7 +5908,7 @@
         <v>25</v>
       </c>
       <c r="B370" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C370" t="s">
         <v>450</v>
@@ -5913,10 +5916,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B371" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C371" t="s">
         <v>451</v>
@@ -5924,10 +5927,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B372" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C372" t="s">
         <v>452</v>
@@ -5935,7 +5938,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B373" t="s">
         <v>96</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B374" t="s">
         <v>96</v>
@@ -5957,7 +5960,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B375" t="s">
         <v>96</v>
@@ -5968,7 +5971,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B376" t="s">
         <v>96</v>
@@ -5979,10 +5982,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B377" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C377" t="s">
         <v>457</v>
@@ -5993,7 +5996,7 @@
         <v>45</v>
       </c>
       <c r="B378" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C378" t="s">
         <v>458</v>
@@ -6004,7 +6007,7 @@
         <v>45</v>
       </c>
       <c r="B379" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C379" t="s">
         <v>459</v>
@@ -6012,10 +6015,10 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B380" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C380" t="s">
         <v>460</v>
@@ -6026,7 +6029,7 @@
         <v>37</v>
       </c>
       <c r="B381" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C381" t="s">
         <v>461</v>
@@ -6034,10 +6037,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B382" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C382" t="s">
         <v>462</v>
@@ -6045,10 +6048,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B383" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C383" t="s">
         <v>463</v>
@@ -6056,10 +6059,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B384" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C384" t="s">
         <v>464</v>
@@ -6067,10 +6070,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B385" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C385" t="s">
         <v>465</v>
@@ -6078,10 +6081,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B386" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C386" t="s">
         <v>466</v>
@@ -6089,10 +6092,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B387" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C387" t="s">
         <v>467</v>
@@ -6103,7 +6106,7 @@
         <v>40</v>
       </c>
       <c r="B388" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C388" t="s">
         <v>468</v>
@@ -6111,10 +6114,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B389" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C389" t="s">
         <v>469</v>
@@ -6125,7 +6128,7 @@
         <v>32</v>
       </c>
       <c r="B390" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C390" t="s">
         <v>470</v>
@@ -6133,18 +6136,18 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B391" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C391" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B392" t="s">
         <v>83</v>
@@ -6155,10 +6158,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B393" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C393" t="s">
         <v>472</v>
@@ -6169,7 +6172,7 @@
         <v>16</v>
       </c>
       <c r="B394" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C394" t="s">
         <v>473</v>
@@ -6177,10 +6180,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B395" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C395" t="s">
         <v>474</v>
@@ -6191,7 +6194,7 @@
         <v>33</v>
       </c>
       <c r="B396" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C396" t="s">
         <v>475</v>
@@ -6199,10 +6202,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B397" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C397" t="s">
         <v>476</v>
@@ -6221,10 +6224,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B399" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C399" t="s">
         <v>478</v>
@@ -6232,7 +6235,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B400" t="s">
         <v>96</v>
@@ -6243,7 +6246,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B401" t="s">
         <v>96</v>
@@ -6257,7 +6260,7 @@
         <v>13</v>
       </c>
       <c r="B402" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C402" t="s">
         <v>481</v>
@@ -6265,10 +6268,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B403" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C403" t="s">
         <v>482</v>
@@ -6276,7 +6279,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B404" t="s">
         <v>96</v>
@@ -6287,10 +6290,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B405" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C405" t="s">
         <v>484</v>
@@ -6301,7 +6304,7 @@
         <v>19</v>
       </c>
       <c r="B406" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C406" t="s">
         <v>485</v>
@@ -6309,7 +6312,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B407" t="s">
         <v>96</v>
@@ -6323,10 +6326,21 @@
         <v>44</v>
       </c>
       <c r="B408" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C408" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>44</v>
+      </c>
+      <c r="B409" t="s">
+        <v>83</v>
+      </c>
+      <c r="C409" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="490">
   <si>
     <t>Challenge</t>
   </si>
@@ -178,6 +178,9 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>kharayo1x</t>
+  </si>
+  <si>
     <t>p0tato</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t>Yodha</t>
   </si>
   <si>
-    <t>kharayo1x</t>
-  </si>
-  <si>
     <t>hello_you0</t>
   </si>
   <si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Aug. 29, 2025, 3:50 a.m.</t>
   </si>
   <si>
     <t>Aug. 29, 2025, 2:22 a.m.</t>
@@ -1838,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C409"/>
+  <dimension ref="A1:C410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -1893,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -1901,10 +1904,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -1912,10 +1915,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -1923,10 +1926,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -1934,10 +1937,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1956,10 +1959,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>110</v>
@@ -1978,10 +1981,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
@@ -1989,10 +1992,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>112</v>
@@ -2000,10 +2003,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>113</v>
@@ -2011,10 +2014,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>114</v>
@@ -2022,10 +2025,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>115</v>
@@ -2033,10 +2036,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>116</v>
@@ -2044,10 +2047,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>117</v>
@@ -2055,10 +2058,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -2066,10 +2069,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -2077,10 +2080,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>120</v>
@@ -2088,10 +2091,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>121</v>
@@ -2099,10 +2102,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>122</v>
@@ -2113,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>123</v>
@@ -2124,7 +2127,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>124</v>
@@ -2132,10 +2135,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>125</v>
@@ -2143,10 +2146,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>126</v>
@@ -2154,10 +2157,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -2165,10 +2168,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>128</v>
@@ -2176,10 +2179,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>129</v>
@@ -2187,10 +2190,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>130</v>
@@ -2198,10 +2201,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>131</v>
@@ -2209,10 +2212,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>132</v>
@@ -2220,10 +2223,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>133</v>
@@ -2231,10 +2234,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>134</v>
@@ -2242,10 +2245,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>135</v>
@@ -2253,10 +2256,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -2275,7 +2278,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
@@ -2286,10 +2289,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>139</v>
@@ -2297,10 +2300,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>140</v>
@@ -2308,10 +2311,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>141</v>
@@ -2319,10 +2322,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>142</v>
@@ -2330,10 +2333,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>143</v>
@@ -2344,7 +2347,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
         <v>144</v>
@@ -2352,10 +2355,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>145</v>
@@ -2363,10 +2366,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>146</v>
@@ -2377,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>147</v>
@@ -2385,10 +2388,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>148</v>
@@ -2396,10 +2399,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
         <v>149</v>
@@ -2407,10 +2410,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>150</v>
@@ -2418,10 +2421,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>151</v>
@@ -2429,10 +2432,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>152</v>
@@ -2440,10 +2443,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
         <v>153</v>
@@ -2451,10 +2454,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>154</v>
@@ -2462,10 +2465,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>155</v>
@@ -2484,10 +2487,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
@@ -2495,18 +2498,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2517,10 +2520,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>159</v>
@@ -2528,10 +2531,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
         <v>161</v>
@@ -2550,7 +2553,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -2561,10 +2564,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>163</v>
@@ -2572,10 +2575,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>164</v>
@@ -2583,10 +2586,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
         <v>165</v>
@@ -2594,10 +2597,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>166</v>
@@ -2605,10 +2608,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>167</v>
@@ -2616,10 +2619,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
         <v>168</v>
@@ -2627,10 +2630,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
         <v>169</v>
@@ -2638,13 +2641,13 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2660,7 +2663,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
@@ -2671,10 +2674,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>172</v>
@@ -2682,10 +2685,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
         <v>173</v>
@@ -2693,10 +2696,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
         <v>174</v>
@@ -2704,10 +2707,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
         <v>175</v>
@@ -2715,10 +2718,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>176</v>
@@ -2726,10 +2729,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
         <v>177</v>
@@ -2737,13 +2740,13 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2754,12 +2757,12 @@
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
@@ -2781,7 +2784,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
@@ -2792,10 +2795,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
         <v>181</v>
@@ -2803,10 +2806,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
         <v>182</v>
@@ -2814,10 +2817,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
         <v>183</v>
@@ -2828,7 +2831,7 @@
         <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
         <v>184</v>
@@ -2839,29 +2842,29 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
         <v>185</v>
@@ -2872,7 +2875,7 @@
         <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
         <v>186</v>
@@ -2883,7 +2886,7 @@
         <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
         <v>187</v>
@@ -2894,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
         <v>188</v>
@@ -2902,10 +2905,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
         <v>189</v>
@@ -2913,10 +2916,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
         <v>190</v>
@@ -2924,10 +2927,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
@@ -2935,10 +2938,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
         <v>192</v>
@@ -2946,10 +2949,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
         <v>193</v>
@@ -2957,7 +2960,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" t="s">
         <v>80</v>
@@ -2968,10 +2971,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
         <v>195</v>
@@ -2979,10 +2982,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
         <v>196</v>
@@ -2990,10 +2993,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
         <v>197</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
         <v>81</v>
@@ -3012,10 +3015,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C107" t="s">
         <v>199</v>
@@ -3023,10 +3026,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
         <v>200</v>
@@ -3034,10 +3037,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
         <v>201</v>
@@ -3045,10 +3048,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
         <v>202</v>
@@ -3056,10 +3059,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
         <v>203</v>
@@ -3067,10 +3070,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
         <v>204</v>
@@ -3078,10 +3081,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
         <v>205</v>
@@ -3089,10 +3092,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
         <v>206</v>
@@ -3100,10 +3103,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C115" t="s">
         <v>207</v>
@@ -3111,10 +3114,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
         <v>208</v>
@@ -3122,10 +3125,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
         <v>209</v>
@@ -3133,10 +3136,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C118" t="s">
         <v>210</v>
@@ -3144,10 +3147,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
         <v>211</v>
@@ -3155,10 +3158,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
         <v>212</v>
@@ -3166,10 +3169,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C121" t="s">
         <v>213</v>
@@ -3177,10 +3180,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
         <v>214</v>
@@ -3188,10 +3191,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
         <v>215</v>
@@ -3199,10 +3202,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C124" t="s">
         <v>216</v>
@@ -3210,10 +3213,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C125" t="s">
         <v>217</v>
@@ -3232,10 +3235,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C127" t="s">
         <v>219</v>
@@ -3243,10 +3246,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C128" t="s">
         <v>220</v>
@@ -3254,10 +3257,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C129" t="s">
         <v>221</v>
@@ -3265,10 +3268,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
         <v>222</v>
@@ -3276,10 +3279,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C131" t="s">
         <v>223</v>
@@ -3287,10 +3290,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
         <v>224</v>
@@ -3298,10 +3301,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C133" t="s">
         <v>225</v>
@@ -3309,10 +3312,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C134" t="s">
         <v>226</v>
@@ -3320,10 +3323,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C135" t="s">
         <v>227</v>
@@ -3331,10 +3334,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
         <v>228</v>
@@ -3342,10 +3345,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C137" t="s">
         <v>229</v>
@@ -3353,10 +3356,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C138" t="s">
         <v>230</v>
@@ -3364,21 +3367,21 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C140" t="s">
         <v>231</v>
@@ -3386,10 +3389,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C141" t="s">
         <v>232</v>
@@ -3397,10 +3400,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
@@ -3408,10 +3411,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C143" t="s">
         <v>234</v>
@@ -3419,10 +3422,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C144" t="s">
         <v>235</v>
@@ -3430,10 +3433,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C145" t="s">
         <v>236</v>
@@ -3441,21 +3444,21 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C147" t="s">
         <v>237</v>
@@ -3466,18 +3469,18 @@
         <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B149" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C149" t="s">
         <v>238</v>
@@ -3485,10 +3488,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
         <v>239</v>
@@ -3496,10 +3499,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C151" t="s">
         <v>240</v>
@@ -3507,10 +3510,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C152" t="s">
         <v>241</v>
@@ -3518,10 +3521,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C153" t="s">
         <v>242</v>
@@ -3529,13 +3532,13 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3543,7 +3546,7 @@
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C155" t="s">
         <v>243</v>
@@ -3551,10 +3554,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C156" t="s">
         <v>244</v>
@@ -3562,10 +3565,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C157" t="s">
         <v>245</v>
@@ -3573,21 +3576,21 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C159" t="s">
         <v>246</v>
@@ -3595,10 +3598,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C160" t="s">
         <v>247</v>
@@ -3606,10 +3609,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C161" t="s">
         <v>248</v>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
         <v>85</v>
@@ -3628,10 +3631,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B163" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C163" t="s">
         <v>250</v>
@@ -3639,10 +3642,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C164" t="s">
         <v>251</v>
@@ -3653,7 +3656,7 @@
         <v>52</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C165" t="s">
         <v>252</v>
@@ -3661,21 +3664,21 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C167" t="s">
         <v>253</v>
@@ -3683,10 +3686,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C168" t="s">
         <v>254</v>
@@ -3694,10 +3697,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C169" t="s">
         <v>255</v>
@@ -3705,10 +3708,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
         <v>256</v>
@@ -3716,10 +3719,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C171" t="s">
         <v>257</v>
@@ -3727,10 +3730,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C172" t="s">
         <v>258</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B173" t="s">
         <v>88</v>
@@ -3752,7 +3755,7 @@
         <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C174" t="s">
         <v>260</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
         <v>85</v>
@@ -3771,10 +3774,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C176" t="s">
         <v>262</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
         <v>89</v>
@@ -3793,10 +3796,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C178" t="s">
         <v>264</v>
@@ -3804,10 +3807,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C179" t="s">
         <v>265</v>
@@ -3815,10 +3818,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C180" t="s">
         <v>266</v>
@@ -3826,32 +3829,32 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C183" t="s">
         <v>267</v>
@@ -3859,10 +3862,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B184" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C184" t="s">
         <v>268</v>
@@ -3870,10 +3873,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C185" t="s">
         <v>269</v>
@@ -3881,10 +3884,10 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C186" t="s">
         <v>270</v>
@@ -3895,7 +3898,7 @@
         <v>44</v>
       </c>
       <c r="B187" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C187" t="s">
         <v>271</v>
@@ -3903,10 +3906,10 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B188" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C188" t="s">
         <v>272</v>
@@ -3914,10 +3917,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C189" t="s">
         <v>273</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B190" t="s">
         <v>63</v>
@@ -3939,7 +3942,7 @@
         <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C191" t="s">
         <v>275</v>
@@ -3947,10 +3950,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C192" t="s">
         <v>276</v>
@@ -3958,7 +3961,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
         <v>90</v>
@@ -3969,10 +3972,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C194" t="s">
         <v>278</v>
@@ -3980,10 +3983,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C195" t="s">
         <v>279</v>
@@ -3991,10 +3994,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C196" t="s">
         <v>280</v>
@@ -4002,10 +4005,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C197" t="s">
         <v>281</v>
@@ -4013,21 +4016,21 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B198" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C198" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C199" t="s">
         <v>282</v>
@@ -4035,10 +4038,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B200" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C200" t="s">
         <v>283</v>
@@ -4046,10 +4049,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C201" t="s">
         <v>284</v>
@@ -4057,10 +4060,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C202" t="s">
         <v>285</v>
@@ -4068,10 +4071,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B203" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C203" t="s">
         <v>286</v>
@@ -4079,10 +4082,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B204" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C204" t="s">
         <v>287</v>
@@ -4093,7 +4096,7 @@
         <v>50</v>
       </c>
       <c r="B205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C205" t="s">
         <v>288</v>
@@ -4104,7 +4107,7 @@
         <v>50</v>
       </c>
       <c r="B206" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C206" t="s">
         <v>289</v>
@@ -4112,10 +4115,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B207" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C207" t="s">
         <v>290</v>
@@ -4123,10 +4126,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B208" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C208" t="s">
         <v>291</v>
@@ -4134,10 +4137,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C209" t="s">
         <v>292</v>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B210" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C210" t="s">
         <v>293</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C211" t="s">
         <v>294</v>
@@ -4167,10 +4170,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B212" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C212" t="s">
         <v>295</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C213" t="s">
         <v>296</v>
@@ -4189,10 +4192,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C214" t="s">
         <v>297</v>
@@ -4203,7 +4206,7 @@
         <v>43</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C215" t="s">
         <v>298</v>
@@ -4211,10 +4214,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B216" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C216" t="s">
         <v>299</v>
@@ -4222,10 +4225,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B217" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C217" t="s">
         <v>300</v>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B218" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C218" t="s">
         <v>301</v>
@@ -4244,10 +4247,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C219" t="s">
         <v>302</v>
@@ -4258,7 +4261,7 @@
         <v>38</v>
       </c>
       <c r="B220" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C220" t="s">
         <v>303</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C221" t="s">
         <v>304</v>
@@ -4280,7 +4283,7 @@
         <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C222" t="s">
         <v>305</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B223" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C223" t="s">
         <v>306</v>
@@ -4302,7 +4305,7 @@
         <v>51</v>
       </c>
       <c r="B224" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C224" t="s">
         <v>307</v>
@@ -4310,10 +4313,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B225" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C225" t="s">
         <v>308</v>
@@ -4321,7 +4324,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B226" t="s">
         <v>94</v>
@@ -4332,7 +4335,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B227" t="s">
         <v>94</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B228" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C228" t="s">
         <v>311</v>
@@ -4354,10 +4357,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B229" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C229" t="s">
         <v>312</v>
@@ -4365,7 +4368,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B230" t="s">
         <v>95</v>
@@ -4379,7 +4382,7 @@
         <v>50</v>
       </c>
       <c r="B231" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s">
         <v>314</v>
@@ -4387,7 +4390,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B232" t="s">
         <v>96</v>
@@ -4398,10 +4401,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B233" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C233" t="s">
         <v>316</v>
@@ -4412,7 +4415,7 @@
         <v>48</v>
       </c>
       <c r="B234" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C234" t="s">
         <v>317</v>
@@ -4423,7 +4426,7 @@
         <v>48</v>
       </c>
       <c r="B235" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C235" t="s">
         <v>318</v>
@@ -4431,10 +4434,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B236" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C236" t="s">
         <v>319</v>
@@ -4445,7 +4448,7 @@
         <v>46</v>
       </c>
       <c r="B237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C237" t="s">
         <v>320</v>
@@ -4453,10 +4456,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B238" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C238" t="s">
         <v>321</v>
@@ -4467,7 +4470,7 @@
         <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C239" t="s">
         <v>322</v>
@@ -4478,7 +4481,7 @@
         <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C240" t="s">
         <v>323</v>
@@ -4489,7 +4492,7 @@
         <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C241" t="s">
         <v>324</v>
@@ -4500,7 +4503,7 @@
         <v>50</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C242" t="s">
         <v>325</v>
@@ -4508,10 +4511,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B243" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C243" t="s">
         <v>326</v>
@@ -4522,7 +4525,7 @@
         <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C244" t="s">
         <v>327</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C245" t="s">
         <v>328</v>
@@ -4541,10 +4544,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C246" t="s">
         <v>329</v>
@@ -4552,10 +4555,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C247" t="s">
         <v>330</v>
@@ -4566,7 +4569,7 @@
         <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C248" t="s">
         <v>331</v>
@@ -4577,7 +4580,7 @@
         <v>49</v>
       </c>
       <c r="B249" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C249" t="s">
         <v>332</v>
@@ -4588,7 +4591,7 @@
         <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C250" t="s">
         <v>333</v>
@@ -4599,7 +4602,7 @@
         <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C251" t="s">
         <v>334</v>
@@ -4607,10 +4610,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C252" t="s">
         <v>335</v>
@@ -4621,7 +4624,7 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C253" t="s">
         <v>336</v>
@@ -4629,10 +4632,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C254" t="s">
         <v>337</v>
@@ -4640,10 +4643,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C255" t="s">
         <v>338</v>
@@ -4651,10 +4654,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C256" t="s">
         <v>339</v>
@@ -4662,10 +4665,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B257" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
         <v>340</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B258" t="s">
         <v>92</v>
@@ -4684,10 +4687,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C259" t="s">
         <v>342</v>
@@ -4695,10 +4698,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B260" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C260" t="s">
         <v>343</v>
@@ -4706,10 +4709,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B261" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C261" t="s">
         <v>344</v>
@@ -4717,10 +4720,10 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B262" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C262" t="s">
         <v>345</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B263" t="s">
         <v>92</v>
@@ -4739,7 +4742,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B264" t="s">
         <v>92</v>
@@ -4750,10 +4753,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B265" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C265" t="s">
         <v>348</v>
@@ -4761,10 +4764,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C266" t="s">
         <v>349</v>
@@ -4772,10 +4775,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C267" t="s">
         <v>350</v>
@@ -4783,10 +4786,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C268" t="s">
         <v>351</v>
@@ -4794,10 +4797,10 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B269" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C269" t="s">
         <v>352</v>
@@ -4808,7 +4811,7 @@
         <v>20</v>
       </c>
       <c r="B270" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C270" t="s">
         <v>353</v>
@@ -4816,10 +4819,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B271" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C271" t="s">
         <v>354</v>
@@ -4827,10 +4830,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B272" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C272" t="s">
         <v>355</v>
@@ -4838,10 +4841,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B273" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C273" t="s">
         <v>356</v>
@@ -4849,10 +4852,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B274" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C274" t="s">
         <v>357</v>
@@ -4863,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="B275" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C275" t="s">
         <v>358</v>
@@ -4871,10 +4874,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C276" t="s">
         <v>359</v>
@@ -4882,10 +4885,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C277" t="s">
         <v>360</v>
@@ -4893,10 +4896,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B278" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C278" t="s">
         <v>361</v>
@@ -4904,10 +4907,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B279" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C279" t="s">
         <v>362</v>
@@ -4915,7 +4918,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B280" t="s">
         <v>92</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B281" t="s">
         <v>92</v>
@@ -4937,10 +4940,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C282" t="s">
         <v>365</v>
@@ -4951,7 +4954,7 @@
         <v>42</v>
       </c>
       <c r="B283" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C283" t="s">
         <v>366</v>
@@ -4959,10 +4962,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B284" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C284" t="s">
         <v>367</v>
@@ -4970,10 +4973,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B285" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C285" t="s">
         <v>368</v>
@@ -4981,10 +4984,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C286" t="s">
         <v>369</v>
@@ -4992,10 +4995,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B287" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C287" t="s">
         <v>370</v>
@@ -5006,7 +5009,7 @@
         <v>41</v>
       </c>
       <c r="B288" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C288" t="s">
         <v>371</v>
@@ -5014,10 +5017,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B289" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C289" t="s">
         <v>372</v>
@@ -5025,10 +5028,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C290" t="s">
         <v>373</v>
@@ -5036,10 +5039,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B291" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C291" t="s">
         <v>374</v>
@@ -5047,7 +5050,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B292" t="s">
         <v>92</v>
@@ -5058,7 +5061,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B293" t="s">
         <v>92</v>
@@ -5069,10 +5072,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B294" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C294" t="s">
         <v>377</v>
@@ -5080,10 +5083,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B295" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C295" t="s">
         <v>378</v>
@@ -5094,7 +5097,7 @@
         <v>34</v>
       </c>
       <c r="B296" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C296" t="s">
         <v>379</v>
@@ -5102,7 +5105,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B297" t="s">
         <v>96</v>
@@ -5113,10 +5116,10 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B298" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C298" t="s">
         <v>381</v>
@@ -5124,10 +5127,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B299" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C299" t="s">
         <v>382</v>
@@ -5138,7 +5141,7 @@
         <v>36</v>
       </c>
       <c r="B300" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C300" t="s">
         <v>383</v>
@@ -5146,10 +5149,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B301" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C301" t="s">
         <v>384</v>
@@ -5157,10 +5160,10 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B302" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C302" t="s">
         <v>385</v>
@@ -5171,7 +5174,7 @@
         <v>36</v>
       </c>
       <c r="B303" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C303" t="s">
         <v>386</v>
@@ -5182,18 +5185,18 @@
         <v>36</v>
       </c>
       <c r="B304" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C304" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B305" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C305" t="s">
         <v>387</v>
@@ -5204,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="B306" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C306" t="s">
         <v>388</v>
@@ -5215,7 +5218,7 @@
         <v>41</v>
       </c>
       <c r="B307" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C307" t="s">
         <v>389</v>
@@ -5223,10 +5226,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B308" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C308" t="s">
         <v>390</v>
@@ -5234,10 +5237,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B309" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C309" t="s">
         <v>391</v>
@@ -5245,7 +5248,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B310" t="s">
         <v>98</v>
@@ -5256,7 +5259,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B311" t="s">
         <v>98</v>
@@ -5267,10 +5270,10 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B312" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C312" t="s">
         <v>394</v>
@@ -5278,10 +5281,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C313" t="s">
         <v>395</v>
@@ -5289,7 +5292,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
         <v>96</v>
@@ -5303,7 +5306,7 @@
         <v>22</v>
       </c>
       <c r="B315" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C315" t="s">
         <v>397</v>
@@ -5311,10 +5314,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B316" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C316" t="s">
         <v>398</v>
@@ -5322,10 +5325,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B317" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C317" t="s">
         <v>399</v>
@@ -5333,10 +5336,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B318" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C318" t="s">
         <v>400</v>
@@ -5344,10 +5347,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B319" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C319" t="s">
         <v>401</v>
@@ -5355,10 +5358,10 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B320" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C320" t="s">
         <v>402</v>
@@ -5366,10 +5369,10 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C321" t="s">
         <v>403</v>
@@ -5380,7 +5383,7 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C322" t="s">
         <v>404</v>
@@ -5391,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C323" t="s">
         <v>405</v>
@@ -5399,10 +5402,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C324" t="s">
         <v>406</v>
@@ -5410,10 +5413,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B325" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C325" t="s">
         <v>407</v>
@@ -5421,10 +5424,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C326" t="s">
         <v>408</v>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B327" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C327" t="s">
         <v>409</v>
@@ -5443,10 +5446,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C328" t="s">
         <v>410</v>
@@ -5454,10 +5457,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C329" t="s">
         <v>411</v>
@@ -5468,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="B330" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C330" t="s">
         <v>412</v>
@@ -5476,10 +5479,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B331" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C331" t="s">
         <v>413</v>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B332" t="s">
         <v>99</v>
@@ -5498,10 +5501,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B333" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C333" t="s">
         <v>415</v>
@@ -5512,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C334" t="s">
         <v>416</v>
@@ -5520,21 +5523,21 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C335" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C336" t="s">
         <v>417</v>
@@ -5545,7 +5548,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C337" t="s">
         <v>418</v>
@@ -5556,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C338" t="s">
         <v>419</v>
@@ -5567,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C339" t="s">
         <v>420</v>
@@ -5575,10 +5578,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C340" t="s">
         <v>421</v>
@@ -5586,7 +5589,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B341" t="s">
         <v>93</v>
@@ -5600,7 +5603,7 @@
         <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C342" t="s">
         <v>423</v>
@@ -5611,7 +5614,7 @@
         <v>14</v>
       </c>
       <c r="B343" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C343" t="s">
         <v>424</v>
@@ -5619,10 +5622,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B344" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C344" t="s">
         <v>425</v>
@@ -5633,7 +5636,7 @@
         <v>10</v>
       </c>
       <c r="B345" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C345" t="s">
         <v>426</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B346" t="s">
         <v>93</v>
@@ -5655,18 +5658,18 @@
         <v>53</v>
       </c>
       <c r="B347" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C347" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B348" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C348" t="s">
         <v>428</v>
@@ -5674,10 +5677,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B349" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C349" t="s">
         <v>429</v>
@@ -5688,7 +5691,7 @@
         <v>10</v>
       </c>
       <c r="B350" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C350" t="s">
         <v>430</v>
@@ -5696,10 +5699,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B351" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C351" t="s">
         <v>431</v>
@@ -5710,7 +5713,7 @@
         <v>52</v>
       </c>
       <c r="B352" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C352" t="s">
         <v>432</v>
@@ -5718,10 +5721,10 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B353" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C353" t="s">
         <v>433</v>
@@ -5729,10 +5732,10 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B354" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C354" t="s">
         <v>434</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B355" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C355" t="s">
         <v>435</v>
@@ -5751,7 +5754,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B356" t="s">
         <v>93</v>
@@ -5762,7 +5765,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B357" t="s">
         <v>93</v>
@@ -5776,7 +5779,7 @@
         <v>52</v>
       </c>
       <c r="B358" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C358" t="s">
         <v>438</v>
@@ -5784,10 +5787,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B359" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C359" t="s">
         <v>439</v>
@@ -5795,10 +5798,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B360" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C360" t="s">
         <v>440</v>
@@ -5806,10 +5809,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B361" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C361" t="s">
         <v>441</v>
@@ -5817,10 +5820,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B362" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C362" t="s">
         <v>442</v>
@@ -5831,7 +5834,7 @@
         <v>52</v>
       </c>
       <c r="B363" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C363" t="s">
         <v>443</v>
@@ -5842,7 +5845,7 @@
         <v>52</v>
       </c>
       <c r="B364" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C364" t="s">
         <v>444</v>
@@ -5850,10 +5853,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B365" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C365" t="s">
         <v>445</v>
@@ -5864,7 +5867,7 @@
         <v>26</v>
       </c>
       <c r="B366" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C366" t="s">
         <v>446</v>
@@ -5875,7 +5878,7 @@
         <v>26</v>
       </c>
       <c r="B367" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C367" t="s">
         <v>447</v>
@@ -5883,10 +5886,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B368" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C368" t="s">
         <v>448</v>
@@ -5897,7 +5900,7 @@
         <v>25</v>
       </c>
       <c r="B369" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C369" t="s">
         <v>449</v>
@@ -5908,7 +5911,7 @@
         <v>25</v>
       </c>
       <c r="B370" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C370" t="s">
         <v>450</v>
@@ -5919,7 +5922,7 @@
         <v>25</v>
       </c>
       <c r="B371" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C371" t="s">
         <v>451</v>
@@ -5927,10 +5930,10 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B372" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C372" t="s">
         <v>452</v>
@@ -5938,10 +5941,10 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B373" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C373" t="s">
         <v>453</v>
@@ -5949,7 +5952,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B374" t="s">
         <v>96</v>
@@ -5960,7 +5963,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B375" t="s">
         <v>96</v>
@@ -5971,7 +5974,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B376" t="s">
         <v>96</v>
@@ -5982,7 +5985,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B377" t="s">
         <v>96</v>
@@ -5993,10 +5996,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C378" t="s">
         <v>458</v>
@@ -6007,7 +6010,7 @@
         <v>45</v>
       </c>
       <c r="B379" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C379" t="s">
         <v>459</v>
@@ -6018,7 +6021,7 @@
         <v>45</v>
       </c>
       <c r="B380" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C380" t="s">
         <v>460</v>
@@ -6026,10 +6029,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B381" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C381" t="s">
         <v>461</v>
@@ -6040,7 +6043,7 @@
         <v>37</v>
       </c>
       <c r="B382" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C382" t="s">
         <v>462</v>
@@ -6048,10 +6051,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B383" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C383" t="s">
         <v>463</v>
@@ -6059,10 +6062,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B384" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C384" t="s">
         <v>464</v>
@@ -6070,10 +6073,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B385" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C385" t="s">
         <v>465</v>
@@ -6081,10 +6084,10 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B386" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C386" t="s">
         <v>466</v>
@@ -6092,10 +6095,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B387" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C387" t="s">
         <v>467</v>
@@ -6103,10 +6106,10 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B388" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C388" t="s">
         <v>468</v>
@@ -6117,7 +6120,7 @@
         <v>40</v>
       </c>
       <c r="B389" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C389" t="s">
         <v>469</v>
@@ -6125,10 +6128,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B390" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C390" t="s">
         <v>470</v>
@@ -6139,7 +6142,7 @@
         <v>32</v>
       </c>
       <c r="B391" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C391" t="s">
         <v>471</v>
@@ -6147,18 +6150,18 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B392" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C392" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B393" t="s">
         <v>54</v>
@@ -6169,10 +6172,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B394" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C394" t="s">
         <v>473</v>
@@ -6183,7 +6186,7 @@
         <v>16</v>
       </c>
       <c r="B395" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C395" t="s">
         <v>474</v>
@@ -6191,10 +6194,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B396" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C396" t="s">
         <v>475</v>
@@ -6205,7 +6208,7 @@
         <v>33</v>
       </c>
       <c r="B397" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C397" t="s">
         <v>476</v>
@@ -6213,10 +6216,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B398" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C398" t="s">
         <v>477</v>
@@ -6235,10 +6238,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B400" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C400" t="s">
         <v>479</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B401" t="s">
         <v>96</v>
@@ -6257,7 +6260,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B402" t="s">
         <v>96</v>
@@ -6271,7 +6274,7 @@
         <v>13</v>
       </c>
       <c r="B403" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C403" t="s">
         <v>482</v>
@@ -6279,10 +6282,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B404" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C404" t="s">
         <v>483</v>
@@ -6290,7 +6293,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B405" t="s">
         <v>96</v>
@@ -6301,10 +6304,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B406" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C406" t="s">
         <v>485</v>
@@ -6315,7 +6318,7 @@
         <v>19</v>
       </c>
       <c r="B407" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C407" t="s">
         <v>486</v>
@@ -6323,7 +6326,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B408" t="s">
         <v>96</v>
@@ -6337,10 +6340,21 @@
         <v>44</v>
       </c>
       <c r="B409" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C409" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>44</v>
+      </c>
+      <c r="B410" t="s">
+        <v>54</v>
+      </c>
+      <c r="C410" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="492">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Whitespace</t>
+  </si>
+  <si>
     <t>Emoji</t>
   </si>
   <si>
@@ -178,15 +181,15 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
     <t>kharayo1x</t>
   </si>
   <si>
     <t>p0tato</t>
   </si>
   <si>
-    <t>0xN1kU_H4X_!</t>
-  </si>
-  <si>
     <t>YoursTruly</t>
   </si>
   <si>
@@ -314,6 +317,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Aug. 31, 2025, 4:48 p.m.</t>
   </si>
   <si>
     <t>Aug. 29, 2025, 3:50 a.m.</t>
@@ -1841,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C410"/>
+  <dimension ref="A1:C411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1863,32 +1869,32 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1896,21 +1902,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1918,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1929,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1940,10 +1946,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1951,10 +1957,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1962,10 +1968,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1973,10 +1979,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1984,10 +1990,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1995,10 +2001,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2006,10 +2012,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2017,10 +2023,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2028,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2039,10 +2045,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2050,10 +2056,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2061,10 +2067,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2072,10 +2078,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2083,10 +2089,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2094,10 +2100,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2105,10 +2111,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2116,32 +2122,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2149,10 +2155,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2160,10 +2166,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2171,10 +2177,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2182,10 +2188,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2193,10 +2199,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2204,10 +2210,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2215,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2226,10 +2232,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2237,10 +2243,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2248,32 +2254,32 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2284,7 +2290,7 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2295,7 +2301,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2303,32 +2309,32 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2336,10 +2342,10 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2347,76 +2353,76 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2424,120 +2430,120 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2545,10 +2551,10 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2556,43 +2562,43 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2600,120 +2606,120 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2721,252 +2727,252 @@
         <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2977,117 +2983,117 @@
         <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
         <v>82</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3095,76 +3101,76 @@
         <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3172,186 +3178,186 @@
         <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C134" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3359,109 +3365,109 @@
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C141" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C142" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C143" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B146" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3469,835 +3475,835 @@
         <v>48</v>
       </c>
       <c r="B148" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C150" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C151" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C153" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B155" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B156" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B157" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C157" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B161" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C161" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C164" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C165" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C167" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B168" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C168" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C169" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B170" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C170" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C171" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C172" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C173" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C174" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C175" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C177" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C178" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C181" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C182" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C183" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B186" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C187" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B188" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C188" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C189" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C190" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B191" t="s">
         <v>64</v>
       </c>
       <c r="C191" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B193" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C193" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C194" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B195" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C195" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C196" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C197" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C198" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C199" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C201" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B202" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C202" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C203" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C204" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C205" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B206" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C206" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B207" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C208" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B209" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C210" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B211" t="s">
         <v>92</v>
       </c>
       <c r="C211" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B212" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C212" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C213" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B214" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C214" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B215" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C215" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B217" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C217" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B218" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C218" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B219" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C219" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B220" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C220" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B221" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C221" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B222" t="s">
         <v>92</v>
       </c>
       <c r="C222" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B223" t="s">
         <v>93</v>
       </c>
       <c r="C223" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4305,384 +4311,384 @@
         <v>51</v>
       </c>
       <c r="B224" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C224" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B225" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C225" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B226" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C226" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C227" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C228" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C229" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C230" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C231" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B232" t="s">
         <v>96</v>
       </c>
       <c r="C232" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B233" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C233" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C234" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B235" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C235" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B236" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C236" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C237" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B238" t="s">
         <v>56</v>
       </c>
       <c r="C238" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C239" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C240" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B241" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C241" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B242" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C242" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B243" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C243" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B244" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C244" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B245" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C245" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B246" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C246" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C247" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B248" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C248" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C249" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B250" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C250" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B251" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C251" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C252" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C254" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C255" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C256" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B257" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C257" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B258" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C258" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4690,109 +4696,109 @@
         <v>28</v>
       </c>
       <c r="B259" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C259" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B260" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C260" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B261" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C261" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B262" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C262" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B263" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C263" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B264" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C264" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B265" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C265" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B266" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C266" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B267" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C267" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B268" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C268" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4800,32 +4806,32 @@
         <v>21</v>
       </c>
       <c r="B269" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C269" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B270" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C270" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C271" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4833,604 +4839,604 @@
         <v>21</v>
       </c>
       <c r="B272" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C272" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B273" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C273" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C274" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B275" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C275" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C276" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C277" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C278" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B279" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C279" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B280" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C280" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B281" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C281" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B282" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C282" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C283" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B284" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C284" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B285" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C285" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B286" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C286" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C287" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C288" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B289" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C289" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B290" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C290" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C291" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B292" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B293" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C293" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C294" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B295" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C295" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B296" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C296" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B297" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C297" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B298" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C298" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B299" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C299" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C300" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B301" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C301" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B302" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C302" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B303" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C303" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B304" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C304" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B305" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C305" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B306" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C306" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B307" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C307" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B308" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C308" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B309" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C309" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B310" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C310" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B311" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C311" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B312" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C312" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B313" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C313" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B314" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C314" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C315" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B316" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C316" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B317" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C317" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B318" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C318" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B319" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C319" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B320" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C320" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B321" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C321" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B322" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C322" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B323" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C323" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B324" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C324" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C325" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B326" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C326" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5438,725 +5444,725 @@
         <v>10</v>
       </c>
       <c r="B327" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C327" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C328" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B329" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C329" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B330" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C330" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B331" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C331" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B332" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C332" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B333" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C333" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B334" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C334" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B335" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C335" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B336" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C336" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C337" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C338" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C339" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C340" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C341" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C342" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B343" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C343" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B344" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C344" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B345" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C345" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C346" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B347" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C347" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B348" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C348" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B349" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C349" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B350" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C350" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C351" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B352" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C352" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B353" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C353" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B354" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C354" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C355" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B356" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C356" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B357" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C357" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B358" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C358" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B359" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C359" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B360" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C360" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C361" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B362" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C362" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B363" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C363" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B364" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C364" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B365" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C365" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B366" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C366" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B367" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C367" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B368" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C368" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B369" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C369" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B370" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C370" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B371" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C371" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B372" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C372" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B373" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C373" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B374" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C374" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B375" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C375" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B376" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C376" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B377" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C377" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B378" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C378" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B379" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C379" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B380" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C380" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B381" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C381" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B382" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C382" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B383" t="s">
         <v>93</v>
       </c>
       <c r="C383" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B384" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C384" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B385" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C385" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B386" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C386" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B387" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C387" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B388" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C388" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B389" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C389" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B390" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C390" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B391" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C391" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B392" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C392" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6164,197 +6170,208 @@
         <v>33</v>
       </c>
       <c r="B393" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C393" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B394" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C394" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B395" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C395" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B396" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C396" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B397" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C397" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B398" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C398" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B399" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C399" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B400" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C400" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B401" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C401" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B402" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C402" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B403" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C403" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B404" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C404" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B405" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C405" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B406" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C406" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B407" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C407" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B408" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C408" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B409" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C409" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B410" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C410" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>45</v>
+      </c>
+      <c r="B411" t="s">
+        <v>56</v>
+      </c>
+      <c r="C411" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="497">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,18 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Stylish</t>
+  </si>
+  <si>
+    <t>Google Docs</t>
+  </si>
+  <si>
+    <t>CPU Binding</t>
+  </si>
+  <si>
+    <t>Life or Death</t>
+  </si>
+  <si>
     <t>Whitespace</t>
   </si>
   <si>
@@ -61,9 +73,6 @@
     <t>Zulu</t>
   </si>
   <si>
-    <t>Google Docs</t>
-  </si>
-  <si>
     <t>Tap Tap</t>
   </si>
   <si>
@@ -127,9 +136,6 @@
     <t>Cookie</t>
   </si>
   <si>
-    <t>Stylish</t>
-  </si>
-  <si>
     <t>Dude where is my car</t>
   </si>
   <si>
@@ -151,9 +157,6 @@
     <t>Final Destination</t>
   </si>
   <si>
-    <t>CPU Binding</t>
-  </si>
-  <si>
     <t>Rotate your point of view</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>MoonLight</t>
+  </si>
+  <si>
     <t>0xN1kU_H4X_!</t>
   </si>
   <si>
@@ -292,9 +298,6 @@
     <t>प्रणय</t>
   </si>
   <si>
-    <t>MoonLight</t>
-  </si>
-  <si>
     <t>MrBender</t>
   </si>
   <si>
@@ -317,6 +320,18 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Sept. 4, 2025, 4:48 p.m.</t>
+  </si>
+  <si>
+    <t>Sept. 4, 2025, 12:51 p.m.</t>
+  </si>
+  <si>
+    <t>Sept. 4, 2025, 11:57 a.m.</t>
+  </si>
+  <si>
+    <t>Sept. 4, 2025, 11:04 a.m.</t>
   </si>
   <si>
     <t>Aug. 31, 2025, 4:48 p.m.</t>
@@ -1847,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C411"/>
+  <dimension ref="A1:C415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1868,99 +1883,99 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
+      <c r="B2">
+        <v>1.336614365088055E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
+      <c r="B3">
+        <v>1.336614365088055E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.336614365088055E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1968,10 +1983,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1979,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1990,10 +2005,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2001,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2012,10 +2027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2023,10 +2038,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2034,10 +2049,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2045,10 +2060,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2056,10 +2071,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2067,76 +2082,76 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2144,43 +2159,43 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2188,98 +2203,98 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2287,10 +2302,10 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2298,10 +2313,10 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2312,29 +2327,29 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2345,216 +2360,216 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2562,1649 +2577,1649 @@
         <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
         <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
         <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
         <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>79</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
         <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C116" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
         <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
         <v>84</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B122" t="s">
         <v>84</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
         <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C138" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C139" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C149" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C151" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C152" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B153" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C153" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C154" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C155" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B156" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C156" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
         <v>85</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C160" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C161" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B162" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C163" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B165" t="s">
         <v>83</v>
       </c>
       <c r="C165" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C167" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C169" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C170" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C171" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B172" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C172" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B174" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C174" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B175" t="s">
         <v>89</v>
       </c>
       <c r="C175" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C176" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C177" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C178" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C181" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C182" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C183" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B184" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B185" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B186" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C186" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B187" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C189" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B190" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B191" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C191" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C192" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C193" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C194" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C195" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B196" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C196" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B197" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C197" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B198" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C198" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C199" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C200" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B201" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C201" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C202" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C203" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B204" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C204" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C205" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B206" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C206" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B207" t="s">
         <v>63</v>
       </c>
       <c r="C207" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C208" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C209" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B210" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C210" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C211" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C212" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B213" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C213" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C214" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4212,1110 +4227,1110 @@
         <v>39</v>
       </c>
       <c r="B215" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C215" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C216" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C217" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B218" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C218" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B219" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B220" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C221" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C222" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B223" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C223" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B224" t="s">
         <v>94</v>
       </c>
       <c r="C224" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B225" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C225" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B226" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C226" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B227" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C227" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B228" t="s">
         <v>95</v>
       </c>
       <c r="C228" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B229" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C229" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B230" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C230" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B231" t="s">
         <v>96</v>
       </c>
       <c r="C231" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B232" t="s">
         <v>96</v>
       </c>
       <c r="C232" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B233" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C233" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C234" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C235" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B236" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C236" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B237" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C237" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C238" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B239" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C239" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C240" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C241" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C242" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B243" t="s">
         <v>57</v>
       </c>
       <c r="C243" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B244" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C245" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C247" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B248" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C248" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B249" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C249" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B250" t="s">
         <v>56</v>
       </c>
       <c r="C250" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C251" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B252" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C252" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C253" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B254" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C254" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B255" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C255" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B256" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C256" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B257" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C257" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B258" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C258" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B259" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C259" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B260" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C260" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B261" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C261" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C262" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B263" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C263" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B264" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C264" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B265" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C265" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B266" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C266" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C267" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C268" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B269" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C269" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B270" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C270" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B271" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C271" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B272" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C272" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B273" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C273" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B274" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C274" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B275" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C275" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B276" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C276" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B277" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C277" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B278" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C278" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B279" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C279" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B280" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C280" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B281" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C281" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B282" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C282" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B283" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C283" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B284" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C284" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B285" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C285" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B286" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C286" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B287" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C287" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B288" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C288" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B289" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C289" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B290" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C290" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B291" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C291" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B292" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C292" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B293" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C293" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B294" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C294" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B295" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C295" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B296" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C296" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B297" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C297" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B298" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C298" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B299" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C299" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B300" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C300" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B301" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C301" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B302" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C302" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B303" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C303" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B304" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C304" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C305" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B306" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C306" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B307" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C307" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B308" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C308" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B309" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C309" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B310" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C310" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B311" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C311" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B312" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C312" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B313" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C313" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B314" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C314" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B315" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C315" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5323,285 +5338,285 @@
         <v>23</v>
       </c>
       <c r="B316" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C316" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B317" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C317" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B318" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C318" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C319" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B320" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C320" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B321" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C321" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B322" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C322" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B323" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C323" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B324" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C324" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B325" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C325" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C326" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C327" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B328" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C328" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C329" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B330" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C330" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B331" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C331" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B332" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C332" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B333" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C333" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B334" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C334" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B335" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C335" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B336" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C336" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B337" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C337" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B338" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C338" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B339" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C339" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B340" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C340" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B341" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C341" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5609,703 +5624,703 @@
         <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C342" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B343" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C343" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C344" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C345" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B346" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C346" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C347" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C348" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C349" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B350" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C350" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B351" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C351" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B352" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C352" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B353" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C353" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B354" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C354" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B355" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C355" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B356" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C356" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B357" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C357" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B358" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C358" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B359" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C359" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B360" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C360" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B361" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C361" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B362" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C362" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B363" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C363" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B364" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C364" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B365" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C365" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B366" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C366" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B367" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C367" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B368" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C368" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B369" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C369" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B370" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C370" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B371" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C371" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B372" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C372" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B373" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C373" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B374" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C374" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B375" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C375" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B376" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C376" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B377" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C377" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B378" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C378" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B379" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C379" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B380" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C380" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B381" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C381" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B382" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C382" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B383" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C383" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B384" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C384" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B385" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C385" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B386" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C386" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B387" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C387" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B388" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C388" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B389" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C389" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B390" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C390" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B391" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C391" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B392" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C392" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B393" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C393" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B394" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C394" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B395" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C395" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B396" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C396" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B397" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C397" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B398" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C398" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B399" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C399" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B400" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C400" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B401" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C401" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B402" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C402" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B403" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C403" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B404" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C404" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B405" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C405" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6313,65 +6328,109 @@
         <v>31</v>
       </c>
       <c r="B406" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C406" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B407" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C407" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B408" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C408" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B409" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C409" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B410" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C410" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B411" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C411" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" t="s">
+        <v>59</v>
+      </c>
+      <c r="C412" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" t="s">
+        <v>98</v>
+      </c>
+      <c r="C413" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" t="s">
+        <v>98</v>
+      </c>
+      <c r="C414" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" t="s">
+        <v>58</v>
+      </c>
+      <c r="C415" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/CTF_updated.xlsx
+++ b/CTF_updated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="498">
   <si>
     <t>Challenge</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Solved time</t>
   </si>
   <si>
+    <t>Life or Death</t>
+  </si>
+  <si>
     <t>Stylish</t>
   </si>
   <si>
@@ -34,9 +37,6 @@
     <t>CPU Binding</t>
   </si>
   <si>
-    <t>Life or Death</t>
-  </si>
-  <si>
     <t>Whitespace</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Romagnol Prometheus</t>
   </si>
   <si>
+    <t>0xN1kU_H4X_!</t>
+  </si>
+  <si>
     <t>MoonLight</t>
   </si>
   <si>
-    <t>0xN1kU_H4X_!</t>
-  </si>
-  <si>
     <t>kharayo1x</t>
   </si>
   <si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>krazy</t>
+  </si>
+  <si>
+    <t>Oct. 30, 2025, 4:07 a.m.</t>
   </si>
   <si>
     <t>Sept. 4, 2025, 4:48 p.m.</t>
@@ -1862,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C415"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1883,8 +1886,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1.336614365088055E+18</v>
+      <c r="B2" t="s">
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
@@ -1916,8 +1919,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
+      <c r="B5">
+        <v>1.336614365088055E+18</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -1925,7 +1928,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -1936,10 +1939,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>107</v>
@@ -1950,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -1961,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -1969,10 +1972,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
@@ -1983,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -1991,10 +1994,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>113</v>
@@ -2013,10 +2016,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>114</v>
@@ -2024,10 +2027,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
@@ -2035,10 +2038,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>116</v>
@@ -2046,10 +2049,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>117</v>
@@ -2057,10 +2060,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>118</v>
@@ -2068,10 +2071,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>119</v>
@@ -2079,10 +2082,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>120</v>
@@ -2090,10 +2093,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>121</v>
@@ -2101,10 +2104,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>122</v>
@@ -2112,10 +2115,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>123</v>
@@ -2123,10 +2126,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
         <v>124</v>
@@ -2134,10 +2137,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>125</v>
@@ -2145,10 +2148,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
@@ -2156,10 +2159,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>127</v>
@@ -2167,10 +2170,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>128</v>
@@ -2178,10 +2181,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>129</v>
@@ -2189,10 +2192,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>130</v>
@@ -2203,7 +2206,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
@@ -2214,7 +2217,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>132</v>
@@ -2222,10 +2225,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -2233,10 +2236,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>134</v>
@@ -2244,10 +2247,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>135</v>
@@ -2255,10 +2258,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>136</v>
@@ -2266,10 +2269,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>137</v>
@@ -2277,10 +2280,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>138</v>
@@ -2288,10 +2291,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>139</v>
@@ -2299,10 +2302,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>140</v>
@@ -2310,10 +2313,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>141</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
@@ -2332,7 +2335,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -2354,10 +2357,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>145</v>
@@ -2365,10 +2368,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>146</v>
@@ -2376,10 +2379,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>147</v>
@@ -2387,10 +2390,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>148</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -2420,10 +2423,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
         <v>151</v>
@@ -2434,7 +2437,7 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
         <v>152</v>
@@ -2442,10 +2445,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>153</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
@@ -2467,7 +2470,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
         <v>155</v>
@@ -2475,10 +2478,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>156</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>64</v>
@@ -2508,7 +2511,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -2519,7 +2522,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
@@ -2552,10 +2555,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>163</v>
@@ -2566,7 +2569,7 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>164</v>
@@ -2574,7 +2577,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -2585,21 +2588,21 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>166</v>
@@ -2607,10 +2610,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>167</v>
@@ -2618,10 +2621,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>168</v>
@@ -2629,10 +2632,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
         <v>169</v>
@@ -2640,10 +2643,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
         <v>170</v>
@@ -2651,7 +2654,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -2662,10 +2665,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>172</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
         <v>68</v>
@@ -2684,10 +2687,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>174</v>
@@ -2695,7 +2698,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
         <v>70</v>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>70</v>
@@ -2728,13 +2731,13 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2742,7 +2745,7 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>178</v>
@@ -2750,10 +2753,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
         <v>179</v>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
         <v>72</v>
@@ -2772,10 +2775,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
         <v>181</v>
@@ -2783,10 +2786,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
         <v>182</v>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
         <v>73</v>
@@ -2805,10 +2808,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
         <v>184</v>
@@ -2816,10 +2819,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
         <v>185</v>
@@ -2827,13 +2830,13 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2841,18 +2844,18 @@
         <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
         <v>186</v>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
         <v>187</v>
@@ -2871,10 +2874,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
         <v>188</v>
@@ -2882,10 +2885,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
         <v>189</v>
@@ -2893,10 +2896,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
         <v>190</v>
@@ -2904,10 +2907,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
         <v>191</v>
@@ -2915,10 +2918,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
         <v>192</v>
@@ -2926,32 +2929,32 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
         <v>193</v>
@@ -2959,10 +2962,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>194</v>
@@ -2970,10 +2973,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
         <v>195</v>
@@ -2981,10 +2984,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C102" t="s">
         <v>196</v>
@@ -2992,10 +2995,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103" t="s">
         <v>197</v>
@@ -3003,10 +3006,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
         <v>198</v>
@@ -3014,10 +3017,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
         <v>199</v>
@@ -3025,7 +3028,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
         <v>63</v>
@@ -3036,10 +3039,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
         <v>201</v>
@@ -3047,10 +3050,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C108" t="s">
         <v>202</v>
@@ -3058,7 +3061,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
         <v>84</v>
@@ -3069,10 +3072,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
         <v>204</v>
@@ -3080,10 +3083,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
         <v>205</v>
@@ -3091,10 +3094,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C112" t="s">
         <v>206</v>
@@ -3102,7 +3105,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
         <v>85</v>
@@ -3113,10 +3116,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C114" t="s">
         <v>208</v>
@@ -3124,10 +3127,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
         <v>209</v>
@@ -3135,7 +3138,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s">
         <v>85</v>
@@ -3146,10 +3149,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C117" t="s">
         <v>211</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
         <v>61</v>
@@ -3168,10 +3171,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
         <v>213</v>
@@ -3179,7 +3182,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B120" t="s">
         <v>84</v>
@@ -3190,7 +3193,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
         <v>84</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
         <v>84</v>
@@ -3212,7 +3215,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B123" t="s">
         <v>84</v>
@@ -3223,10 +3226,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C124" t="s">
         <v>218</v>
@@ -3234,7 +3237,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B125" t="s">
         <v>86</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
         <v>86</v>
@@ -3256,7 +3259,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B127" t="s">
         <v>86</v>
@@ -3267,10 +3270,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
         <v>222</v>
@@ -3278,10 +3281,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
         <v>223</v>
@@ -3289,10 +3292,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C130" t="s">
         <v>224</v>
@@ -3300,10 +3303,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B131" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C131" t="s">
         <v>225</v>
@@ -3314,7 +3317,7 @@
         <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C132" t="s">
         <v>226</v>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
         <v>59</v>
@@ -3333,10 +3336,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
         <v>228</v>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B135" t="s">
         <v>82</v>
@@ -3355,10 +3358,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C136" t="s">
         <v>230</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B137" t="s">
         <v>66</v>
@@ -3377,10 +3380,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C138" t="s">
         <v>232</v>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
         <v>82</v>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B140" t="s">
         <v>82</v>
@@ -3410,10 +3413,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
         <v>235</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B142" t="s">
         <v>66</v>
@@ -3432,7 +3435,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B143" t="s">
         <v>66</v>
@@ -3446,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C144" t="s">
         <v>238</v>
@@ -3454,21 +3457,21 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C146" t="s">
         <v>239</v>
@@ -3476,7 +3479,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
         <v>82</v>
@@ -3487,7 +3490,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B148" t="s">
         <v>82</v>
@@ -3498,7 +3501,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B149" t="s">
         <v>82</v>
@@ -3509,10 +3512,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C150" t="s">
         <v>243</v>
@@ -3520,10 +3523,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C151" t="s">
         <v>244</v>
@@ -3531,21 +3534,21 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C153" t="s">
         <v>245</v>
@@ -3556,18 +3559,18 @@
         <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C154" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B155" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C155" t="s">
         <v>246</v>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C156" t="s">
         <v>247</v>
@@ -3586,10 +3589,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B157" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
         <v>248</v>
@@ -3597,10 +3600,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C158" t="s">
         <v>249</v>
@@ -3608,10 +3611,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C159" t="s">
         <v>250</v>
@@ -3619,21 +3622,21 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C160" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C161" t="s">
         <v>251</v>
@@ -3641,10 +3644,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C162" t="s">
         <v>252</v>
@@ -3652,10 +3655,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C163" t="s">
         <v>253</v>
@@ -3663,21 +3666,21 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C164" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C165" t="s">
         <v>254</v>
@@ -3685,10 +3688,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C166" t="s">
         <v>255</v>
@@ -3696,10 +3699,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C167" t="s">
         <v>256</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
         <v>88</v>
@@ -3721,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C169" t="s">
         <v>258</v>
@@ -3729,10 +3732,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C170" t="s">
         <v>259</v>
@@ -3743,7 +3746,7 @@
         <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C171" t="s">
         <v>260</v>
@@ -3751,21 +3754,21 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C172" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C173" t="s">
         <v>261</v>
@@ -3773,7 +3776,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B174" t="s">
         <v>71</v>
@@ -3784,10 +3787,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B175" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C175" t="s">
         <v>263</v>
@@ -3795,10 +3798,10 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C176" t="s">
         <v>264</v>
@@ -3806,10 +3809,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C177" t="s">
         <v>265</v>
@@ -3817,10 +3820,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B178" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C178" t="s">
         <v>266</v>
@@ -3828,7 +3831,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
         <v>91</v>
@@ -3842,7 +3845,7 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C180" t="s">
         <v>268</v>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
         <v>88</v>
@@ -3861,10 +3864,10 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C182" t="s">
         <v>270</v>
@@ -3883,10 +3886,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C184" t="s">
         <v>272</v>
@@ -3894,10 +3897,10 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C185" t="s">
         <v>273</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B186" t="s">
         <v>67</v>
@@ -3916,29 +3919,29 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B187" t="s">
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B188" t="s">
         <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B189" t="s">
         <v>67</v>
@@ -3949,10 +3952,10 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C190" t="s">
         <v>276</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B191" t="s">
         <v>84</v>
@@ -3971,10 +3974,10 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C192" t="s">
         <v>278</v>
@@ -3982,10 +3985,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C193" t="s">
         <v>279</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>84</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C195" t="s">
         <v>281</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C196" t="s">
         <v>282</v>
@@ -4029,7 +4032,7 @@
         <v>42</v>
       </c>
       <c r="B197" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C197" t="s">
         <v>283</v>
@@ -4037,10 +4040,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B198" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C198" t="s">
         <v>284</v>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B199" t="s">
         <v>93</v>
@@ -4059,10 +4062,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C200" t="s">
         <v>286</v>
@@ -4070,7 +4073,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B201" t="s">
         <v>67</v>
@@ -4081,7 +4084,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
         <v>67</v>
@@ -4092,7 +4095,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
         <v>67</v>
@@ -4103,21 +4106,21 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B204" t="s">
         <v>67</v>
       </c>
       <c r="C204" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B205" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C205" t="s">
         <v>290</v>
@@ -4125,10 +4128,10 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B206" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C206" t="s">
         <v>291</v>
@@ -4136,10 +4139,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C207" t="s">
         <v>292</v>
@@ -4147,10 +4150,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C208" t="s">
         <v>293</v>
@@ -4158,10 +4161,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B209" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C209" t="s">
         <v>294</v>
@@ -4169,10 +4172,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C210" t="s">
         <v>295</v>
@@ -4183,7 +4186,7 @@
         <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C211" t="s">
         <v>296</v>
@@ -4194,7 +4197,7 @@
         <v>52</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C212" t="s">
         <v>297</v>
@@ -4202,10 +4205,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C213" t="s">
         <v>298</v>
@@ -4213,10 +4216,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C214" t="s">
         <v>299</v>
@@ -4224,10 +4227,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C215" t="s">
         <v>300</v>
@@ -4235,10 +4238,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B216" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C216" t="s">
         <v>301</v>
@@ -4246,10 +4249,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B217" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C217" t="s">
         <v>302</v>
@@ -4257,10 +4260,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B218" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C218" t="s">
         <v>303</v>
@@ -4268,10 +4271,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B219" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C219" t="s">
         <v>304</v>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B220" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C220" t="s">
         <v>305</v>
@@ -4293,7 +4296,7 @@
         <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C221" t="s">
         <v>306</v>
@@ -4301,10 +4304,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B222" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C222" t="s">
         <v>307</v>
@@ -4312,10 +4315,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B223" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C223" t="s">
         <v>308</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B224" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C224" t="s">
         <v>309</v>
@@ -4334,10 +4337,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B225" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C225" t="s">
         <v>310</v>
@@ -4348,7 +4351,7 @@
         <v>41</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C226" t="s">
         <v>311</v>
@@ -4356,10 +4359,10 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C227" t="s">
         <v>312</v>
@@ -4370,7 +4373,7 @@
         <v>52</v>
       </c>
       <c r="B228" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C228" t="s">
         <v>313</v>
@@ -4378,10 +4381,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B229" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C229" t="s">
         <v>314</v>
@@ -4392,7 +4395,7 @@
         <v>53</v>
       </c>
       <c r="B230" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C230" t="s">
         <v>315</v>
@@ -4400,10 +4403,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B231" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C231" t="s">
         <v>316</v>
@@ -4411,7 +4414,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B232" t="s">
         <v>96</v>
@@ -4422,7 +4425,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B233" t="s">
         <v>96</v>
@@ -4433,10 +4436,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C234" t="s">
         <v>319</v>
@@ -4444,10 +4447,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C235" t="s">
         <v>320</v>
@@ -4455,7 +4458,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B236" t="s">
         <v>97</v>
@@ -4469,7 +4472,7 @@
         <v>52</v>
       </c>
       <c r="B237" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C237" t="s">
         <v>322</v>
@@ -4477,7 +4480,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B238" t="s">
         <v>98</v>
@@ -4488,10 +4491,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B239" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C239" t="s">
         <v>324</v>
@@ -4502,7 +4505,7 @@
         <v>50</v>
       </c>
       <c r="B240" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C240" t="s">
         <v>325</v>
@@ -4513,7 +4516,7 @@
         <v>50</v>
       </c>
       <c r="B241" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C241" t="s">
         <v>326</v>
@@ -4521,10 +4524,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B242" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C242" t="s">
         <v>327</v>
@@ -4535,7 +4538,7 @@
         <v>48</v>
       </c>
       <c r="B243" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C243" t="s">
         <v>328</v>
@@ -4543,10 +4546,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B244" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C244" t="s">
         <v>329</v>
@@ -4557,7 +4560,7 @@
         <v>52</v>
       </c>
       <c r="B245" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C245" t="s">
         <v>330</v>
@@ -4568,7 +4571,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C246" t="s">
         <v>331</v>
@@ -4579,7 +4582,7 @@
         <v>52</v>
       </c>
       <c r="B247" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C247" t="s">
         <v>332</v>
@@ -4590,7 +4593,7 @@
         <v>52</v>
       </c>
       <c r="B248" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C248" t="s">
         <v>333</v>
@@ -4598,10 +4601,10 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B249" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C249" t="s">
         <v>334</v>
@@ -4612,7 +4615,7 @@
         <v>51</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C250" t="s">
         <v>335</v>
@@ -4620,10 +4623,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C251" t="s">
         <v>336</v>
@@ -4631,7 +4634,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B252" t="s">
         <v>63</v>
@@ -4642,7 +4645,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B253" t="s">
         <v>63</v>
@@ -4656,7 +4659,7 @@
         <v>51</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C254" t="s">
         <v>339</v>
@@ -4667,7 +4670,7 @@
         <v>51</v>
       </c>
       <c r="B255" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C255" t="s">
         <v>340</v>
@@ -4678,7 +4681,7 @@
         <v>51</v>
       </c>
       <c r="B256" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C256" t="s">
         <v>341</v>
@@ -4689,7 +4692,7 @@
         <v>51</v>
       </c>
       <c r="B257" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C257" t="s">
         <v>342</v>
@@ -4697,10 +4700,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B258" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C258" t="s">
         <v>343</v>
@@ -4711,7 +4714,7 @@
         <v>19</v>
       </c>
       <c r="B259" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C259" t="s">
         <v>344</v>
@@ -4719,10 +4722,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B260" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C260" t="s">
         <v>345</v>
@@ -4730,7 +4733,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B261" t="s">
         <v>64</v>
@@ -4741,7 +4744,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B262" t="s">
         <v>64</v>
@@ -4752,10 +4755,10 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C263" t="s">
         <v>348</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B264" t="s">
         <v>94</v>
@@ -4774,10 +4777,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B265" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C265" t="s">
         <v>350</v>
@@ -4785,10 +4788,10 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B266" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C266" t="s">
         <v>351</v>
@@ -4796,10 +4799,10 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B267" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C267" t="s">
         <v>352</v>
@@ -4807,10 +4810,10 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C268" t="s">
         <v>353</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B269" t="s">
         <v>94</v>
@@ -4829,7 +4832,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B270" t="s">
         <v>94</v>
@@ -4840,10 +4843,10 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C271" t="s">
         <v>356</v>
@@ -4851,7 +4854,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B272" t="s">
         <v>59</v>
@@ -4862,7 +4865,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B273" t="s">
         <v>59</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B274" t="s">
         <v>59</v>
@@ -4884,10 +4887,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B275" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C275" t="s">
         <v>360</v>
@@ -4898,7 +4901,7 @@
         <v>24</v>
       </c>
       <c r="B276" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C276" t="s">
         <v>361</v>
@@ -4906,10 +4909,10 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B277" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C277" t="s">
         <v>362</v>
@@ -4917,10 +4920,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C278" t="s">
         <v>363</v>
@@ -4928,10 +4931,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B279" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C279" t="s">
         <v>364</v>
@@ -4939,10 +4942,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B280" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C280" t="s">
         <v>365</v>
@@ -4953,7 +4956,7 @@
         <v>13</v>
       </c>
       <c r="B281" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C281" t="s">
         <v>366</v>
@@ -4961,10 +4964,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B282" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C282" t="s">
         <v>367</v>
@@ -4972,10 +4975,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C283" t="s">
         <v>368</v>
@@ -4983,10 +4986,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B284" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C284" t="s">
         <v>369</v>
@@ -4994,10 +4997,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B285" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C285" t="s">
         <v>370</v>
@@ -5005,7 +5008,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B286" t="s">
         <v>94</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B287" t="s">
         <v>94</v>
@@ -5027,10 +5030,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B288" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C288" t="s">
         <v>373</v>
@@ -5041,7 +5044,7 @@
         <v>45</v>
       </c>
       <c r="B289" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C289" t="s">
         <v>374</v>
@@ -5049,10 +5052,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B290" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C290" t="s">
         <v>375</v>
@@ -5060,10 +5063,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C291" t="s">
         <v>376</v>
@@ -5071,10 +5074,10 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B292" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C292" t="s">
         <v>377</v>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C293" t="s">
         <v>378</v>
@@ -5096,7 +5099,7 @@
         <v>44</v>
       </c>
       <c r="B294" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C294" t="s">
         <v>379</v>
@@ -5104,10 +5107,10 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B295" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C295" t="s">
         <v>380</v>
@@ -5115,10 +5118,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B296" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C296" t="s">
         <v>381</v>
@@ -5126,10 +5129,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B297" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C297" t="s">
         <v>382</v>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B298" t="s">
         <v>94</v>
@@ -5148,7 +5151,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B299" t="s">
         <v>94</v>
@@ -5159,10 +5162,10 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B300" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C300" t="s">
         <v>385</v>
@@ -5170,10 +5173,10 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C301" t="s">
         <v>386</v>
@@ -5184,7 +5187,7 @@
         <v>38</v>
       </c>
       <c r="B302" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C302" t="s">
         <v>387</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B303" t="s">
         <v>98</v>
@@ -5203,10 +5206,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B304" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C304" t="s">
         <v>389</v>
@@ -5214,10 +5217,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B305" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C305" t="s">
         <v>390</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C306" t="s">
         <v>391</v>
@@ -5236,10 +5239,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C307" t="s">
         <v>392</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B308" t="s">
         <v>60</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C309" t="s">
         <v>394</v>
@@ -5269,21 +5272,21 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="C310" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C311" t="s">
         <v>395</v>
@@ -5294,7 +5297,7 @@
         <v>44</v>
       </c>
       <c r="B312" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C312" t="s">
         <v>396</v>
@@ -5305,7 +5308,7 @@
         <v>44</v>
       </c>
       <c r="B313" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C313" t="s">
         <v>397</v>
@@ -5313,10 +5316,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B314" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C314" t="s">
         <v>398</v>
@@ -5324,10 +5327,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B315" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C315" t="s">
         <v>399</v>
@@ -5335,7 +5338,7 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B316" t="s">
         <v>100</v>
@@ -5346,7 +5349,7 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B317" t="s">
         <v>100</v>
@@ -5357,10 +5360,10 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B318" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C318" t="s">
         <v>402</v>
@@ -5368,10 +5371,10 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B319" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C319" t="s">
         <v>403</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B320" t="s">
         <v>98</v>
@@ -5393,7 +5396,7 @@
         <v>26</v>
       </c>
       <c r="B321" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C321" t="s">
         <v>405</v>
@@ -5401,10 +5404,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B322" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C322" t="s">
         <v>406</v>
@@ -5412,10 +5415,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B323" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C323" t="s">
         <v>407</v>
@@ -5423,10 +5426,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B324" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C324" t="s">
         <v>408</v>
@@ -5434,10 +5437,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C325" t="s">
         <v>409</v>
@@ -5445,7 +5448,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B326" t="s">
         <v>60</v>
@@ -5456,10 +5459,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B327" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C327" t="s">
         <v>411</v>
@@ -5470,7 +5473,7 @@
         <v>14</v>
       </c>
       <c r="B328" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C328" t="s">
         <v>412</v>
@@ -5481,7 +5484,7 @@
         <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C329" t="s">
         <v>413</v>
@@ -5489,10 +5492,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C330" t="s">
         <v>414</v>
@@ -5500,7 +5503,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B331" t="s">
         <v>58</v>
@@ -5511,10 +5514,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B332" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C332" t="s">
         <v>416</v>
@@ -5522,10 +5525,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B333" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C333" t="s">
         <v>417</v>
@@ -5533,10 +5536,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B334" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C334" t="s">
         <v>418</v>
@@ -5544,7 +5547,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B335" t="s">
         <v>59</v>
@@ -5558,7 +5561,7 @@
         <v>17</v>
       </c>
       <c r="B336" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C336" t="s">
         <v>420</v>
@@ -5566,10 +5569,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B337" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C337" t="s">
         <v>421</v>
@@ -5577,7 +5580,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B338" t="s">
         <v>101</v>
@@ -5588,10 +5591,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C339" t="s">
         <v>423</v>
@@ -5602,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="B340" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C340" t="s">
         <v>424</v>
@@ -5610,21 +5613,21 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B341" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C341" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B342" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C342" t="s">
         <v>425</v>
@@ -5635,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="B343" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C343" t="s">
         <v>426</v>
@@ -5646,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="B344" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C344" t="s">
         <v>427</v>
@@ -5657,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="B345" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C345" t="s">
         <v>428</v>
@@ -5665,10 +5668,10 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B346" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C346" t="s">
         <v>429</v>
@@ -5676,7 +5679,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B347" t="s">
         <v>95</v>
@@ -5687,10 +5690,10 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B348" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C348" t="s">
         <v>431</v>
@@ -5698,10 +5701,10 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B349" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C349" t="s">
         <v>432</v>
@@ -5709,10 +5712,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B350" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C350" t="s">
         <v>433</v>
@@ -5723,7 +5726,7 @@
         <v>15</v>
       </c>
       <c r="B351" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C351" t="s">
         <v>434</v>
@@ -5731,7 +5734,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B352" t="s">
         <v>95</v>
@@ -5745,18 +5748,18 @@
         <v>55</v>
       </c>
       <c r="B353" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C353" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B354" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C354" t="s">
         <v>436</v>
@@ -5764,7 +5767,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B355" t="s">
         <v>58</v>
@@ -5778,7 +5781,7 @@
         <v>15</v>
       </c>
       <c r="B356" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C356" t="s">
         <v>438</v>
@@ -5786,10 +5789,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B357" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C357" t="s">
         <v>439</v>
@@ -5800,7 +5803,7 @@
         <v>54</v>
       </c>
       <c r="B358" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C358" t="s">
         <v>440</v>
@@ -5808,10 +5811,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B359" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C359" t="s">
         <v>441</v>
@@ -5819,10 +5822,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B360" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C360" t="s">
         <v>442</v>
@@ -5830,10 +5833,10 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B361" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C361" t="s">
         <v>443</v>
@@ -5841,7 +5844,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B362" t="s">
         <v>95</v>
@@ -5852,7 +5855,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B363" t="s">
         <v>95</v>
@@ -5866,7 +5869,7 @@
         <v>54</v>
       </c>
       <c r="B364" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C364" t="s">
         <v>446</v>
@@ -5874,10 +5877,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B365" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C365" t="s">
         <v>447</v>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B366" t="s">
         <v>63</v>
@@ -5896,10 +5899,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B367" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C367" t="s">
         <v>449</v>
@@ -5907,10 +5910,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B368" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C368" t="s">
         <v>450</v>
@@ -5921,7 +5924,7 @@
         <v>54</v>
       </c>
       <c r="B369" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C369" t="s">
         <v>451</v>
@@ -5932,7 +5935,7 @@
         <v>54</v>
       </c>
       <c r="B370" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C370" t="s">
         <v>452</v>
@@ -5940,10 +5943,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B371" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C371" t="s">
         <v>453</v>
@@ -5954,7 +5957,7 @@
         <v>30</v>
       </c>
       <c r="B372" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C372" t="s">
         <v>454</v>
@@ -5965,7 +5968,7 @@
         <v>30</v>
       </c>
       <c r="B373" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C373" t="s">
         <v>455</v>
@@ -5973,10 +5976,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B374" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C374" t="s">
         <v>456</v>
@@ -5987,7 +5990,7 @@
         <v>29</v>
       </c>
       <c r="B375" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C375" t="s">
         <v>457</v>
@@ -5998,7 +6001,7 @@
         <v>29</v>
       </c>
       <c r="B376" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C376" t="s">
         <v>458</v>
@@ -6009,7 +6012,7 @@
         <v>29</v>
       </c>
       <c r="B377" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C377" t="s">
         <v>459</v>
@@ -6017,10 +6020,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B378" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C378" t="s">
         <v>460</v>
@@ -6028,10 +6031,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B379" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C379" t="s">
         <v>461</v>
@@ -6039,7 +6042,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B380" t="s">
         <v>98</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B381" t="s">
         <v>98</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B382" t="s">
         <v>98</v>
@@ -6072,7 +6075,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B383" t="s">
         <v>98</v>
@@ -6083,10 +6086,10 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B384" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C384" t="s">
         <v>466</v>
@@ -6097,7 +6100,7 @@
         <v>47</v>
       </c>
       <c r="B385" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C385" t="s">
         <v>467</v>
@@ -6108,7 +6111,7 @@
         <v>47</v>
       </c>
       <c r="B386" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C386" t="s">
         <v>468</v>
@@ -6116,10 +6119,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B387" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C387" t="s">
         <v>469</v>
@@ -6130,7 +6133,7 @@
         <v>40</v>
       </c>
       <c r="B388" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C388" t="s">
         <v>470</v>
@@ -6138,10 +6141,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B389" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C389" t="s">
         <v>471</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B390" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C390" t="s">
         <v>472</v>
@@ -6160,10 +6163,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B391" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C391" t="s">
         <v>473</v>
@@ -6171,10 +6174,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B392" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C392" t="s">
         <v>474</v>
@@ -6182,10 +6185,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B393" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C393" t="s">
         <v>475</v>
@@ -6193,10 +6196,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B394" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C394" t="s">
         <v>476</v>
@@ -6207,7 +6210,7 @@
         <v>43</v>
       </c>
       <c r="B395" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C395" t="s">
         <v>477</v>
@@ -6215,10 +6218,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B396" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C396" t="s">
         <v>478</v>
@@ -6229,7 +6232,7 @@
         <v>36</v>
       </c>
       <c r="B397" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C397" t="s">
         <v>479</v>
@@ -6237,21 +6240,21 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B398" t="s">
         <v>58</v>
       </c>
       <c r="C398" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B399" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C399" t="s">
         <v>480</v>
@@ -6259,10 +6262,10 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B400" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C400" t="s">
         <v>481</v>
@@ -6273,7 +6276,7 @@
         <v>20</v>
       </c>
       <c r="B401" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C401" t="s">
         <v>482</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B402" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C402" t="s">
         <v>483</v>
@@ -6295,7 +6298,7 @@
         <v>37</v>
       </c>
       <c r="B403" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C403" t="s">
         <v>484</v>
@@ -6303,10 +6306,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B404" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C404" t="s">
         <v>485</v>
@@ -6317,7 +6320,7 @@
         <v>49</v>
       </c>
       <c r="B405" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C405" t="s">
         <v>486</v>
@@ -6325,10 +6328,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B406" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C406" t="s">
         <v>487</v>
@@ -6336,7 +6339,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B407" t="s">
         <v>98</v>
@@ -6347,7 +6350,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B408" t="s">
         <v>98</v>
@@ -6361,7 +6364,7 @@
         <v>18</v>
       </c>
       <c r="B409" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C409" t="s">
         <v>490</v>
@@ -6369,10 +6372,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B410" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C410" t="s">
         <v>491</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B411" t="s">
         <v>98</v>
@@ -6391,10 +6394,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B412" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C412" t="s">
         <v>493</v>
@@ -6405,7 +6408,7 @@
         <v>23</v>
       </c>
       <c r="B413" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C413" t="s">
         <v>494</v>
@@ -6413,7 +6416,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B414" t="s">
         <v>98</v>
@@ -6424,13 +6427,24 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C415" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>58</v>
+      </c>
+      <c r="C416" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
